--- a/Fitabase Data 3.12.16-4.11.16/TotalDailyActivitySummedUp_03_04_2016.xlsx
+++ b/Fitabase Data 3.12.16-4.11.16/TotalDailyActivitySummedUp_03_04_2016.xlsx
@@ -1,44 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palla\Desktop\GoogleDataAnalyticsCapstoneProject\BellaBeatsCaseStudy\Fitabase Data 3.12.16-4.11.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palla\Desktop\GoogleDataAnalyticsCapstoneProject\BellaBeatsCaseStudy\Wearable-Fitness-Tracker-Feature-Analysis\Fitabase Data 3.12.16-4.11.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DBF051BC-EE4A-43E4-94CB-C1555B6B5C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43C3B1F-CAD2-49F2-AD6A-73E5D5F47F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PivotTable" sheetId="2" r:id="rId1"/>
     <sheet name="TotalDailyActivitySummedUp_03_0" sheetId="1" r:id="rId2"/>
-    <sheet name="Scatterplot" sheetId="3" r:id="rId3"/>
+    <sheet name="FeatureByUserPlot" sheetId="3" r:id="rId3"/>
     <sheet name="HeatMapofFeatureUse" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">TotalDailyActivitySummedUp_03_0!$T$2:$W$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">TotalDailyActivitySummedUp_03_0!$T$2:$Y$16</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">TotalDailyActivitySummedUp_03_0!$X$2:$X$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">TotalDailyActivitySummedUp_03_0!$T$2:$W$16</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">TotalDailyActivitySummedUp_03_0!$T$2:$Y$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">TotalDailyActivitySummedUp_03_0!$X$2:$X$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">[1]TotalDailyActivitySummedUp_04_0!$T$2:$W$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">[1]TotalDailyActivitySummedUp_04_0!$X$2:$X$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">TotalDailyActivitySummedUp_03_0!$T$2:$W$16</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">TotalDailyActivitySummedUp_03_0!$X$2:$X$16</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">TotalDailyActivitySummedUp_03_0!$T$2:$X$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">TotalDailyActivitySummedUp_03_0!$Y$2:$Y$16</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">TotalDailyActivitySummedUp_03_0!$T$2:$X$16</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">TotalDailyActivitySummedUp_03_0!$Y$2:$Y$16</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="83" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -257,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -954,13 +964,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -970,19 +979,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1043,7 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1052,7 +1061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1067,14 +1076,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1134,6 +1139,8 @@
   <colors>
     <mruColors>
       <color rgb="FFE26714"/>
+      <color rgb="FFFFECD5"/>
+      <color rgb="FFFFBA67"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1161,36 +1168,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1201,7 +1178,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1224,7 +1201,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1250,27 +1227,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$3:$N$3</c:f>
+              <c:f>FeatureByUserPlot!$I$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19.227180848724483</c:v>
+                  <c:v>19.247169358816695</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.286757765668884</c:v>
+                  <c:v>25.032338590610671</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2989656148852313</c:v>
+                  <c:v>1.1820236338859456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3035594026608397</c:v>
+                  <c:v>1.2606306024385403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,7 +1255,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000000-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1286,7 +1263,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1309,7 +1286,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1335,12 +1312,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$4:$N$4</c:f>
+              <c:f>FeatureByUserPlot!$I$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19.111947761925837</c:v>
+                  <c:v>19.49517682590421</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1363,7 +1340,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000001-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1371,7 +1348,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1394,7 +1371,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1420,18 +1397,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$5:$N$5</c:f>
+              <c:f>FeatureByUserPlot!$I$5:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.224040432550071</c:v>
+                  <c:v>10.48186563777195</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1027993110796102</c:v>
+                  <c:v>2.0636208543078318</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1448,7 +1425,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000002-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1456,7 +1433,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1479,7 +1456,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1505,18 +1482,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$6:$N$6</c:f>
+              <c:f>FeatureByUserPlot!$I$6:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.274935486563226</c:v>
+                  <c:v>12.155936638908104</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0334496219199862</c:v>
+                  <c:v>2.3036829001154406</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1533,7 +1510,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000003-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1541,7 +1518,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1564,7 +1541,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1590,24 +1567,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$7:$N$7</c:f>
+              <c:f>FeatureByUserPlot!$I$7:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.497959578103256</c:v>
+                  <c:v>12.472178671904151</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.129498719323021</c:v>
+                  <c:v>29.203596612178831</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4669891886494568</c:v>
+                  <c:v>1.2092476918228923</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1618,7 +1595,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000004-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1626,7 +1603,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1649,7 +1626,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1675,21 +1652,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$8:$N$8</c:f>
+              <c:f>FeatureByUserPlot!$I$8:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.478445088950092</c:v>
+                  <c:v>12.369144064502589</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.301726395576229</c:v>
+                  <c:v>1.2481832940323696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.261365258530077</c:v>
+                  <c:v>12.416248203476814</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1703,7 +1680,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000005-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1711,7 +1688,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1738,7 +1715,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1764,21 +1741,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$9:$N$9</c:f>
+              <c:f>FeatureByUserPlot!$I$9:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.116268698429032</c:v>
+                  <c:v>12.284166656754939</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.050722371926291</c:v>
+                  <c:v>32.294702979104471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4946124812068313</c:v>
+                  <c:v>1.3699662049881727</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1792,7 +1769,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000021-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1800,7 +1777,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1827,7 +1804,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1853,12 +1830,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$10:$N$10</c:f>
+              <c:f>FeatureByUserPlot!$I$10:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.004000831598562</c:v>
+                  <c:v>12.211310574580123</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1881,7 +1858,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000022-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1889,7 +1866,7 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1916,7 +1893,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1942,27 +1919,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$11:$N$11</c:f>
+              <c:f>FeatureByUserPlot!$I$11:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.297856115952932</c:v>
+                  <c:v>15.234696497870107</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.447471947696933</c:v>
+                  <c:v>25.443738492866103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.440115934314484</c:v>
+                  <c:v>14.046706650840143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1071336970243026</c:v>
+                  <c:v>1.178431050820296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0400657767743033</c:v>
+                  <c:v>1.2259586528067219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,7 +1947,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000023-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1978,7 +1955,7 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2005,7 +1982,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2031,12 +2008,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$12:$N$12</c:f>
+              <c:f>FeatureByUserPlot!$I$12:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.129110696895838</c:v>
+                  <c:v>12.411131895827944</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2048,7 +2025,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.41524544860345</c:v>
+                  <c:v>2.2117286961976306</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2059,7 +2036,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000024-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2067,7 +2044,7 @@
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2094,7 +2071,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2120,15 +2097,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$13:$N$13</c:f>
+              <c:f>FeatureByUserPlot!$I$13:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.3079061894273103</c:v>
+                  <c:v>8.2729179359644842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4767548384959559</c:v>
+                  <c:v>3.3421362326316304</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -2137,7 +2114,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0742992554523227</c:v>
+                  <c:v>1.3173051466506533</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2148,7 +2125,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000025-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2156,7 +2133,7 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2183,7 +2160,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2209,12 +2186,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$14:$N$14</c:f>
+              <c:f>FeatureByUserPlot!$I$14:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.430378584909805</c:v>
+                  <c:v>10.103467175947319</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2237,7 +2214,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000026-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2245,7 +2222,7 @@
           <c:idx val="12"/>
           <c:order val="12"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2274,7 +2251,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2300,18 +2277,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$15:$N$15</c:f>
+              <c:f>FeatureByUserPlot!$I$15:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.076897949213757</c:v>
+                  <c:v>12.299696175894569</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.447888775150059</c:v>
+                  <c:v>15.016459151208682</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -2328,7 +2305,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000027-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2336,7 +2313,7 @@
           <c:idx val="13"/>
           <c:order val="13"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2365,7 +2342,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2391,21 +2368,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$16:$N$16</c:f>
+              <c:f>FeatureByUserPlot!$I$16:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.155233184179117</c:v>
+                  <c:v>32.010113540992648</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.014459061378993</c:v>
+                  <c:v>15.405930757879224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.157384451594858</c:v>
+                  <c:v>12.244390856139086</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -2419,7 +2396,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000028-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2427,7 +2404,7 @@
           <c:idx val="14"/>
           <c:order val="14"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2456,7 +2433,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2482,15 +2459,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$17:$N$17</c:f>
+              <c:f>FeatureByUserPlot!$I$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.419752836474835</c:v>
+                  <c:v>32.454617478357321</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.238711512181661</c:v>
+                  <c:v>1.3472336888494416</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -2510,7 +2487,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000029-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2518,7 +2495,7 @@
           <c:idx val="15"/>
           <c:order val="15"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2547,7 +2524,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2573,18 +2550,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$18:$N$18</c:f>
+              <c:f>FeatureByUserPlot!$I$18:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.442803889860208</c:v>
+                  <c:v>12.341641339459851</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.258606647809589</c:v>
+                  <c:v>23.335358038734995</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -2601,7 +2578,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{0000002A-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2609,7 +2586,7 @@
           <c:idx val="16"/>
           <c:order val="16"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2638,7 +2615,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2664,12 +2641,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$19:$N$19</c:f>
+              <c:f>FeatureByUserPlot!$I$19:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.2785333691302192</c:v>
+                  <c:v>8.0749783920806308</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2692,7 +2669,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{0000002B-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2700,7 +2677,7 @@
           <c:idx val="17"/>
           <c:order val="17"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2729,7 +2706,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2755,24 +2732,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$20:$N$20</c:f>
+              <c:f>FeatureByUserPlot!$I$20:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.465449705112928</c:v>
+                  <c:v>15.279215782658799</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.127759648503982</c:v>
+                  <c:v>26.067089235248325</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.427623799453581</c:v>
+                  <c:v>1.4434335833779912</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2783,7 +2760,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{0000002C-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2791,7 +2768,7 @@
           <c:idx val="18"/>
           <c:order val="18"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2818,7 +2795,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2844,24 +2821,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$21:$N$21</c:f>
+              <c:f>FeatureByUserPlot!$I$21:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.343878730298341</c:v>
+                  <c:v>12.323029350056908</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2819537667218577</c:v>
+                  <c:v>2.2938624512646162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.240257004255875</c:v>
+                  <c:v>12.27011144268371</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0711456303949443</c:v>
+                  <c:v>1.0743908740049626</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2872,7 +2849,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{0000002D-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2880,7 +2857,7 @@
           <c:idx val="19"/>
           <c:order val="19"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2907,7 +2884,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2933,24 +2910,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$22:$N$22</c:f>
+              <c:f>FeatureByUserPlot!$I$22:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.402744583788897</c:v>
+                  <c:v>15.253934323189103</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.322133206635367</c:v>
+                  <c:v>28.447649633044861</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0389495507985178</c:v>
+                  <c:v>1.4090624819302762</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2961,7 +2938,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000031-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{0000002E-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2969,7 +2946,7 @@
           <c:idx val="20"/>
           <c:order val="20"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2996,7 +2973,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3022,21 +2999,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$23:$N$23</c:f>
+              <c:f>FeatureByUserPlot!$I$23:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.332357132332971</c:v>
+                  <c:v>12.350778531523307</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.317830073588727</c:v>
+                  <c:v>25.28855158757213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.317089141517421</c:v>
+                  <c:v>12.277016309607074</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3050,7 +3027,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000032-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{0000002F-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3058,7 +3035,7 @@
           <c:idx val="21"/>
           <c:order val="21"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3085,7 +3062,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3111,21 +3088,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$24:$N$24</c:f>
+              <c:f>FeatureByUserPlot!$I$24:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.173332774749731</c:v>
+                  <c:v>11.383008514422963</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.351643853301393</c:v>
+                  <c:v>30.411035613352368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.134748061160195</c:v>
+                  <c:v>11.249224221382645</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3139,7 +3116,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000033-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000030-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3147,7 +3124,7 @@
           <c:idx val="22"/>
           <c:order val="22"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3174,7 +3151,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3200,21 +3177,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$25:$N$25</c:f>
+              <c:f>FeatureByUserPlot!$I$25:$N$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.026965696632191</c:v>
+                  <c:v>10.106004189697748</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.075966207632526</c:v>
+                  <c:v>23.103458693817849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4368719662108695</c:v>
+                  <c:v>8.0387900505655541</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3228,7 +3205,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000034-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000031-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3236,7 +3213,7 @@
           <c:idx val="23"/>
           <c:order val="23"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3263,7 +3240,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3289,12 +3266,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$26:$N$26</c:f>
+              <c:f>FeatureByUserPlot!$I$26:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.095359397276708</c:v>
+                  <c:v>10.485587286722524</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -3317,7 +3294,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000035-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000032-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3325,7 +3302,7 @@
           <c:idx val="24"/>
           <c:order val="24"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3354,7 +3331,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3380,21 +3357,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$27:$N$27</c:f>
+              <c:f>FeatureByUserPlot!$I$27:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.4627857345802173</c:v>
+                  <c:v>9.0733109754000623</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0723421070788017</c:v>
+                  <c:v>2.2442800867812553</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3202569141980574</c:v>
+                  <c:v>3.4509782680334364</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3408,7 +3385,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000036-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000033-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3416,7 +3393,7 @@
           <c:idx val="25"/>
           <c:order val="25"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3445,7 +3422,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3471,21 +3448,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$28:$N$28</c:f>
+              <c:f>FeatureByUserPlot!$I$28:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.3747122844577966</c:v>
+                  <c:v>9.0510877134709293</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.095841835893664</c:v>
+                  <c:v>13.226814767184422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2230393373294692</c:v>
+                  <c:v>8.2186388690003938</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3499,7 +3476,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000037-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000034-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3507,7 +3484,7 @@
           <c:idx val="26"/>
           <c:order val="26"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3536,7 +3513,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3562,24 +3539,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$29:$N$29</c:f>
+              <c:f>FeatureByUserPlot!$I$29:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.342307282735833</c:v>
+                  <c:v>14.375167617433233</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4920849824188247</c:v>
+                  <c:v>4.4351759656815997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.051011094670091</c:v>
+                  <c:v>24.129906948483022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.401576330001454</c:v>
+                  <c:v>14.272341203201298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.169644788007702</c:v>
+                  <c:v>14.065511457089153</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -3590,7 +3567,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000038-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000035-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3598,7 +3575,7 @@
           <c:idx val="27"/>
           <c:order val="27"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3627,7 +3604,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3653,21 +3630,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$30:$N$30</c:f>
+              <c:f>FeatureByUserPlot!$I$30:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.295161993857963</c:v>
+                  <c:v>12.458107926972426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1996271353064252</c:v>
+                  <c:v>7.4195171719047401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3806711228981143</c:v>
+                  <c:v>8.2683211648418613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.129143816739928</c:v>
+                  <c:v>12.288039671101238</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3681,7 +3658,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000039-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000036-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3689,7 +3666,7 @@
           <c:idx val="28"/>
           <c:order val="28"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3718,7 +3695,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3744,18 +3721,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$31:$N$31</c:f>
+              <c:f>FeatureByUserPlot!$I$31:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.347836276402443</c:v>
+                  <c:v>12.483224673499917</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.424866368274099</c:v>
+                  <c:v>21.14654855519559</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -3772,7 +3749,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003A-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000037-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3780,7 +3757,7 @@
           <c:idx val="29"/>
           <c:order val="29"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3809,7 +3786,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3835,18 +3812,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$32:$N$32</c:f>
+              <c:f>FeatureByUserPlot!$I$32:$N$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.412242671056093</c:v>
+                  <c:v>11.227083569746343</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4378214346119806</c:v>
+                  <c:v>1.0221915446617902</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -3863,7 +3840,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003B-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000038-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3871,7 +3848,7 @@
           <c:idx val="30"/>
           <c:order val="30"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3898,7 +3875,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3924,12 +3901,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$33:$N$33</c:f>
+              <c:f>FeatureByUserPlot!$I$33:$N$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.267461086890709</c:v>
+                  <c:v>12.230184409165206</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -3941,7 +3918,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2777911958942987</c:v>
+                  <c:v>1.3181002326175439</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -3952,7 +3929,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003C-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{00000039-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3960,7 +3937,7 @@
           <c:idx val="31"/>
           <c:order val="31"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3987,7 +3964,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4013,18 +3990,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$34:$N$34</c:f>
+              <c:f>FeatureByUserPlot!$I$34:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.474220336398901</c:v>
+                  <c:v>12.43225809250551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2870894588363688</c:v>
+                  <c:v>7.3958040735916377</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.114004795038792</c:v>
+                  <c:v>30.039010731582806</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -4041,7 +4018,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003D-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{0000003A-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4049,7 +4026,7 @@
           <c:idx val="32"/>
           <c:order val="32"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4076,7 +4053,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4102,12 +4079,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$35:$N$35</c:f>
+              <c:f>FeatureByUserPlot!$I$35:$N$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.1256025260692315</c:v>
+                  <c:v>8.1744269731766401</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -4130,7 +4107,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003E-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{0000003B-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4138,7 +4115,7 @@
           <c:idx val="33"/>
           <c:order val="33"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4165,7 +4142,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4191,21 +4168,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$36:$N$36</c:f>
+              <c:f>FeatureByUserPlot!$I$36:$N$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.008491893326051</c:v>
+                  <c:v>12.390863026708216</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.121788746619469</c:v>
+                  <c:v>12.036149161788895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.460877020276463</c:v>
+                  <c:v>12.34847347327441</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -4219,7 +4196,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003F-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{0000003C-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4227,7 +4204,7 @@
           <c:idx val="34"/>
           <c:order val="34"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4254,7 +4231,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scatterplot!$I$2:$N$2</c:f>
+              <c:f>FeatureByUserPlot!$I$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4280,12 +4257,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scatterplot!$I$37:$N$37</c:f>
+              <c:f>FeatureByUserPlot!$I$37:$N$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.164895320237687</c:v>
+                  <c:v>12.318116425493528</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -4294,10 +4271,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.12872316270138</c:v>
+                  <c:v>12.462879201737108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3582872920285212</c:v>
+                  <c:v>9.4415804036696667</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -4308,7 +4285,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000040-26C1-495F-848B-D613A72B69EF}"/>
+              <c16:uniqueId val="{0000003D-DC59-4B4D-ABA8-79BB771F6408}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4417,7 +4394,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Number of times a metric was logged</a:t>
                 </a:r>
               </a:p>
@@ -4540,12 +4524,1301 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>03-04 Feature Use</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureByUserPlot!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Activity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFBA67"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureByUserPlot!$B$3:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-387F-4B7D-9F5A-19D98B60C9BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureByUserPlot!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sleep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureByUserPlot!$D$3:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-387F-4B7D-9F5A-19D98B60C9BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureByUserPlot!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heart Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E26714">
+                <a:alpha val="70000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="CC6600"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureByUserPlot!$E$3:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-387F-4B7D-9F5A-19D98B60C9BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureByUserPlot!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logged Activities Ditance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFECD5"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureByUserPlot!$C$3:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-387F-4B7D-9F5A-19D98B60C9BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureByUserPlot!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight (manual)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureByUserPlot!$F$3:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-387F-4B7D-9F5A-19D98B60C9BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureByUserPlot!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureByUserPlot!$G$3:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-387F-4B7D-9F5A-19D98B60C9BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1792286047"/>
+        <c:axId val="1792296607"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1792286047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Indiviual users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1792296607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1792296607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of times a feature was logged</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1792286047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
         <cx:f>_xlchart.v1.5</cx:f>
@@ -4921,6 +6194,25 @@
             </cx:spPr>
           </cx:dataPt>
           <cx:dataLabels pos="ctr">
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
             <cx:visibility seriesName="0" categoryName="1" value="0"/>
             <cx:separator>, </cx:separator>
           </cx:dataLabels>
@@ -4959,6 +6251,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6065,6 +7397,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6076,9 +7924,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>2314221</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>155221</xdr:rowOff>
+      <xdr:colOff>1995713</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>80635</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -6114,8 +7962,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14447607" y="4905673"/>
-              <a:ext cx="14395504" cy="13227105"/>
+              <a:off x="14373017" y="4853259"/>
+              <a:ext cx="14030634" cy="12644519"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6152,27 +8000,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>584198</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>400756</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>16934</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>422635</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63B13FD-5EE6-4900-CCAF-377B163091D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7770031E-FE85-441D-9856-1F0EA36E30BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6186,11 +8036,1476 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>422635</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B2D95C-9B4F-4099-9605-CA950D1F00DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="PivotTable"/>
+      <sheetName val="TotalDailyActivitySummedUp_04_0"/>
+      <sheetName val="FeaturesByUserPlot"/>
+      <sheetName val="HeatMapOfFeatureUse"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="T2" t="str">
+            <v xml:space="preserve">Activity </v>
+          </cell>
+          <cell r="U2" t="str">
+            <v>No SL or HR or Wt</v>
+          </cell>
+          <cell r="V2" t="str">
+            <v>No HR</v>
+          </cell>
+          <cell r="X2">
+            <v>0.18181818181818182</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="W3" t="str">
+            <v>ManualWeight</v>
+          </cell>
+          <cell r="X3">
+            <v>3.0303030303030304E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="V4" t="str">
+            <v>Heart Rate</v>
+          </cell>
+          <cell r="X4">
+            <v>3.0303030303030304E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="W5" t="str">
+            <v>ManualWeight</v>
+          </cell>
+          <cell r="X5">
+            <v>3.0303030303030304E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="U6" t="str">
+            <v>Sleep</v>
+          </cell>
+          <cell r="V6" t="str">
+            <v>No HR</v>
+          </cell>
+          <cell r="X6">
+            <v>0.24242424242424243</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="W7" t="str">
+            <v>ManualWeight</v>
+          </cell>
+          <cell r="X7">
+            <v>3.0303030303030304E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="W8" t="str">
+            <v>ManualWeight+Fat</v>
+          </cell>
+          <cell r="X8">
+            <v>6.0606060606060608E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="V9" t="str">
+            <v>Heart Rate</v>
+          </cell>
+          <cell r="X9">
+            <v>0.21212121212121213</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="W10" t="str">
+            <v>ManualWeight</v>
+          </cell>
+          <cell r="X10">
+            <v>6.0606060606060608E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="T11" t="str">
+            <v>Activity + LoggedActivityDistance</v>
+          </cell>
+          <cell r="U11" t="str">
+            <v>Sleep</v>
+          </cell>
+          <cell r="V11" t="str">
+            <v>No HR</v>
+          </cell>
+          <cell r="X11">
+            <v>3.0303030303030304E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="V12" t="str">
+            <v>Heart Rate</v>
+          </cell>
+          <cell r="X12">
+            <v>6.0606060606060608E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="W13" t="str">
+            <v>ManualWeight</v>
+          </cell>
+          <cell r="X13">
+            <v>3.0303030303030304E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Activity</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Logged Activities Ditance</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Sleep</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Heart Rate</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>Weight (manual)</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>Fat</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>Activity</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>Logged Activities Ditance</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>Sleep</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>Heart Rate</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>Weight (manual)</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>Fat</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>31</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>25</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>2</v>
+          </cell>
+          <cell r="G3">
+            <v>1</v>
+          </cell>
+          <cell r="I3">
+            <v>31.141845370013847</v>
+          </cell>
+          <cell r="J3" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K3">
+            <v>25.226299884877363</v>
+          </cell>
+          <cell r="L3" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M3">
+            <v>2.1995874359887235</v>
+          </cell>
+          <cell r="N3">
+            <v>1.0768773985750464</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>31</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>31.010916112562779</v>
+          </cell>
+          <cell r="J4" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K4" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="L4" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M4" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N4" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>30</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>4</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
+          <cell r="I5">
+            <v>30.219914285719309</v>
+          </cell>
+          <cell r="J5" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K5">
+            <v>4.2770985305835012</v>
+          </cell>
+          <cell r="L5" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M5" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N5" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>31</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>3</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+          <cell r="I6">
+            <v>31.122914399677267</v>
+          </cell>
+          <cell r="J6" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K6">
+            <v>3.1681629327960339</v>
+          </cell>
+          <cell r="L6" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M6" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N6" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>31</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>5</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>1</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+          <cell r="I7">
+            <v>31.080381654476998</v>
+          </cell>
+          <cell r="J7" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K7">
+            <v>5.4671592563061537</v>
+          </cell>
+          <cell r="L7" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M7">
+            <v>1.1428261152385615</v>
+          </cell>
+          <cell r="N7" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>31</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>31</v>
+          </cell>
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
+          <cell r="I8">
+            <v>31.227731508659591</v>
+          </cell>
+          <cell r="J8" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K8" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="L8">
+            <v>31.171674657147687</v>
+          </cell>
+          <cell r="M8" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N8" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>31</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+          <cell r="D9">
+            <v>28</v>
+          </cell>
+          <cell r="E9">
+            <v>4</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>31.217597279626908</v>
+          </cell>
+          <cell r="J9" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K9">
+            <v>28.33898884309302</v>
+          </cell>
+          <cell r="L9">
+            <v>4.1756523344226544</v>
+          </cell>
+          <cell r="M9" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N9" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>31</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+          <cell r="D10">
+            <v>1</v>
+          </cell>
+          <cell r="E10">
+            <v>0</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>31.394637805286077</v>
+          </cell>
+          <cell r="J10" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K10">
+            <v>1.0131921668213377</v>
+          </cell>
+          <cell r="L10" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M10" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N10" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>18</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+          <cell r="D11">
+            <v>15</v>
+          </cell>
+          <cell r="E11">
+            <v>18</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
+          <cell r="I11">
+            <v>18.443353326790611</v>
+          </cell>
+          <cell r="J11" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K11">
+            <v>15.374110277601725</v>
+          </cell>
+          <cell r="L11">
+            <v>18.498012760949393</v>
+          </cell>
+          <cell r="M11" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N11" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>31</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+          <cell r="E12">
+            <v>0</v>
+          </cell>
+          <cell r="F12">
+            <v>2</v>
+          </cell>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
+          <cell r="I12">
+            <v>31.096683661286413</v>
+          </cell>
+          <cell r="J12" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K12" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="L12" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M12">
+            <v>2.0305752454142802</v>
+          </cell>
+          <cell r="N12" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>20</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+          <cell r="D13">
+            <v>0</v>
+          </cell>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
+          <cell r="I13">
+            <v>20.375512830735921</v>
+          </cell>
+          <cell r="J13" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K13" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="L13" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M13" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N13" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>30</v>
+          </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+          <cell r="D14">
+            <v>28</v>
+          </cell>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
+          <cell r="I14">
+            <v>30.195308793482923</v>
+          </cell>
+          <cell r="J14" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K14">
+            <v>28.215953582870629</v>
+          </cell>
+          <cell r="L14" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M14" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N14" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>31</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+          <cell r="D15">
+            <v>8</v>
+          </cell>
+          <cell r="E15">
+            <v>16</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
+            <v>31.105591703766283</v>
+          </cell>
+          <cell r="J15" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K15">
+            <v>8.122727793194187</v>
+          </cell>
+          <cell r="L15">
+            <v>16.126082488973768</v>
+          </cell>
+          <cell r="M15" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N15" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>4</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+          <cell r="D16">
+            <v>0</v>
+          </cell>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
+          <cell r="I16">
+            <v>4.2538989929201385</v>
+          </cell>
+          <cell r="J16" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K16" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="L16" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M16" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N16" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>31</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+          <cell r="D17">
+            <v>26</v>
+          </cell>
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+          <cell r="F17">
+            <v>2</v>
+          </cell>
+          <cell r="G17">
+            <v>1</v>
+          </cell>
+          <cell r="I17">
+            <v>31.282943469125495</v>
+          </cell>
+          <cell r="J17" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K17">
+            <v>26.061183535357593</v>
+          </cell>
+          <cell r="L17" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M17">
+            <v>2.2789289269254565</v>
+          </cell>
+          <cell r="N17">
+            <v>1.423090544176306</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>31</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+          <cell r="D18">
+            <v>23</v>
+          </cell>
+          <cell r="E18">
+            <v>30</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+          <cell r="G18">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>31.062343633714136</v>
+          </cell>
+          <cell r="J18" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K18">
+            <v>23.073738847020234</v>
+          </cell>
+          <cell r="L18">
+            <v>30.333636877507555</v>
+          </cell>
+          <cell r="M18" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N18" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>31</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+          <cell r="D19">
+            <v>28</v>
+          </cell>
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+          <cell r="G19">
+            <v>0</v>
+          </cell>
+          <cell r="I19">
+            <v>31.366346520051501</v>
+          </cell>
+          <cell r="J19" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K19">
+            <v>28.230455396273115</v>
+          </cell>
+          <cell r="L19" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M19" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N19" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>31</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20">
+            <v>5</v>
+          </cell>
+          <cell r="E20">
+            <v>31</v>
+          </cell>
+          <cell r="F20">
+            <v>5</v>
+          </cell>
+          <cell r="G20">
+            <v>0</v>
+          </cell>
+          <cell r="I20">
+            <v>31.441894091948051</v>
+          </cell>
+          <cell r="J20" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K20">
+            <v>5.3946239976748815</v>
+          </cell>
+          <cell r="L20">
+            <v>31.176211071473698</v>
+          </cell>
+          <cell r="M20">
+            <v>5.270832484498138</v>
+          </cell>
+          <cell r="N20" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>31</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>27</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+          <cell r="G21">
+            <v>0</v>
+          </cell>
+          <cell r="I21">
+            <v>31.179568639697056</v>
+          </cell>
+          <cell r="J21" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K21">
+            <v>27.208038646814511</v>
+          </cell>
+          <cell r="L21" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M21" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N21" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>31</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>31</v>
+          </cell>
+          <cell r="E22">
+            <v>31</v>
+          </cell>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+          <cell r="G22">
+            <v>0</v>
+          </cell>
+          <cell r="I22">
+            <v>31.379538812205553</v>
+          </cell>
+          <cell r="J22" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K22">
+            <v>31.122928502755762</v>
+          </cell>
+          <cell r="L22">
+            <v>31.067224308873893</v>
+          </cell>
+          <cell r="M22" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N22" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>30</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>26</v>
+          </cell>
+          <cell r="E23">
+            <v>28</v>
+          </cell>
+          <cell r="F23">
+            <v>1</v>
+          </cell>
+          <cell r="G23">
+            <v>0</v>
+          </cell>
+          <cell r="I23">
+            <v>30.276156990293156</v>
+          </cell>
+          <cell r="J23" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K23">
+            <v>26.265007310783048</v>
+          </cell>
+          <cell r="L23">
+            <v>28.321670916707454</v>
+          </cell>
+          <cell r="M23">
+            <v>1.2648112532817637</v>
+          </cell>
+          <cell r="N23" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>28</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>18</v>
+          </cell>
+          <cell r="E24">
+            <v>23</v>
+          </cell>
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+          <cell r="G24">
+            <v>0</v>
+          </cell>
+          <cell r="I24">
+            <v>28.095248415612449</v>
+          </cell>
+          <cell r="J24" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K24">
+            <v>18.187779746863903</v>
+          </cell>
+          <cell r="L24">
+            <v>23.316098886392474</v>
+          </cell>
+          <cell r="M24" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N24" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>29</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+          <cell r="F25">
+            <v>0</v>
+          </cell>
+          <cell r="G25">
+            <v>0</v>
+          </cell>
+          <cell r="I25">
+            <v>29.252718624114685</v>
+          </cell>
+          <cell r="J25" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K25" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="L25" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M25" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N25" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>26</v>
+          </cell>
+          <cell r="C26">
+            <v>1</v>
+          </cell>
+          <cell r="D26">
+            <v>3</v>
+          </cell>
+          <cell r="E26">
+            <v>18</v>
+          </cell>
+          <cell r="F26">
+            <v>0</v>
+          </cell>
+          <cell r="G26">
+            <v>0</v>
+          </cell>
+          <cell r="I26">
+            <v>26.107630447158154</v>
+          </cell>
+          <cell r="J26">
+            <v>1.1277349147307096</v>
+          </cell>
+          <cell r="K26">
+            <v>3.0869978863657908</v>
+          </cell>
+          <cell r="L26">
+            <v>18.202917762528728</v>
+          </cell>
+          <cell r="M26" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N26" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>31</v>
+          </cell>
+          <cell r="C27">
+            <v>3</v>
+          </cell>
+          <cell r="D27">
+            <v>31</v>
+          </cell>
+          <cell r="E27">
+            <v>31</v>
+          </cell>
+          <cell r="F27">
+            <v>30</v>
+          </cell>
+          <cell r="G27">
+            <v>0</v>
+          </cell>
+          <cell r="I27">
+            <v>31.089701100701436</v>
+          </cell>
+          <cell r="J27">
+            <v>3.2752118940928288</v>
+          </cell>
+          <cell r="K27">
+            <v>31.158005188232096</v>
+          </cell>
+          <cell r="L27">
+            <v>31.419384518926964</v>
+          </cell>
+          <cell r="M27">
+            <v>30.05585340245894</v>
+          </cell>
+          <cell r="N27" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>26</v>
+          </cell>
+          <cell r="C28">
+            <v>12</v>
+          </cell>
+          <cell r="D28">
+            <v>2</v>
+          </cell>
+          <cell r="E28">
+            <v>24</v>
+          </cell>
+          <cell r="F28">
+            <v>0</v>
+          </cell>
+          <cell r="G28">
+            <v>0</v>
+          </cell>
+          <cell r="I28">
+            <v>26.05767616574154</v>
+          </cell>
+          <cell r="J28">
+            <v>12.234275968647996</v>
+          </cell>
+          <cell r="K28">
+            <v>2.0813667644069778</v>
+          </cell>
+          <cell r="L28">
+            <v>24.273294712571662</v>
+          </cell>
+          <cell r="M28" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N28" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>31</v>
+          </cell>
+          <cell r="C29">
+            <v>0</v>
+          </cell>
+          <cell r="D29">
+            <v>24</v>
+          </cell>
+          <cell r="E29">
+            <v>0</v>
+          </cell>
+          <cell r="F29">
+            <v>0</v>
+          </cell>
+          <cell r="G29">
+            <v>0</v>
+          </cell>
+          <cell r="I29">
+            <v>31.06609340414084</v>
+          </cell>
+          <cell r="J29" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K29">
+            <v>24.31526854394809</v>
+          </cell>
+          <cell r="L29" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M29" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N29" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>31</v>
+          </cell>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+          <cell r="D30">
+            <v>3</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>0</v>
+          </cell>
+          <cell r="G30">
+            <v>0</v>
+          </cell>
+          <cell r="I30">
+            <v>31.134345174930449</v>
+          </cell>
+          <cell r="J30" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K30">
+            <v>3.3278329149042118</v>
+          </cell>
+          <cell r="L30" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M30" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N30" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>19</v>
+          </cell>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+          <cell r="D31">
+            <v>0</v>
+          </cell>
+          <cell r="E31">
+            <v>0</v>
+          </cell>
+          <cell r="F31">
+            <v>0</v>
+          </cell>
+          <cell r="G31">
+            <v>0</v>
+          </cell>
+          <cell r="I31">
+            <v>19.263000626630298</v>
+          </cell>
+          <cell r="J31" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K31" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="L31" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M31" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N31" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>31</v>
+          </cell>
+          <cell r="C32">
+            <v>16</v>
+          </cell>
+          <cell r="D32">
+            <v>31</v>
+          </cell>
+          <cell r="E32">
+            <v>0</v>
+          </cell>
+          <cell r="F32">
+            <v>0</v>
+          </cell>
+          <cell r="G32">
+            <v>0</v>
+          </cell>
+          <cell r="I32">
+            <v>31.320866762739225</v>
+          </cell>
+          <cell r="J32">
+            <v>16.079751140818246</v>
+          </cell>
+          <cell r="K32">
+            <v>31.43979866662389</v>
+          </cell>
+          <cell r="L32" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M32" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N32" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>31</v>
+          </cell>
+          <cell r="C33">
+            <v>0</v>
+          </cell>
+          <cell r="D33">
+            <v>0</v>
+          </cell>
+          <cell r="E33">
+            <v>0</v>
+          </cell>
+          <cell r="F33">
+            <v>0</v>
+          </cell>
+          <cell r="G33">
+            <v>0</v>
+          </cell>
+          <cell r="I33">
+            <v>31.227484754792346</v>
+          </cell>
+          <cell r="J33" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K33" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="L33" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M33" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N33" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>29</v>
+          </cell>
+          <cell r="C34">
+            <v>0</v>
+          </cell>
+          <cell r="D34">
+            <v>15</v>
+          </cell>
+          <cell r="E34">
+            <v>18</v>
+          </cell>
+          <cell r="F34">
+            <v>0</v>
+          </cell>
+          <cell r="G34">
+            <v>0</v>
+          </cell>
+          <cell r="I34">
+            <v>29.021498214214546</v>
+          </cell>
+          <cell r="J34" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K34">
+            <v>15.262050671345152</v>
+          </cell>
+          <cell r="L34">
+            <v>18.246016439835689</v>
+          </cell>
+          <cell r="M34" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N34" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>31</v>
+          </cell>
+          <cell r="C35">
+            <v>0</v>
+          </cell>
+          <cell r="D35">
+            <v>0</v>
+          </cell>
+          <cell r="E35">
+            <v>31</v>
+          </cell>
+          <cell r="F35">
+            <v>24</v>
+          </cell>
+          <cell r="G35">
+            <v>0</v>
+          </cell>
+          <cell r="I35">
+            <v>31.27386217006736</v>
+          </cell>
+          <cell r="J35" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="K35" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="L35">
+            <v>31.318482814357143</v>
+          </cell>
+          <cell r="M35">
+            <v>24.109292959259442</v>
+          </cell>
+          <cell r="N35" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Pallavi Rane" refreshedDate="45444.083261111111" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="35">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pallavi Rane" refreshedDate="45444.083261111111" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="35" xr:uid="{00000000-000A-0000-FFFF-FFFF53000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="R1:R36" sheet="TotalDailyActivitySummedUp_03_0"/>
   </cacheSource>
@@ -6376,7 +9691,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable28" cacheId="83" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable28" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6809,7 +10124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6834,7 +10149,7 @@
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
@@ -6842,7 +10157,7 @@
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>6</v>
       </c>
     </row>
@@ -6850,7 +10165,7 @@
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>6</v>
       </c>
     </row>
@@ -6858,7 +10173,7 @@
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>3</v>
       </c>
     </row>
@@ -6866,7 +10181,7 @@
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>8</v>
       </c>
     </row>
@@ -6874,7 +10189,7 @@
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
@@ -6882,7 +10197,7 @@
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>2</v>
       </c>
     </row>
@@ -6890,7 +10205,7 @@
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
@@ -6898,7 +10213,7 @@
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
@@ -6906,7 +10221,7 @@
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
@@ -6914,7 +10229,7 @@
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
@@ -6922,7 +10237,7 @@
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
@@ -6930,7 +10245,7 @@
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
@@ -6938,7 +10253,7 @@
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -6946,7 +10261,7 @@
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
@@ -6954,7 +10269,7 @@
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>35</v>
       </c>
     </row>
@@ -6964,11 +10279,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O60" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC100" sqref="AC100"/>
+    <sheetView topLeftCell="B3" zoomScale="32" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AH67" sqref="AH67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6976,9 +10291,9 @@
     <col min="1" max="1" width="10.76171875" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="54.29296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.29296875" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5859375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="12.5859375" style="3" customWidth="1"/>
     <col min="25" max="25" width="11.29296875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="28.05859375" bestFit="1" customWidth="1"/>
@@ -6987,7 +10302,7 @@
     <col min="36" max="36" width="19.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:41" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7039,22 +10354,22 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="26"/>
+      <c r="Y1" s="25"/>
       <c r="AA1" t="s">
         <v>36</v>
       </c>
@@ -7062,13 +10377,10 @@
         <v>37</v>
       </c>
       <c r="AI1" s="2"/>
-      <c r="AJ1" s="3"/>
-      <c r="AM1" s="3"/>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
-      <c r="AS1" s="3"/>
     </row>
-    <row r="2" spans="1:45" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:41" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1503960366</v>
       </c>
@@ -7121,30 +10433,30 @@
         <f t="array" ref="R2">CONCATENATE(_xlfn.SWITCH(B2,0,"_","A_"),_xlfn.SWITCH(C2,0,"_","Lad_"),_xlfn.SWITCH(E2,0,"_","Sl_"),_xlfn.SWITCH(F2,0,"_","Hr_"),_xlfn.SWITCH(G2,0,"_","Wt_"),_xlfn.SWITCH(H2,0,"_","M_"),_xlfn.SWITCH(I2,0,"_","F"))</f>
         <v>A__Sl__Wt_M_F</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="U2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="18">
-        <f>Y2/$Z$17</f>
+      <c r="W2" s="5"/>
+      <c r="X2" s="17">
+        <f t="shared" ref="X2:X16" si="0">Y2/$Z$17</f>
         <v>0.17142857142857143</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="6">
         <v>6</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="21">
+      <c r="AB2" s="20">
         <v>35</v>
       </c>
-      <c r="AC2" s="21"/>
+      <c r="AC2" s="20"/>
       <c r="AE2" t="s">
         <v>28</v>
       </c>
@@ -7152,13 +10464,10 @@
         <v>35</v>
       </c>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="3"/>
-      <c r="AM2" s="3"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
-      <c r="AS2" s="3"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1624580081</v>
       </c>
@@ -7211,17 +10520,17 @@
         <f t="array" ref="R3">CONCATENATE(_xlfn.SWITCH(B3,0,"_","A_"),_xlfn.SWITCH(C3,0,"_","Lad_"),_xlfn.SWITCH(E3,0,"_","Sl_"),_xlfn.SWITCH(F3,0,"_","Hr_"),_xlfn.SWITCH(G3,0,"_","Wt_"),_xlfn.SWITCH(H3,0,"_","M_"),_xlfn.SWITCH(I3,0,"_","F"))</f>
         <v>A_______</v>
       </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="8" t="s">
+      <c r="T3" s="15"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="19">
-        <f>Y3/$Z$17</f>
+      <c r="X3" s="18">
+        <f t="shared" si="0"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="8">
         <v>2</v>
       </c>
       <c r="AA3" t="s">
@@ -7231,7 +10540,7 @@
         <f>SUM(Y2:Y16)</f>
         <v>35</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="21">
         <f>AB3/$AB$2</f>
         <v>1</v>
       </c>
@@ -7241,18 +10550,15 @@
       <c r="AF3">
         <v>35</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="21">
         <f>AF3/$AF$2</f>
         <v>1</v>
       </c>
       <c r="AI3" s="2"/>
-      <c r="AJ3" s="3"/>
-      <c r="AM3" s="3"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
-      <c r="AS3" s="3"/>
     </row>
-    <row r="4" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:41" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1644430081</v>
       </c>
@@ -7305,19 +10611,19 @@
         <f t="array" ref="R4">CONCATENATE(_xlfn.SWITCH(B4,0,"_","A_"),_xlfn.SWITCH(C4,0,"_","Lad_"),_xlfn.SWITCH(E4,0,"_","Sl_"),_xlfn.SWITCH(F4,0,"_","Hr_"),_xlfn.SWITCH(G4,0,"_","Wt_"),_xlfn.SWITCH(H4,0,"_","M_"),_xlfn.SWITCH(I4,0,"_","F"))</f>
         <v>A__Sl_____</v>
       </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="30" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="W4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="23">
-        <f>Y4/$Z$17</f>
+      <c r="X4" s="22">
+        <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y4" s="32">
+      <c r="Y4" s="31">
         <v>1</v>
       </c>
       <c r="AA4" t="s">
@@ -7327,7 +10633,7 @@
         <f>SUM(Y9:Y16)</f>
         <v>8</v>
       </c>
-      <c r="AC4" s="22">
+      <c r="AC4" s="21">
         <f>AB4/$AB$2</f>
         <v>0.22857142857142856</v>
       </c>
@@ -7337,18 +10643,15 @@
       <c r="AF4">
         <v>6</v>
       </c>
-      <c r="AG4" s="22">
-        <f t="shared" ref="AG4:AG9" si="0">AF4/$AF$2</f>
+      <c r="AG4" s="21">
+        <f t="shared" ref="AG4:AG9" si="1">AF4/$AF$2</f>
         <v>0.17142857142857143</v>
       </c>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="3"/>
-      <c r="AM4" s="3"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
-      <c r="AS4" s="3"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1844505072</v>
       </c>
@@ -7401,19 +10704,19 @@
         <f t="array" ref="R5">CONCATENATE(_xlfn.SWITCH(B5,0,"_","A_"),_xlfn.SWITCH(C5,0,"_","Lad_"),_xlfn.SWITCH(E5,0,"_","Sl_"),_xlfn.SWITCH(F5,0,"_","Hr_"),_xlfn.SWITCH(G5,0,"_","Wt_"),_xlfn.SWITCH(H5,0,"_","M_"),_xlfn.SWITCH(I5,0,"_","F"))</f>
         <v>A__Sl_____</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="12" t="s">
+      <c r="T5" s="15"/>
+      <c r="U5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="28" t="s">
+      <c r="V5" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="18">
-        <f>Y5/$Z$17</f>
+      <c r="W5" s="5"/>
+      <c r="X5" s="17">
+        <f t="shared" si="0"/>
         <v>0.17142857142857143</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="6">
         <v>6</v>
       </c>
       <c r="AA5" t="s">
@@ -7423,7 +10726,7 @@
         <f>SUM(Y5:Y10,Y14:Y16)</f>
         <v>23</v>
       </c>
-      <c r="AC5" s="22">
+      <c r="AC5" s="21">
         <f>AB5/$AB$2</f>
         <v>0.65714285714285714</v>
       </c>
@@ -7433,18 +10736,15 @@
       <c r="AF5">
         <v>11</v>
       </c>
-      <c r="AG5" s="22">
-        <f t="shared" si="0"/>
+      <c r="AG5" s="21">
+        <f t="shared" si="1"/>
         <v>0.31428571428571428</v>
       </c>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="3"/>
-      <c r="AM5" s="3"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
-      <c r="AS5" s="3"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1927972279</v>
       </c>
@@ -7497,17 +10797,17 @@
         <f t="array" ref="R6">CONCATENATE(_xlfn.SWITCH(B6,0,"_","A_"),_xlfn.SWITCH(C6,0,"_","Lad_"),_xlfn.SWITCH(E6,0,"_","Sl_"),_xlfn.SWITCH(F6,0,"_","Hr_"),_xlfn.SWITCH(G6,0,"_","Wt_"),_xlfn.SWITCH(H6,0,"_","M_"),_xlfn.SWITCH(I6,0,"_","F"))</f>
         <v>A__Sl__Wt_M__</v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="8" t="s">
+      <c r="T6" s="15"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="X6" s="19">
-        <f>Y6/$Z$17</f>
+      <c r="X6" s="18">
+        <f t="shared" si="0"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="8">
         <v>3</v>
       </c>
       <c r="AA6" t="s">
@@ -7517,7 +10817,7 @@
         <f>SUM(Y4,Y8,Y9,Y10,Y13,Y15:Y16)</f>
         <v>14</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AC6" s="21">
         <f>AB6/$AB$2</f>
         <v>0.4</v>
       </c>
@@ -7527,18 +10827,15 @@
       <c r="AF6">
         <v>23</v>
       </c>
-      <c r="AG6" s="22">
-        <f t="shared" si="0"/>
+      <c r="AG6" s="21">
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="AI6" s="2"/>
-      <c r="AJ6" s="3"/>
-      <c r="AM6" s="3"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
-      <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>2022484408</v>
       </c>
@@ -7591,17 +10888,17 @@
         <f t="array" ref="R7">CONCATENATE(_xlfn.SWITCH(B7,0,"_","A_"),_xlfn.SWITCH(C7,0,"_","Lad_"),_xlfn.SWITCH(E7,0,"_","Sl_"),_xlfn.SWITCH(F7,0,"_","Hr_"),_xlfn.SWITCH(G7,0,"_","Wt_"),_xlfn.SWITCH(H7,0,"_","M_"),_xlfn.SWITCH(I7,0,"_","F"))</f>
         <v>A__Sl_Hr____</v>
       </c>
-      <c r="T7" s="16"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="34" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="X7" s="24">
-        <f>Y7/$Z$17</f>
+      <c r="X7" s="23">
+        <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7" s="34">
         <v>1</v>
       </c>
       <c r="AA7" t="s">
@@ -7611,7 +10908,7 @@
         <f>SUM(Y3:Y4,Y6:Y7,Y9:Y10,Y12,Y16)</f>
         <v>11</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AC7" s="21">
         <f>AB7/$AB$2</f>
         <v>0.31428571428571428</v>
       </c>
@@ -7621,18 +10918,15 @@
       <c r="AF7">
         <v>14</v>
       </c>
-      <c r="AG7" s="22">
-        <f t="shared" si="0"/>
+      <c r="AG7" s="21">
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="3"/>
-      <c r="AM7" s="3"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
-      <c r="AS7" s="3"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>2026352035</v>
       </c>
@@ -7685,17 +10979,17 @@
         <f t="array" ref="R8">CONCATENATE(_xlfn.SWITCH(B8,0,"_","A_"),_xlfn.SWITCH(C8,0,"_","Lad_"),_xlfn.SWITCH(E8,0,"_","Sl_"),_xlfn.SWITCH(F8,0,"_","Hr_"),_xlfn.SWITCH(G8,0,"_","Wt_"),_xlfn.SWITCH(H8,0,"_","M_"),_xlfn.SWITCH(I8,0,"_","F"))</f>
         <v>A__Sl_Hr____</v>
       </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="30" t="s">
+      <c r="T8" s="15"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="31"/>
-      <c r="X8" s="23">
-        <f>Y8/$Z$17</f>
+      <c r="W8" s="30"/>
+      <c r="X8" s="22">
+        <f t="shared" si="0"/>
         <v>0.22857142857142856</v>
       </c>
-      <c r="Y8" s="32">
+      <c r="Y8" s="31">
         <v>8</v>
       </c>
       <c r="AE8" t="s">
@@ -7704,18 +10998,15 @@
       <c r="AF8">
         <v>11</v>
       </c>
-      <c r="AG8" s="22">
-        <f t="shared" si="0"/>
+      <c r="AG8" s="21">
+        <f t="shared" si="1"/>
         <v>0.31428571428571428</v>
       </c>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="3"/>
-      <c r="AM8" s="3"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
-      <c r="AS8" s="3"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>2320127002</v>
       </c>
@@ -7768,17 +11059,17 @@
         <f t="array" ref="R9">CONCATENATE(_xlfn.SWITCH(B9,0,"_","A_"),_xlfn.SWITCH(C9,0,"_","Lad_"),_xlfn.SWITCH(E9,0,"_","Sl_"),_xlfn.SWITCH(F9,0,"_","Hr_"),_xlfn.SWITCH(G9,0,"_","Wt_"),_xlfn.SWITCH(H9,0,"_","M_"),_xlfn.SWITCH(I9,0,"_","F"))</f>
         <v>A_______</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="8" t="s">
+      <c r="T9" s="15"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="X9" s="19">
-        <f>Y9/$Z$17</f>
+      <c r="X9" s="18">
+        <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="8">
         <v>1</v>
       </c>
       <c r="AE9" t="s">
@@ -7787,18 +11078,15 @@
       <c r="AF9">
         <v>11</v>
       </c>
-      <c r="AG9" s="22">
-        <f t="shared" si="0"/>
+      <c r="AG9" s="21">
+        <f t="shared" si="1"/>
         <v>0.31428571428571428</v>
       </c>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="3"/>
-      <c r="AM9" s="3"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
-      <c r="AS9" s="3"/>
     </row>
-    <row r="10" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:41" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>2347167796</v>
       </c>
@@ -7851,27 +11139,24 @@
         <f t="array" ref="R10">CONCATENATE(_xlfn.SWITCH(B10,0,"_","A_"),_xlfn.SWITCH(C10,0,"_","Lad_"),_xlfn.SWITCH(E10,0,"_","Sl_"),_xlfn.SWITCH(F10,0,"_","Hr_"),_xlfn.SWITCH(G10,0,"_","Wt_"),_xlfn.SWITCH(H10,0,"_","M_"),_xlfn.SWITCH(I10,0,"_","F"))</f>
         <v>A__Sl_Hr_Wt_M_F</v>
       </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="10" t="s">
+      <c r="T10" s="15"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="X10" s="20">
-        <f>Y10/$Z$17</f>
+      <c r="X10" s="19">
+        <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="10">
         <v>1</v>
       </c>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="3"/>
-      <c r="AM10" s="3"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
-      <c r="AS10" s="3"/>
     </row>
-    <row r="11" spans="1:45" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:41" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>2873212765</v>
       </c>
@@ -7924,31 +11209,28 @@
         <f t="array" ref="R11">CONCATENATE(_xlfn.SWITCH(B11,0,"_","A_"),_xlfn.SWITCH(C11,0,"_","Lad_"),_xlfn.SWITCH(E11,0,"_","Sl_"),_xlfn.SWITCH(F11,0,"_","Hr_"),_xlfn.SWITCH(G11,0,"_","Wt_"),_xlfn.SWITCH(H11,0,"_","M_"),_xlfn.SWITCH(I11,0,"_","F"))</f>
         <v>A____Wt_M__</v>
       </c>
-      <c r="T11" s="37" t="s">
+      <c r="T11" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="U11" s="28" t="s">
+      <c r="U11" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="V11" s="28" t="s">
+      <c r="V11" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="18">
-        <f>Y11/$Z$17</f>
+      <c r="W11" s="5"/>
+      <c r="X11" s="17">
+        <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="6">
         <v>1</v>
       </c>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="3"/>
-      <c r="AM11" s="3"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
-      <c r="AS11" s="3"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>2891001357</v>
       </c>
@@ -8001,27 +11283,24 @@
         <f t="array" ref="R12">CONCATENATE(_xlfn.SWITCH(B12,0,"_","A_"),_xlfn.SWITCH(C12,0,"_","Lad_"),_xlfn.SWITCH(E12,0,"_","Sl_"),_xlfn.SWITCH(F12,0,"_","Hr_"),_xlfn.SWITCH(G12,0,"_","Wt_"),_xlfn.SWITCH(H12,0,"_","M_"),_xlfn.SWITCH(I12,0,"_","F"))</f>
         <v>A_Lad___Wt_M__</v>
       </c>
-      <c r="T12" s="16"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="8" t="s">
+      <c r="T12" s="15"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="X12" s="19">
-        <f>Y12/$Z$17</f>
+      <c r="X12" s="18">
+        <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="8">
         <v>1</v>
       </c>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="3"/>
-      <c r="AM12" s="3"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
-      <c r="AS12" s="3"/>
     </row>
-    <row r="13" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:41" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>3372868164</v>
       </c>
@@ -8074,27 +11353,24 @@
         <f t="array" ref="R13">CONCATENATE(_xlfn.SWITCH(B13,0,"_","A_"),_xlfn.SWITCH(C13,0,"_","Lad_"),_xlfn.SWITCH(E13,0,"_","Sl_"),_xlfn.SWITCH(F13,0,"_","Hr_"),_xlfn.SWITCH(G13,0,"_","Wt_"),_xlfn.SWITCH(H13,0,"_","M_"),_xlfn.SWITCH(I13,0,"_","F"))</f>
         <v>A_______</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="30" t="s">
+      <c r="T13" s="15"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="W13" s="31"/>
-      <c r="X13" s="23">
-        <f>Y13/$Z$17</f>
+      <c r="W13" s="30"/>
+      <c r="X13" s="22">
+        <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y13" s="32">
+      <c r="Y13" s="31">
         <v>1</v>
       </c>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="3"/>
-      <c r="AM13" s="3"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
-      <c r="AS13" s="3"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>3977333714</v>
       </c>
@@ -8147,29 +11423,26 @@
         <f t="array" ref="R14">CONCATENATE(_xlfn.SWITCH(B14,0,"_","A_"),_xlfn.SWITCH(C14,0,"_","Lad_"),_xlfn.SWITCH(E14,0,"_","Sl_"),_xlfn.SWITCH(F14,0,"_","Hr_"),_xlfn.SWITCH(G14,0,"_","Wt_"),_xlfn.SWITCH(H14,0,"_","M_"),_xlfn.SWITCH(I14,0,"_","F"))</f>
         <v>A__Sl_____</v>
       </c>
-      <c r="T14" s="16"/>
-      <c r="U14" s="12" t="s">
+      <c r="T14" s="15"/>
+      <c r="U14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V14" s="28" t="s">
+      <c r="V14" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="W14" s="6"/>
-      <c r="X14" s="18">
-        <f>Y14/$Z$17</f>
+      <c r="W14" s="5"/>
+      <c r="X14" s="17">
+        <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Y14" s="6">
         <v>1</v>
       </c>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="3"/>
-      <c r="AM14" s="3"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
-      <c r="AS14" s="3"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>4020332650</v>
       </c>
@@ -8222,27 +11495,24 @@
         <f t="array" ref="R15">CONCATENATE(_xlfn.SWITCH(B15,0,"_","A_"),_xlfn.SWITCH(C15,0,"_","Lad_"),_xlfn.SWITCH(E15,0,"_","Sl_"),_xlfn.SWITCH(F15,0,"_","Hr_"),_xlfn.SWITCH(G15,0,"_","Wt_"),_xlfn.SWITCH(H15,0,"_","M_"),_xlfn.SWITCH(I15,0,"_","F"))</f>
         <v>A__Sl_Hr____</v>
       </c>
-      <c r="T15" s="16"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="30" t="s">
+      <c r="T15" s="15"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="31"/>
-      <c r="X15" s="23">
-        <f>Y15/$Z$17</f>
+      <c r="W15" s="30"/>
+      <c r="X15" s="22">
+        <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y15" s="32">
+      <c r="Y15" s="31">
         <v>1</v>
       </c>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="3"/>
-      <c r="AM15" s="3"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
-      <c r="AS15" s="3"/>
     </row>
-    <row r="16" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:41" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>4057192912</v>
       </c>
@@ -8295,17 +11565,17 @@
         <f t="array" ref="R16">CONCATENATE(_xlfn.SWITCH(B16,0,"_","A_"),_xlfn.SWITCH(C16,0,"_","Lad_"),_xlfn.SWITCH(E16,0,"_","Sl_"),_xlfn.SWITCH(F16,0,"_","Hr_"),_xlfn.SWITCH(G16,0,"_","Wt_"),_xlfn.SWITCH(H16,0,"_","M_"),_xlfn.SWITCH(I16,0,"_","F"))</f>
         <v>A_Lad______</v>
       </c>
-      <c r="T16" s="17"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="10" t="s">
+      <c r="T16" s="16"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="X16" s="20">
-        <f>Y16/$Z$17</f>
+      <c r="X16" s="19">
+        <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9403,11 +12673,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9425,14 +12695,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
@@ -9479,27 +12749,27 @@
       <c r="A3">
         <v>1503960366</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3">
         <v>19</v>
       </c>
-      <c r="C3" s="43">
-        <v>0</v>
-      </c>
-      <c r="D3" s="43">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>25</v>
       </c>
-      <c r="E3" s="43">
-        <v>0</v>
-      </c>
-      <c r="F3" s="43">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3">
         <v>1</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">_xlfn.SWITCH(B3,0,NA(),B3+(RAND()*0.5))</f>
-        <v>19.227180848724483</v>
+        <v>19.247169358816695</v>
       </c>
       <c r="J3" t="e" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">_xlfn.SWITCH(C3,0,NA(),C3+(RAND()*0.5))</f>
@@ -9507,7 +12777,7 @@
       </c>
       <c r="K3" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">_xlfn.SWITCH(D3,0,NA(),D3+(RAND()*0.5))</f>
-        <v>25.286757765668884</v>
+        <v>25.032338590610671</v>
       </c>
       <c r="L3" t="e" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">_xlfn.SWITCH(E3,0,NA(),E3+(RAND()*0.5))</f>
@@ -9515,38 +12785,38 @@
       </c>
       <c r="M3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.SWITCH(F3,0,NA(),F3+(RAND()*0.5))</f>
-        <v>1.2989656148852313</v>
+        <v>1.1820236338859456</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">_xlfn.SWITCH(G3,0,NA(),G3+(RAND()*0.5))</f>
-        <v>1.3035594026608397</v>
+        <v>1.2606306024385403</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1624580081</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4">
         <v>19</v>
       </c>
-      <c r="C4" s="43">
-        <v>0</v>
-      </c>
-      <c r="D4" s="43">
-        <v>0</v>
-      </c>
-      <c r="E4" s="43">
-        <v>0</v>
-      </c>
-      <c r="F4" s="43">
-        <v>0</v>
-      </c>
-      <c r="G4" s="43">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">_xlfn.SWITCH(B4,0,NA(),B4+(RAND()*0.5))</f>
-        <v>19.111947761925837</v>
+        <v>19.49517682590421</v>
       </c>
       <c r="J4" t="e" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">_xlfn.SWITCH(C4,0,NA(),C4+(RAND()*0.5))</f>
@@ -9573,27 +12843,27 @@
       <c r="A5">
         <v>1644430081</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="43">
-        <v>0</v>
-      </c>
-      <c r="D5" s="43">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="43">
-        <v>0</v>
-      </c>
-      <c r="F5" s="43">
-        <v>0</v>
-      </c>
-      <c r="G5" s="43">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">_xlfn.SWITCH(B5,0,NA(),B5+(RAND()*0.5))</f>
-        <v>10.224040432550071</v>
+        <v>10.48186563777195</v>
       </c>
       <c r="J5" t="e" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">_xlfn.SWITCH(C5,0,NA(),C5+(RAND()*0.5))</f>
@@ -9601,7 +12871,7 @@
       </c>
       <c r="K5" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">_xlfn.SWITCH(D5,0,NA(),D5+(RAND()*0.5))</f>
-        <v>2.1027993110796102</v>
+        <v>2.0636208543078318</v>
       </c>
       <c r="L5" t="e" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">_xlfn.SWITCH(E5,0,NA(),E5+(RAND()*0.5))</f>
@@ -9620,27 +12890,27 @@
       <c r="A6">
         <v>1844505072</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="C6" s="43">
-        <v>0</v>
-      </c>
-      <c r="D6" s="43">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="43">
-        <v>0</v>
-      </c>
-      <c r="F6" s="43">
-        <v>0</v>
-      </c>
-      <c r="G6" s="43">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">_xlfn.SWITCH(B6,0,NA(),B6+(RAND()*0.5))</f>
-        <v>12.274935486563226</v>
+        <v>12.155936638908104</v>
       </c>
       <c r="J6" t="e" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">_xlfn.SWITCH(C6,0,NA(),C6+(RAND()*0.5))</f>
@@ -9648,7 +12918,7 @@
       </c>
       <c r="K6" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">_xlfn.SWITCH(D6,0,NA(),D6+(RAND()*0.5))</f>
-        <v>2.0334496219199862</v>
+        <v>2.3036829001154406</v>
       </c>
       <c r="L6" t="e" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">_xlfn.SWITCH(E6,0,NA(),E6+(RAND()*0.5))</f>
@@ -9667,27 +12937,27 @@
       <c r="A7">
         <v>1927972279</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7">
         <v>12</v>
       </c>
-      <c r="C7" s="43">
-        <v>0</v>
-      </c>
-      <c r="D7" s="43">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>29</v>
       </c>
-      <c r="E7" s="43">
-        <v>0</v>
-      </c>
-      <c r="F7" s="43">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7">
         <v>0</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">_xlfn.SWITCH(B7,0,NA(),B7+(RAND()*0.5))</f>
-        <v>12.497959578103256</v>
+        <v>12.472178671904151</v>
       </c>
       <c r="J7" t="e" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">_xlfn.SWITCH(C7,0,NA(),C7+(RAND()*0.5))</f>
@@ -9695,7 +12965,7 @@
       </c>
       <c r="K7" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">_xlfn.SWITCH(D7,0,NA(),D7+(RAND()*0.5))</f>
-        <v>29.129498719323021</v>
+        <v>29.203596612178831</v>
       </c>
       <c r="L7" t="e" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">_xlfn.SWITCH(E7,0,NA(),E7+(RAND()*0.5))</f>
@@ -9703,7 +12973,7 @@
       </c>
       <c r="M7" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.SWITCH(F7,0,NA(),F7+(RAND()*0.5))</f>
-        <v>1.4669891886494568</v>
+        <v>1.2092476918228923</v>
       </c>
       <c r="N7" t="e" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">_xlfn.SWITCH(G7,0,NA(),G7+(RAND()*0.5))</f>
@@ -9714,27 +12984,27 @@
       <c r="A8">
         <v>2022484408</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8">
         <v>12</v>
       </c>
-      <c r="C8" s="43">
-        <v>0</v>
-      </c>
-      <c r="D8" s="43">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8">
         <v>12</v>
       </c>
-      <c r="F8" s="43">
-        <v>0</v>
-      </c>
-      <c r="G8" s="43">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">_xlfn.SWITCH(B8,0,NA(),B8+(RAND()*0.5))</f>
-        <v>12.478445088950092</v>
+        <v>12.369144064502589</v>
       </c>
       <c r="J8" t="e" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">_xlfn.SWITCH(C8,0,NA(),C8+(RAND()*0.5))</f>
@@ -9742,11 +13012,11 @@
       </c>
       <c r="K8" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">_xlfn.SWITCH(D8,0,NA(),D8+(RAND()*0.5))</f>
-        <v>1.301726395576229</v>
+        <v>1.2481832940323696</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">_xlfn.SWITCH(E8,0,NA(),E8+(RAND()*0.5))</f>
-        <v>12.261365258530077</v>
+        <v>12.416248203476814</v>
       </c>
       <c r="M8" t="e" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.SWITCH(F8,0,NA(),F8+(RAND()*0.5))</f>
@@ -9761,27 +13031,27 @@
       <c r="A9">
         <v>2026352035</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9">
         <v>12</v>
       </c>
-      <c r="C9" s="43">
-        <v>0</v>
-      </c>
-      <c r="D9" s="43">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>32</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="43">
-        <v>0</v>
-      </c>
-      <c r="G9" s="43">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">_xlfn.SWITCH(B9,0,NA(),B9+(RAND()*0.5))</f>
-        <v>12.116268698429032</v>
+        <v>12.284166656754939</v>
       </c>
       <c r="J9" t="e" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">_xlfn.SWITCH(C9,0,NA(),C9+(RAND()*0.5))</f>
@@ -9789,11 +13059,11 @@
       </c>
       <c r="K9" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">_xlfn.SWITCH(D9,0,NA(),D9+(RAND()*0.5))</f>
-        <v>32.050722371926291</v>
+        <v>32.294702979104471</v>
       </c>
       <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">_xlfn.SWITCH(E9,0,NA(),E9+(RAND()*0.5))</f>
-        <v>1.4946124812068313</v>
+        <v>1.3699662049881727</v>
       </c>
       <c r="M9" t="e" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.SWITCH(F9,0,NA(),F9+(RAND()*0.5))</f>
@@ -9808,27 +13078,27 @@
       <c r="A10">
         <v>2320127002</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="C10" s="43">
-        <v>0</v>
-      </c>
-      <c r="D10" s="43">
-        <v>0</v>
-      </c>
-      <c r="E10" s="43">
-        <v>0</v>
-      </c>
-      <c r="F10" s="43">
-        <v>0</v>
-      </c>
-      <c r="G10" s="43">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">_xlfn.SWITCH(B10,0,NA(),B10+(RAND()*0.5))</f>
-        <v>12.004000831598562</v>
+        <v>12.211310574580123</v>
       </c>
       <c r="J10" t="e" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">_xlfn.SWITCH(C10,0,NA(),C10+(RAND()*0.5))</f>
@@ -9855,27 +13125,27 @@
       <c r="A11">
         <v>2347167796</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11">
         <v>15</v>
       </c>
-      <c r="C11" s="43">
-        <v>0</v>
-      </c>
-      <c r="D11" s="43">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>25</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11">
         <v>14</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11">
         <v>1</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">_xlfn.SWITCH(B11,0,NA(),B11+(RAND()*0.5))</f>
-        <v>15.297856115952932</v>
+        <v>15.234696497870107</v>
       </c>
       <c r="J11" t="e" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">_xlfn.SWITCH(C11,0,NA(),C11+(RAND()*0.5))</f>
@@ -9883,46 +13153,46 @@
       </c>
       <c r="K11" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">_xlfn.SWITCH(D11,0,NA(),D11+(RAND()*0.5))</f>
-        <v>25.447471947696933</v>
+        <v>25.443738492866103</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">_xlfn.SWITCH(E11,0,NA(),E11+(RAND()*0.5))</f>
-        <v>14.440115934314484</v>
+        <v>14.046706650840143</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.SWITCH(F11,0,NA(),F11+(RAND()*0.5))</f>
-        <v>1.1071336970243026</v>
+        <v>1.178431050820296</v>
       </c>
       <c r="N11" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">_xlfn.SWITCH(G11,0,NA(),G11+(RAND()*0.5))</f>
-        <v>1.0400657767743033</v>
+        <v>1.2259586528067219</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>2873212765</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="C12" s="43">
-        <v>0</v>
-      </c>
-      <c r="D12" s="43">
-        <v>0</v>
-      </c>
-      <c r="E12" s="43">
-        <v>0</v>
-      </c>
-      <c r="F12" s="43">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12">
         <v>0</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">_xlfn.SWITCH(B12,0,NA(),B12+(RAND()*0.5))</f>
-        <v>12.129110696895838</v>
+        <v>12.411131895827944</v>
       </c>
       <c r="J12" t="e" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">_xlfn.SWITCH(C12,0,NA(),C12+(RAND()*0.5))</f>
@@ -9938,7 +13208,7 @@
       </c>
       <c r="M12" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.SWITCH(F12,0,NA(),F12+(RAND()*0.5))</f>
-        <v>2.41524544860345</v>
+        <v>2.2117286961976306</v>
       </c>
       <c r="N12" t="e" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">_xlfn.SWITCH(G12,0,NA(),G12+(RAND()*0.5))</f>
@@ -9949,31 +13219,31 @@
       <c r="A13">
         <v>2891001357</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="43">
-        <v>0</v>
-      </c>
-      <c r="E13" s="43">
-        <v>0</v>
-      </c>
-      <c r="F13" s="43">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13">
         <v>0</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">_xlfn.SWITCH(B13,0,NA(),B13+(RAND()*0.5))</f>
-        <v>8.3079061894273103</v>
+        <v>8.2729179359644842</v>
       </c>
       <c r="J13" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">_xlfn.SWITCH(C13,0,NA(),C13+(RAND()*0.5))</f>
-        <v>3.4767548384959559</v>
+        <v>3.3421362326316304</v>
       </c>
       <c r="K13" t="e" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">_xlfn.SWITCH(D13,0,NA(),D13+(RAND()*0.5))</f>
@@ -9985,7 +13255,7 @@
       </c>
       <c r="M13" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.SWITCH(F13,0,NA(),F13+(RAND()*0.5))</f>
-        <v>1.0742992554523227</v>
+        <v>1.3173051466506533</v>
       </c>
       <c r="N13" t="e" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">_xlfn.SWITCH(G13,0,NA(),G13+(RAND()*0.5))</f>
@@ -9996,27 +13266,27 @@
       <c r="A14">
         <v>3372868164</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="43">
-        <v>0</v>
-      </c>
-      <c r="D14" s="43">
-        <v>0</v>
-      </c>
-      <c r="E14" s="43">
-        <v>0</v>
-      </c>
-      <c r="F14" s="43">
-        <v>0</v>
-      </c>
-      <c r="G14" s="43">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>0</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">_xlfn.SWITCH(B14,0,NA(),B14+(RAND()*0.5))</f>
-        <v>10.430378584909805</v>
+        <v>10.103467175947319</v>
       </c>
       <c r="J14" t="e" cm="1">
         <f t="array" aca="1" ref="J14" ca="1">_xlfn.SWITCH(C14,0,NA(),C14+(RAND()*0.5))</f>
@@ -10043,27 +13313,27 @@
       <c r="A15">
         <v>3977333714</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="43">
-        <v>0</v>
-      </c>
-      <c r="D15" s="43">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>15</v>
       </c>
-      <c r="E15" s="43">
-        <v>0</v>
-      </c>
-      <c r="F15" s="43">
-        <v>0</v>
-      </c>
-      <c r="G15" s="43">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">_xlfn.SWITCH(B15,0,NA(),B15+(RAND()*0.5))</f>
-        <v>12.076897949213757</v>
+        <v>12.299696175894569</v>
       </c>
       <c r="J15" t="e" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">_xlfn.SWITCH(C15,0,NA(),C15+(RAND()*0.5))</f>
@@ -10071,7 +13341,7 @@
       </c>
       <c r="K15" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">_xlfn.SWITCH(D15,0,NA(),D15+(RAND()*0.5))</f>
-        <v>15.447888775150059</v>
+        <v>15.016459151208682</v>
       </c>
       <c r="L15" t="e" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">_xlfn.SWITCH(E15,0,NA(),E15+(RAND()*0.5))</f>
@@ -10090,27 +13360,27 @@
       <c r="A16">
         <v>4020332650</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16">
         <v>32</v>
       </c>
-      <c r="C16" s="43">
-        <v>0</v>
-      </c>
-      <c r="D16" s="43">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16">
         <v>12</v>
       </c>
-      <c r="F16" s="43">
-        <v>0</v>
-      </c>
-      <c r="G16" s="43">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
       <c r="I16" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">_xlfn.SWITCH(B16,0,NA(),B16+(RAND()*0.5))</f>
-        <v>32.155233184179117</v>
+        <v>32.010113540992648</v>
       </c>
       <c r="J16" t="e" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">_xlfn.SWITCH(C16,0,NA(),C16+(RAND()*0.5))</f>
@@ -10118,11 +13388,11 @@
       </c>
       <c r="K16" cm="1">
         <f t="array" aca="1" ref="K16" ca="1">_xlfn.SWITCH(D16,0,NA(),D16+(RAND()*0.5))</f>
-        <v>15.014459061378993</v>
+        <v>15.405930757879224</v>
       </c>
       <c r="L16" cm="1">
         <f t="array" aca="1" ref="L16" ca="1">_xlfn.SWITCH(E16,0,NA(),E16+(RAND()*0.5))</f>
-        <v>12.157384451594858</v>
+        <v>12.244390856139086</v>
       </c>
       <c r="M16" t="e" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.SWITCH(F16,0,NA(),F16+(RAND()*0.5))</f>
@@ -10137,31 +13407,31 @@
       <c r="A17">
         <v>4057192912</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17">
         <v>32</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="43">
-        <v>0</v>
-      </c>
-      <c r="E17" s="43">
-        <v>0</v>
-      </c>
-      <c r="F17" s="43">
-        <v>0</v>
-      </c>
-      <c r="G17" s="43">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>0</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">_xlfn.SWITCH(B17,0,NA(),B17+(RAND()*0.5))</f>
-        <v>32.419752836474835</v>
+        <v>32.454617478357321</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">_xlfn.SWITCH(C17,0,NA(),C17+(RAND()*0.5))</f>
-        <v>1.238711512181661</v>
+        <v>1.3472336888494416</v>
       </c>
       <c r="K17" t="e" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">_xlfn.SWITCH(D17,0,NA(),D17+(RAND()*0.5))</f>
@@ -10184,27 +13454,27 @@
       <c r="A18">
         <v>4319703577</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18">
         <v>12</v>
       </c>
-      <c r="C18" s="43">
-        <v>0</v>
-      </c>
-      <c r="D18" s="43">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>23</v>
       </c>
-      <c r="E18" s="43">
-        <v>0</v>
-      </c>
-      <c r="F18" s="43">
-        <v>0</v>
-      </c>
-      <c r="G18" s="43">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>0</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">_xlfn.SWITCH(B18,0,NA(),B18+(RAND()*0.5))</f>
-        <v>12.442803889860208</v>
+        <v>12.341641339459851</v>
       </c>
       <c r="J18" t="e" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">_xlfn.SWITCH(C18,0,NA(),C18+(RAND()*0.5))</f>
@@ -10212,7 +13482,7 @@
       </c>
       <c r="K18" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">_xlfn.SWITCH(D18,0,NA(),D18+(RAND()*0.5))</f>
-        <v>23.258606647809589</v>
+        <v>23.335358038734995</v>
       </c>
       <c r="L18" t="e" cm="1">
         <f t="array" aca="1" ref="L18" ca="1">_xlfn.SWITCH(E18,0,NA(),E18+(RAND()*0.5))</f>
@@ -10231,27 +13501,27 @@
       <c r="A19">
         <v>4388161847</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19">
         <v>8</v>
       </c>
-      <c r="C19" s="43">
-        <v>0</v>
-      </c>
-      <c r="D19" s="43">
-        <v>0</v>
-      </c>
-      <c r="E19" s="43">
-        <v>0</v>
-      </c>
-      <c r="F19" s="43">
-        <v>0</v>
-      </c>
-      <c r="G19" s="43">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>0</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">_xlfn.SWITCH(B19,0,NA(),B19+(RAND()*0.5))</f>
-        <v>8.2785333691302192</v>
+        <v>8.0749783920806308</v>
       </c>
       <c r="J19" t="e" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">_xlfn.SWITCH(C19,0,NA(),C19+(RAND()*0.5))</f>
@@ -10278,27 +13548,27 @@
       <c r="A20">
         <v>4445114986</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="C20" s="43">
-        <v>0</v>
-      </c>
-      <c r="D20" s="43">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>26</v>
       </c>
-      <c r="E20" s="43">
-        <v>0</v>
-      </c>
-      <c r="F20" s="43">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20">
         <v>0</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">_xlfn.SWITCH(B20,0,NA(),B20+(RAND()*0.5))</f>
-        <v>15.465449705112928</v>
+        <v>15.279215782658799</v>
       </c>
       <c r="J20" t="e" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">_xlfn.SWITCH(C20,0,NA(),C20+(RAND()*0.5))</f>
@@ -10306,7 +13576,7 @@
       </c>
       <c r="K20" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">_xlfn.SWITCH(D20,0,NA(),D20+(RAND()*0.5))</f>
-        <v>26.127759648503982</v>
+        <v>26.067089235248325</v>
       </c>
       <c r="L20" t="e" cm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.SWITCH(E20,0,NA(),E20+(RAND()*0.5))</f>
@@ -10314,7 +13584,7 @@
       </c>
       <c r="M20" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.SWITCH(F20,0,NA(),F20+(RAND()*0.5))</f>
-        <v>1.427623799453581</v>
+        <v>1.4434335833779912</v>
       </c>
       <c r="N20" t="e" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">_xlfn.SWITCH(G20,0,NA(),G20+(RAND()*0.5))</f>
@@ -10325,27 +13595,27 @@
       <c r="A21">
         <v>4558609924</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21">
         <v>12</v>
       </c>
-      <c r="C21" s="43">
-        <v>0</v>
-      </c>
-      <c r="D21" s="43">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21">
         <v>12</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21">
         <v>0</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">_xlfn.SWITCH(B21,0,NA(),B21+(RAND()*0.5))</f>
-        <v>12.343878730298341</v>
+        <v>12.323029350056908</v>
       </c>
       <c r="J21" t="e" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">_xlfn.SWITCH(C21,0,NA(),C21+(RAND()*0.5))</f>
@@ -10353,15 +13623,15 @@
       </c>
       <c r="K21" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">_xlfn.SWITCH(D21,0,NA(),D21+(RAND()*0.5))</f>
-        <v>2.2819537667218577</v>
+        <v>2.2938624512646162</v>
       </c>
       <c r="L21" cm="1">
         <f t="array" aca="1" ref="L21" ca="1">_xlfn.SWITCH(E21,0,NA(),E21+(RAND()*0.5))</f>
-        <v>12.240257004255875</v>
+        <v>12.27011144268371</v>
       </c>
       <c r="M21" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.SWITCH(F21,0,NA(),F21+(RAND()*0.5))</f>
-        <v>1.0711456303949443</v>
+        <v>1.0743908740049626</v>
       </c>
       <c r="N21" t="e" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">_xlfn.SWITCH(G21,0,NA(),G21+(RAND()*0.5))</f>
@@ -10372,27 +13642,27 @@
       <c r="A22">
         <v>4702921684</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22">
         <v>15</v>
       </c>
-      <c r="C22" s="43">
-        <v>0</v>
-      </c>
-      <c r="D22" s="43">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>28</v>
       </c>
-      <c r="E22" s="43">
-        <v>0</v>
-      </c>
-      <c r="F22" s="43">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22">
         <v>0</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">_xlfn.SWITCH(B22,0,NA(),B22+(RAND()*0.5))</f>
-        <v>15.402744583788897</v>
+        <v>15.253934323189103</v>
       </c>
       <c r="J22" t="e" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">_xlfn.SWITCH(C22,0,NA(),C22+(RAND()*0.5))</f>
@@ -10400,7 +13670,7 @@
       </c>
       <c r="K22" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">_xlfn.SWITCH(D22,0,NA(),D22+(RAND()*0.5))</f>
-        <v>28.322133206635367</v>
+        <v>28.447649633044861</v>
       </c>
       <c r="L22" t="e" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">_xlfn.SWITCH(E22,0,NA(),E22+(RAND()*0.5))</f>
@@ -10408,7 +13678,7 @@
       </c>
       <c r="M22" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.SWITCH(F22,0,NA(),F22+(RAND()*0.5))</f>
-        <v>1.0389495507985178</v>
+        <v>1.4090624819302762</v>
       </c>
       <c r="N22" t="e" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">_xlfn.SWITCH(G22,0,NA(),G22+(RAND()*0.5))</f>
@@ -10419,27 +13689,27 @@
       <c r="A23">
         <v>5553957443</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23" s="43">
-        <v>0</v>
-      </c>
-      <c r="D23" s="43">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>25</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23">
         <v>12</v>
       </c>
-      <c r="F23" s="43">
-        <v>0</v>
-      </c>
-      <c r="G23" s="43">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>0</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">_xlfn.SWITCH(B23,0,NA(),B23+(RAND()*0.5))</f>
-        <v>12.332357132332971</v>
+        <v>12.350778531523307</v>
       </c>
       <c r="J23" t="e" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">_xlfn.SWITCH(C23,0,NA(),C23+(RAND()*0.5))</f>
@@ -10447,11 +13717,11 @@
       </c>
       <c r="K23" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">_xlfn.SWITCH(D23,0,NA(),D23+(RAND()*0.5))</f>
-        <v>25.317830073588727</v>
+        <v>25.28855158757213</v>
       </c>
       <c r="L23" cm="1">
         <f t="array" aca="1" ref="L23" ca="1">_xlfn.SWITCH(E23,0,NA(),E23+(RAND()*0.5))</f>
-        <v>12.317089141517421</v>
+        <v>12.277016309607074</v>
       </c>
       <c r="M23" t="e" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.SWITCH(F23,0,NA(),F23+(RAND()*0.5))</f>
@@ -10466,27 +13736,27 @@
       <c r="A24">
         <v>5577150313</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24">
         <v>11</v>
       </c>
-      <c r="C24" s="43">
-        <v>0</v>
-      </c>
-      <c r="D24" s="43">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>30</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24">
         <v>11</v>
       </c>
-      <c r="F24" s="43">
-        <v>0</v>
-      </c>
-      <c r="G24" s="43">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>0</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">_xlfn.SWITCH(B24,0,NA(),B24+(RAND()*0.5))</f>
-        <v>11.173332774749731</v>
+        <v>11.383008514422963</v>
       </c>
       <c r="J24" t="e" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">_xlfn.SWITCH(C24,0,NA(),C24+(RAND()*0.5))</f>
@@ -10494,11 +13764,11 @@
       </c>
       <c r="K24" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">_xlfn.SWITCH(D24,0,NA(),D24+(RAND()*0.5))</f>
-        <v>30.351643853301393</v>
+        <v>30.411035613352368</v>
       </c>
       <c r="L24" cm="1">
         <f t="array" aca="1" ref="L24" ca="1">_xlfn.SWITCH(E24,0,NA(),E24+(RAND()*0.5))</f>
-        <v>11.134748061160195</v>
+        <v>11.249224221382645</v>
       </c>
       <c r="M24" t="e" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.SWITCH(F24,0,NA(),F24+(RAND()*0.5))</f>
@@ -10513,27 +13783,27 @@
       <c r="A25">
         <v>6117666160</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25">
         <v>10</v>
       </c>
-      <c r="C25" s="43">
-        <v>0</v>
-      </c>
-      <c r="D25" s="43">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>23</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25">
         <v>8</v>
       </c>
-      <c r="F25" s="43">
-        <v>0</v>
-      </c>
-      <c r="G25" s="43">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>0</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">_xlfn.SWITCH(B25,0,NA(),B25+(RAND()*0.5))</f>
-        <v>10.026965696632191</v>
+        <v>10.106004189697748</v>
       </c>
       <c r="J25" t="e" cm="1">
         <f t="array" aca="1" ref="J25" ca="1">_xlfn.SWITCH(C25,0,NA(),C25+(RAND()*0.5))</f>
@@ -10541,11 +13811,11 @@
       </c>
       <c r="K25" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">_xlfn.SWITCH(D25,0,NA(),D25+(RAND()*0.5))</f>
-        <v>23.075966207632526</v>
+        <v>23.103458693817849</v>
       </c>
       <c r="L25" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">_xlfn.SWITCH(E25,0,NA(),E25+(RAND()*0.5))</f>
-        <v>8.4368719662108695</v>
+        <v>8.0387900505655541</v>
       </c>
       <c r="M25" t="e" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.SWITCH(F25,0,NA(),F25+(RAND()*0.5))</f>
@@ -10560,27 +13830,27 @@
       <c r="A26">
         <v>6290855005</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26">
         <v>10</v>
       </c>
-      <c r="C26" s="43">
-        <v>0</v>
-      </c>
-      <c r="D26" s="43">
-        <v>0</v>
-      </c>
-      <c r="E26" s="43">
-        <v>0</v>
-      </c>
-      <c r="F26" s="43">
-        <v>0</v>
-      </c>
-      <c r="G26" s="43">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>0</v>
       </c>
       <c r="I26" cm="1">
         <f t="array" aca="1" ref="I26" ca="1">_xlfn.SWITCH(B26,0,NA(),B26+(RAND()*0.5))</f>
-        <v>10.095359397276708</v>
+        <v>10.485587286722524</v>
       </c>
       <c r="J26" t="e" cm="1">
         <f t="array" aca="1" ref="J26" ca="1">_xlfn.SWITCH(C26,0,NA(),C26+(RAND()*0.5))</f>
@@ -10607,31 +13877,31 @@
       <c r="A27">
         <v>6391747486</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27">
         <v>9</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="43">
-        <v>0</v>
-      </c>
-      <c r="E27" s="43">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27" s="43">
-        <v>0</v>
-      </c>
-      <c r="G27" s="43">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>0</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">_xlfn.SWITCH(B27,0,NA(),B27+(RAND()*0.5))</f>
-        <v>9.4627857345802173</v>
+        <v>9.0733109754000623</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" aca="1" ref="J27" ca="1">_xlfn.SWITCH(C27,0,NA(),C27+(RAND()*0.5))</f>
-        <v>2.0723421070788017</v>
+        <v>2.2442800867812553</v>
       </c>
       <c r="K27" t="e" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">_xlfn.SWITCH(D27,0,NA(),D27+(RAND()*0.5))</f>
@@ -10639,7 +13909,7 @@
       </c>
       <c r="L27" cm="1">
         <f t="array" aca="1" ref="L27" ca="1">_xlfn.SWITCH(E27,0,NA(),E27+(RAND()*0.5))</f>
-        <v>3.3202569141980574</v>
+        <v>3.4509782680334364</v>
       </c>
       <c r="M27" t="e" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.SWITCH(F27,0,NA(),F27+(RAND()*0.5))</f>
@@ -10654,27 +13924,27 @@
       <c r="A28">
         <v>6775888955</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28">
         <v>9</v>
       </c>
-      <c r="C28" s="43">
-        <v>0</v>
-      </c>
-      <c r="D28" s="43">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>13</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28">
         <v>8</v>
       </c>
-      <c r="F28" s="43">
-        <v>0</v>
-      </c>
-      <c r="G28" s="43">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>0</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">_xlfn.SWITCH(B28,0,NA(),B28+(RAND()*0.5))</f>
-        <v>9.3747122844577966</v>
+        <v>9.0510877134709293</v>
       </c>
       <c r="J28" t="e" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">_xlfn.SWITCH(C28,0,NA(),C28+(RAND()*0.5))</f>
@@ -10682,11 +13952,11 @@
       </c>
       <c r="K28" cm="1">
         <f t="array" aca="1" ref="K28" ca="1">_xlfn.SWITCH(D28,0,NA(),D28+(RAND()*0.5))</f>
-        <v>13.095841835893664</v>
+        <v>13.226814767184422</v>
       </c>
       <c r="L28" cm="1">
         <f t="array" aca="1" ref="L28" ca="1">_xlfn.SWITCH(E28,0,NA(),E28+(RAND()*0.5))</f>
-        <v>8.2230393373294692</v>
+        <v>8.2186388690003938</v>
       </c>
       <c r="M28" t="e" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.SWITCH(F28,0,NA(),F28+(RAND()*0.5))</f>
@@ -10701,43 +13971,43 @@
       <c r="A29">
         <v>6962181067</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29">
         <v>14</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29">
         <v>24</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29">
         <v>14</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29">
         <v>14</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29">
         <v>0</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">_xlfn.SWITCH(B29,0,NA(),B29+(RAND()*0.5))</f>
-        <v>14.342307282735833</v>
+        <v>14.375167617433233</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">_xlfn.SWITCH(C29,0,NA(),C29+(RAND()*0.5))</f>
-        <v>4.4920849824188247</v>
+        <v>4.4351759656815997</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" aca="1" ref="K29" ca="1">_xlfn.SWITCH(D29,0,NA(),D29+(RAND()*0.5))</f>
-        <v>24.051011094670091</v>
+        <v>24.129906948483022</v>
       </c>
       <c r="L29" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">_xlfn.SWITCH(E29,0,NA(),E29+(RAND()*0.5))</f>
-        <v>14.401576330001454</v>
+        <v>14.272341203201298</v>
       </c>
       <c r="M29" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.SWITCH(F29,0,NA(),F29+(RAND()*0.5))</f>
-        <v>14.169644788007702</v>
+        <v>14.065511457089153</v>
       </c>
       <c r="N29" t="e" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">_xlfn.SWITCH(G29,0,NA(),G29+(RAND()*0.5))</f>
@@ -10748,39 +14018,39 @@
       <c r="A30">
         <v>7007744171</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30">
         <v>12</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30">
         <v>7</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30">
         <v>8</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30">
         <v>12</v>
       </c>
-      <c r="F30" s="43">
-        <v>0</v>
-      </c>
-      <c r="G30" s="43">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>0</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">_xlfn.SWITCH(B30,0,NA(),B30+(RAND()*0.5))</f>
-        <v>12.295161993857963</v>
+        <v>12.458107926972426</v>
       </c>
       <c r="J30" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">_xlfn.SWITCH(C30,0,NA(),C30+(RAND()*0.5))</f>
-        <v>7.1996271353064252</v>
+        <v>7.4195171719047401</v>
       </c>
       <c r="K30" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">_xlfn.SWITCH(D30,0,NA(),D30+(RAND()*0.5))</f>
-        <v>8.3806711228981143</v>
+        <v>8.2683211648418613</v>
       </c>
       <c r="L30" cm="1">
         <f t="array" aca="1" ref="L30" ca="1">_xlfn.SWITCH(E30,0,NA(),E30+(RAND()*0.5))</f>
-        <v>12.129143816739928</v>
+        <v>12.288039671101238</v>
       </c>
       <c r="M30" t="e" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.SWITCH(F30,0,NA(),F30+(RAND()*0.5))</f>
@@ -10795,27 +14065,27 @@
       <c r="A31">
         <v>7086361926</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31">
         <v>12</v>
       </c>
-      <c r="C31" s="43">
-        <v>0</v>
-      </c>
-      <c r="D31" s="43">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>21</v>
       </c>
-      <c r="E31" s="43">
-        <v>0</v>
-      </c>
-      <c r="F31" s="43">
-        <v>0</v>
-      </c>
-      <c r="G31" s="43">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>0</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">_xlfn.SWITCH(B31,0,NA(),B31+(RAND()*0.5))</f>
-        <v>12.347836276402443</v>
+        <v>12.483224673499917</v>
       </c>
       <c r="J31" t="e" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">_xlfn.SWITCH(C31,0,NA(),C31+(RAND()*0.5))</f>
@@ -10823,7 +14093,7 @@
       </c>
       <c r="K31" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">_xlfn.SWITCH(D31,0,NA(),D31+(RAND()*0.5))</f>
-        <v>21.424866368274099</v>
+        <v>21.14654855519559</v>
       </c>
       <c r="L31" t="e" cm="1">
         <f t="array" aca="1" ref="L31" ca="1">_xlfn.SWITCH(E31,0,NA(),E31+(RAND()*0.5))</f>
@@ -10842,27 +14112,27 @@
       <c r="A32">
         <v>8053475328</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32">
         <v>11</v>
       </c>
-      <c r="C32" s="43">
-        <v>0</v>
-      </c>
-      <c r="D32" s="43">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="43">
-        <v>0</v>
-      </c>
-      <c r="F32" s="43">
-        <v>0</v>
-      </c>
-      <c r="G32" s="43">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>0</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">_xlfn.SWITCH(B32,0,NA(),B32+(RAND()*0.5))</f>
-        <v>11.412242671056093</v>
+        <v>11.227083569746343</v>
       </c>
       <c r="J32" t="e" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">_xlfn.SWITCH(C32,0,NA(),C32+(RAND()*0.5))</f>
@@ -10870,7 +14140,7 @@
       </c>
       <c r="K32" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">_xlfn.SWITCH(D32,0,NA(),D32+(RAND()*0.5))</f>
-        <v>1.4378214346119806</v>
+        <v>1.0221915446617902</v>
       </c>
       <c r="L32" t="e" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">_xlfn.SWITCH(E32,0,NA(),E32+(RAND()*0.5))</f>
@@ -10889,27 +14159,27 @@
       <c r="A33">
         <v>8253242879</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33">
         <v>12</v>
       </c>
-      <c r="C33" s="43">
-        <v>0</v>
-      </c>
-      <c r="D33" s="43">
-        <v>0</v>
-      </c>
-      <c r="E33" s="43">
-        <v>0</v>
-      </c>
-      <c r="F33" s="43">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33">
         <v>0</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">_xlfn.SWITCH(B33,0,NA(),B33+(RAND()*0.5))</f>
-        <v>12.267461086890709</v>
+        <v>12.230184409165206</v>
       </c>
       <c r="J33" t="e" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">_xlfn.SWITCH(C33,0,NA(),C33+(RAND()*0.5))</f>
@@ -10925,7 +14195,7 @@
       </c>
       <c r="M33" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">_xlfn.SWITCH(F33,0,NA(),F33+(RAND()*0.5))</f>
-        <v>1.2777911958942987</v>
+        <v>1.3181002326175439</v>
       </c>
       <c r="N33" t="e" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">_xlfn.SWITCH(G33,0,NA(),G33+(RAND()*0.5))</f>
@@ -10936,35 +14206,35 @@
       <c r="A34">
         <v>8378563200</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34">
         <v>12</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34">
         <v>7</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34">
         <v>30</v>
       </c>
-      <c r="E34" s="43">
-        <v>0</v>
-      </c>
-      <c r="F34" s="43">
-        <v>0</v>
-      </c>
-      <c r="G34" s="43">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>0</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">_xlfn.SWITCH(B34,0,NA(),B34+(RAND()*0.5))</f>
-        <v>12.474220336398901</v>
+        <v>12.43225809250551</v>
       </c>
       <c r="J34" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">_xlfn.SWITCH(C34,0,NA(),C34+(RAND()*0.5))</f>
-        <v>7.2870894588363688</v>
+        <v>7.3958040735916377</v>
       </c>
       <c r="K34" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">_xlfn.SWITCH(D34,0,NA(),D34+(RAND()*0.5))</f>
-        <v>30.114004795038792</v>
+        <v>30.039010731582806</v>
       </c>
       <c r="L34" t="e" cm="1">
         <f t="array" aca="1" ref="L34" ca="1">_xlfn.SWITCH(E34,0,NA(),E34+(RAND()*0.5))</f>
@@ -10983,27 +14253,27 @@
       <c r="A35">
         <v>8583815059</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35">
         <v>8</v>
       </c>
-      <c r="C35" s="43">
-        <v>0</v>
-      </c>
-      <c r="D35" s="43">
-        <v>0</v>
-      </c>
-      <c r="E35" s="43">
-        <v>0</v>
-      </c>
-      <c r="F35" s="43">
-        <v>0</v>
-      </c>
-      <c r="G35" s="43">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>0</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">_xlfn.SWITCH(B35,0,NA(),B35+(RAND()*0.5))</f>
-        <v>8.1256025260692315</v>
+        <v>8.1744269731766401</v>
       </c>
       <c r="J35" t="e" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">_xlfn.SWITCH(C35,0,NA(),C35+(RAND()*0.5))</f>
@@ -11030,27 +14300,27 @@
       <c r="A36">
         <v>8792009665</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36">
         <v>12</v>
       </c>
-      <c r="C36" s="43">
-        <v>0</v>
-      </c>
-      <c r="D36" s="43">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>12</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36">
         <v>12</v>
       </c>
-      <c r="F36" s="43">
-        <v>0</v>
-      </c>
-      <c r="G36" s="43">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>0</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">_xlfn.SWITCH(B36,0,NA(),B36+(RAND()*0.5))</f>
-        <v>12.008491893326051</v>
+        <v>12.390863026708216</v>
       </c>
       <c r="J36" t="e" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">_xlfn.SWITCH(C36,0,NA(),C36+(RAND()*0.5))</f>
@@ -11058,11 +14328,11 @@
       </c>
       <c r="K36" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">_xlfn.SWITCH(D36,0,NA(),D36+(RAND()*0.5))</f>
-        <v>12.121788746619469</v>
+        <v>12.036149161788895</v>
       </c>
       <c r="L36" cm="1">
         <f t="array" aca="1" ref="L36" ca="1">_xlfn.SWITCH(E36,0,NA(),E36+(RAND()*0.5))</f>
-        <v>12.460877020276463</v>
+        <v>12.34847347327441</v>
       </c>
       <c r="M36" t="e" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">_xlfn.SWITCH(F36,0,NA(),F36+(RAND()*0.5))</f>
@@ -11077,27 +14347,27 @@
       <c r="A37">
         <v>8877689391</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37">
         <v>12</v>
       </c>
-      <c r="C37" s="43">
-        <v>0</v>
-      </c>
-      <c r="D37" s="43">
-        <v>0</v>
-      </c>
-      <c r="E37" s="43">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>12</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37">
         <v>9</v>
       </c>
-      <c r="G37" s="43">
+      <c r="G37">
         <v>0</v>
       </c>
       <c r="I37" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">_xlfn.SWITCH(B37,0,NA(),B37+(RAND()*0.5))</f>
-        <v>12.164895320237687</v>
+        <v>12.318116425493528</v>
       </c>
       <c r="J37" t="e" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">_xlfn.SWITCH(C37,0,NA(),C37+(RAND()*0.5))</f>
@@ -11109,11 +14379,11 @@
       </c>
       <c r="L37" cm="1">
         <f t="array" aca="1" ref="L37" ca="1">_xlfn.SWITCH(E37,0,NA(),E37+(RAND()*0.5))</f>
-        <v>12.12872316270138</v>
+        <v>12.462879201737108</v>
       </c>
       <c r="M37" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">_xlfn.SWITCH(F37,0,NA(),F37+(RAND()*0.5))</f>
-        <v>9.3582872920285212</v>
+        <v>9.4415804036696667</v>
       </c>
       <c r="N37" t="e" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">_xlfn.SWITCH(G37,0,NA(),G37+(RAND()*0.5))</f>
@@ -11133,7 +14403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -11146,19 +14416,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.6">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11180,22 +14450,22 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11221,22 +14491,22 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="37">
         <v>32</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="37">
         <v>7</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="37">
         <v>32</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="37">
         <v>14</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3" s="37">
         <v>14</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="37">
         <v>1</v>
       </c>
     </row>
@@ -11262,22 +14532,22 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="37">
         <v>32</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="37">
         <v>7</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="37">
         <v>30</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="37">
         <v>14</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="37">
         <v>9</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="37">
         <v>1</v>
       </c>
     </row>
@@ -11303,22 +14573,22 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="37">
         <v>19</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="37">
         <v>4</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="37">
         <v>30</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="37">
         <v>12</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="37">
         <v>2</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11344,22 +14614,22 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="37">
         <v>19</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <v>3</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="37">
         <v>29</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="37">
         <v>12</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="37">
         <v>1</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11385,22 +14655,22 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="37">
         <v>15</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="37">
         <v>2</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="37">
         <v>28</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="37">
         <v>12</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="37">
         <v>1</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11426,22 +14696,22 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="37">
         <v>15</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <v>1</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="37">
         <v>26</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="37">
         <v>12</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="37">
         <v>1</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11467,22 +14737,22 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="37">
         <v>15</v>
       </c>
-      <c r="J9" s="38">
-        <v>0</v>
-      </c>
-      <c r="K9" s="38">
+      <c r="J9" s="37">
+        <v>0</v>
+      </c>
+      <c r="K9" s="37">
         <v>25</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="37">
         <v>12</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9" s="37">
         <v>1</v>
       </c>
-      <c r="N9" s="40">
+      <c r="N9" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11508,22 +14778,22 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="37">
         <v>14</v>
       </c>
-      <c r="J10" s="38">
-        <v>0</v>
-      </c>
-      <c r="K10" s="38">
+      <c r="J10" s="37">
+        <v>0</v>
+      </c>
+      <c r="K10" s="37">
         <v>25</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="37">
         <v>12</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="37">
         <v>1</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11549,22 +14819,22 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="37">
         <v>12</v>
       </c>
-      <c r="J11" s="38">
-        <v>0</v>
-      </c>
-      <c r="K11" s="38">
+      <c r="J11" s="37">
+        <v>0</v>
+      </c>
+      <c r="K11" s="37">
         <v>25</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="37">
         <v>12</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="37">
         <v>1</v>
       </c>
-      <c r="N11" s="40">
+      <c r="N11" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11590,22 +14860,22 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <v>12</v>
       </c>
-      <c r="J12" s="38">
-        <v>0</v>
-      </c>
-      <c r="K12" s="38">
+      <c r="J12" s="37">
+        <v>0</v>
+      </c>
+      <c r="K12" s="37">
         <v>24</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="37">
         <v>11</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="37">
         <v>1</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N12" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11631,22 +14901,22 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="37">
         <v>12</v>
       </c>
-      <c r="J13" s="38">
-        <v>0</v>
-      </c>
-      <c r="K13" s="38">
+      <c r="J13" s="37">
+        <v>0</v>
+      </c>
+      <c r="K13" s="37">
         <v>23</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="37">
         <v>8</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="37">
         <v>1</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11672,22 +14942,22 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="37">
         <v>12</v>
       </c>
-      <c r="J14" s="38">
-        <v>0</v>
-      </c>
-      <c r="K14" s="38">
+      <c r="J14" s="37">
+        <v>0</v>
+      </c>
+      <c r="K14" s="37">
         <v>23</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="37">
         <v>8</v>
       </c>
-      <c r="M14" s="38">
-        <v>0</v>
-      </c>
-      <c r="N14" s="40">
+      <c r="M14" s="37">
+        <v>0</v>
+      </c>
+      <c r="N14" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11713,22 +14983,22 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="37">
         <v>12</v>
       </c>
-      <c r="J15" s="38">
-        <v>0</v>
-      </c>
-      <c r="K15" s="38">
+      <c r="J15" s="37">
+        <v>0</v>
+      </c>
+      <c r="K15" s="37">
         <v>21</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="37">
         <v>3</v>
       </c>
-      <c r="M15" s="38">
-        <v>0</v>
-      </c>
-      <c r="N15" s="40">
+      <c r="M15" s="37">
+        <v>0</v>
+      </c>
+      <c r="N15" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11754,22 +15024,22 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="37">
         <v>12</v>
       </c>
-      <c r="J16" s="38">
-        <v>0</v>
-      </c>
-      <c r="K16" s="38">
+      <c r="J16" s="37">
+        <v>0</v>
+      </c>
+      <c r="K16" s="37">
         <v>15</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="37">
         <v>1</v>
       </c>
-      <c r="M16" s="38">
-        <v>0</v>
-      </c>
-      <c r="N16" s="40">
+      <c r="M16" s="37">
+        <v>0</v>
+      </c>
+      <c r="N16" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11795,22 +15065,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="37">
         <v>12</v>
       </c>
-      <c r="J17" s="38">
-        <v>0</v>
-      </c>
-      <c r="K17" s="38">
+      <c r="J17" s="37">
+        <v>0</v>
+      </c>
+      <c r="K17" s="37">
         <v>15</v>
       </c>
-      <c r="L17" s="38">
-        <v>0</v>
-      </c>
-      <c r="M17" s="38">
-        <v>0</v>
-      </c>
-      <c r="N17" s="40">
+      <c r="L17" s="37">
+        <v>0</v>
+      </c>
+      <c r="M17" s="37">
+        <v>0</v>
+      </c>
+      <c r="N17" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11836,22 +15106,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="37">
         <v>12</v>
       </c>
-      <c r="J18" s="38">
-        <v>0</v>
-      </c>
-      <c r="K18" s="38">
+      <c r="J18" s="37">
+        <v>0</v>
+      </c>
+      <c r="K18" s="37">
         <v>13</v>
       </c>
-      <c r="L18" s="38">
-        <v>0</v>
-      </c>
-      <c r="M18" s="38">
-        <v>0</v>
-      </c>
-      <c r="N18" s="40">
+      <c r="L18" s="37">
+        <v>0</v>
+      </c>
+      <c r="M18" s="37">
+        <v>0</v>
+      </c>
+      <c r="N18" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11877,22 +15147,22 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="37">
         <v>12</v>
       </c>
-      <c r="J19" s="38">
-        <v>0</v>
-      </c>
-      <c r="K19" s="38">
+      <c r="J19" s="37">
+        <v>0</v>
+      </c>
+      <c r="K19" s="37">
         <v>12</v>
       </c>
-      <c r="L19" s="38">
-        <v>0</v>
-      </c>
-      <c r="M19" s="38">
-        <v>0</v>
-      </c>
-      <c r="N19" s="40">
+      <c r="L19" s="37">
+        <v>0</v>
+      </c>
+      <c r="M19" s="37">
+        <v>0</v>
+      </c>
+      <c r="N19" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11918,22 +15188,22 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="37">
         <v>12</v>
       </c>
-      <c r="J20" s="38">
-        <v>0</v>
-      </c>
-      <c r="K20" s="38">
+      <c r="J20" s="37">
+        <v>0</v>
+      </c>
+      <c r="K20" s="37">
         <v>8</v>
       </c>
-      <c r="L20" s="38">
-        <v>0</v>
-      </c>
-      <c r="M20" s="38">
-        <v>0</v>
-      </c>
-      <c r="N20" s="40">
+      <c r="L20" s="37">
+        <v>0</v>
+      </c>
+      <c r="M20" s="37">
+        <v>0</v>
+      </c>
+      <c r="N20" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11959,22 +15229,22 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="37">
         <v>12</v>
       </c>
-      <c r="J21" s="38">
-        <v>0</v>
-      </c>
-      <c r="K21" s="38">
+      <c r="J21" s="37">
+        <v>0</v>
+      </c>
+      <c r="K21" s="37">
         <v>2</v>
       </c>
-      <c r="L21" s="38">
-        <v>0</v>
-      </c>
-      <c r="M21" s="38">
-        <v>0</v>
-      </c>
-      <c r="N21" s="40">
+      <c r="L21" s="37">
+        <v>0</v>
+      </c>
+      <c r="M21" s="37">
+        <v>0</v>
+      </c>
+      <c r="N21" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12000,22 +15270,22 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="37">
         <v>12</v>
       </c>
-      <c r="J22" s="38">
-        <v>0</v>
-      </c>
-      <c r="K22" s="38">
+      <c r="J22" s="37">
+        <v>0</v>
+      </c>
+      <c r="K22" s="37">
         <v>2</v>
       </c>
-      <c r="L22" s="38">
-        <v>0</v>
-      </c>
-      <c r="M22" s="38">
-        <v>0</v>
-      </c>
-      <c r="N22" s="40">
+      <c r="L22" s="37">
+        <v>0</v>
+      </c>
+      <c r="M22" s="37">
+        <v>0</v>
+      </c>
+      <c r="N22" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12041,22 +15311,22 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="37">
         <v>12</v>
       </c>
-      <c r="J23" s="38">
-        <v>0</v>
-      </c>
-      <c r="K23" s="38">
+      <c r="J23" s="37">
+        <v>0</v>
+      </c>
+      <c r="K23" s="37">
         <v>2</v>
       </c>
-      <c r="L23" s="38">
-        <v>0</v>
-      </c>
-      <c r="M23" s="38">
-        <v>0</v>
-      </c>
-      <c r="N23" s="40">
+      <c r="L23" s="37">
+        <v>0</v>
+      </c>
+      <c r="M23" s="37">
+        <v>0</v>
+      </c>
+      <c r="N23" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12082,22 +15352,22 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="37">
         <v>12</v>
       </c>
-      <c r="J24" s="38">
-        <v>0</v>
-      </c>
-      <c r="K24" s="38">
+      <c r="J24" s="37">
+        <v>0</v>
+      </c>
+      <c r="K24" s="37">
         <v>1</v>
       </c>
-      <c r="L24" s="38">
-        <v>0</v>
-      </c>
-      <c r="M24" s="38">
-        <v>0</v>
-      </c>
-      <c r="N24" s="40">
+      <c r="L24" s="37">
+        <v>0</v>
+      </c>
+      <c r="M24" s="37">
+        <v>0</v>
+      </c>
+      <c r="N24" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12123,22 +15393,22 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="37">
         <v>12</v>
       </c>
-      <c r="J25" s="38">
-        <v>0</v>
-      </c>
-      <c r="K25" s="38">
+      <c r="J25" s="37">
+        <v>0</v>
+      </c>
+      <c r="K25" s="37">
         <v>1</v>
       </c>
-      <c r="L25" s="38">
-        <v>0</v>
-      </c>
-      <c r="M25" s="38">
-        <v>0</v>
-      </c>
-      <c r="N25" s="40">
+      <c r="L25" s="37">
+        <v>0</v>
+      </c>
+      <c r="M25" s="37">
+        <v>0</v>
+      </c>
+      <c r="N25" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12164,22 +15434,22 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="37">
         <v>12</v>
       </c>
-      <c r="J26" s="38">
-        <v>0</v>
-      </c>
-      <c r="K26" s="38">
-        <v>0</v>
-      </c>
-      <c r="L26" s="38">
-        <v>0</v>
-      </c>
-      <c r="M26" s="38">
-        <v>0</v>
-      </c>
-      <c r="N26" s="40">
+      <c r="J26" s="37">
+        <v>0</v>
+      </c>
+      <c r="K26" s="37">
+        <v>0</v>
+      </c>
+      <c r="L26" s="37">
+        <v>0</v>
+      </c>
+      <c r="M26" s="37">
+        <v>0</v>
+      </c>
+      <c r="N26" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12205,22 +15475,22 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="37">
         <v>11</v>
       </c>
-      <c r="J27" s="38">
-        <v>0</v>
-      </c>
-      <c r="K27" s="38">
-        <v>0</v>
-      </c>
-      <c r="L27" s="38">
-        <v>0</v>
-      </c>
-      <c r="M27" s="38">
-        <v>0</v>
-      </c>
-      <c r="N27" s="40">
+      <c r="J27" s="37">
+        <v>0</v>
+      </c>
+      <c r="K27" s="37">
+        <v>0</v>
+      </c>
+      <c r="L27" s="37">
+        <v>0</v>
+      </c>
+      <c r="M27" s="37">
+        <v>0</v>
+      </c>
+      <c r="N27" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12246,22 +15516,22 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="37">
         <v>11</v>
       </c>
-      <c r="J28" s="38">
-        <v>0</v>
-      </c>
-      <c r="K28" s="38">
-        <v>0</v>
-      </c>
-      <c r="L28" s="38">
-        <v>0</v>
-      </c>
-      <c r="M28" s="38">
-        <v>0</v>
-      </c>
-      <c r="N28" s="40">
+      <c r="J28" s="37">
+        <v>0</v>
+      </c>
+      <c r="K28" s="37">
+        <v>0</v>
+      </c>
+      <c r="L28" s="37">
+        <v>0</v>
+      </c>
+      <c r="M28" s="37">
+        <v>0</v>
+      </c>
+      <c r="N28" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12287,22 +15557,22 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="37">
         <v>10</v>
       </c>
-      <c r="J29" s="38">
-        <v>0</v>
-      </c>
-      <c r="K29" s="38">
-        <v>0</v>
-      </c>
-      <c r="L29" s="38">
-        <v>0</v>
-      </c>
-      <c r="M29" s="38">
-        <v>0</v>
-      </c>
-      <c r="N29" s="40">
+      <c r="J29" s="37">
+        <v>0</v>
+      </c>
+      <c r="K29" s="37">
+        <v>0</v>
+      </c>
+      <c r="L29" s="37">
+        <v>0</v>
+      </c>
+      <c r="M29" s="37">
+        <v>0</v>
+      </c>
+      <c r="N29" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12328,22 +15598,22 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="37">
         <v>10</v>
       </c>
-      <c r="J30" s="38">
-        <v>0</v>
-      </c>
-      <c r="K30" s="38">
-        <v>0</v>
-      </c>
-      <c r="L30" s="38">
-        <v>0</v>
-      </c>
-      <c r="M30" s="38">
-        <v>0</v>
-      </c>
-      <c r="N30" s="40">
+      <c r="J30" s="37">
+        <v>0</v>
+      </c>
+      <c r="K30" s="37">
+        <v>0</v>
+      </c>
+      <c r="L30" s="37">
+        <v>0</v>
+      </c>
+      <c r="M30" s="37">
+        <v>0</v>
+      </c>
+      <c r="N30" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12369,22 +15639,22 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="37">
         <v>10</v>
       </c>
-      <c r="J31" s="38">
-        <v>0</v>
-      </c>
-      <c r="K31" s="38">
-        <v>0</v>
-      </c>
-      <c r="L31" s="38">
-        <v>0</v>
-      </c>
-      <c r="M31" s="38">
-        <v>0</v>
-      </c>
-      <c r="N31" s="40">
+      <c r="J31" s="37">
+        <v>0</v>
+      </c>
+      <c r="K31" s="37">
+        <v>0</v>
+      </c>
+      <c r="L31" s="37">
+        <v>0</v>
+      </c>
+      <c r="M31" s="37">
+        <v>0</v>
+      </c>
+      <c r="N31" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12410,22 +15680,22 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="37">
         <v>10</v>
       </c>
-      <c r="J32" s="38">
-        <v>0</v>
-      </c>
-      <c r="K32" s="38">
-        <v>0</v>
-      </c>
-      <c r="L32" s="38">
-        <v>0</v>
-      </c>
-      <c r="M32" s="38">
-        <v>0</v>
-      </c>
-      <c r="N32" s="40">
+      <c r="J32" s="37">
+        <v>0</v>
+      </c>
+      <c r="K32" s="37">
+        <v>0</v>
+      </c>
+      <c r="L32" s="37">
+        <v>0</v>
+      </c>
+      <c r="M32" s="37">
+        <v>0</v>
+      </c>
+      <c r="N32" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12451,22 +15721,22 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="37">
         <v>9</v>
       </c>
-      <c r="J33" s="38">
-        <v>0</v>
-      </c>
-      <c r="K33" s="38">
-        <v>0</v>
-      </c>
-      <c r="L33" s="38">
-        <v>0</v>
-      </c>
-      <c r="M33" s="38">
-        <v>0</v>
-      </c>
-      <c r="N33" s="40">
+      <c r="J33" s="37">
+        <v>0</v>
+      </c>
+      <c r="K33" s="37">
+        <v>0</v>
+      </c>
+      <c r="L33" s="37">
+        <v>0</v>
+      </c>
+      <c r="M33" s="37">
+        <v>0</v>
+      </c>
+      <c r="N33" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12492,22 +15762,22 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="37">
         <v>9</v>
       </c>
-      <c r="J34" s="38">
-        <v>0</v>
-      </c>
-      <c r="K34" s="38">
-        <v>0</v>
-      </c>
-      <c r="L34" s="38">
-        <v>0</v>
-      </c>
-      <c r="M34" s="38">
-        <v>0</v>
-      </c>
-      <c r="N34" s="40">
+      <c r="J34" s="37">
+        <v>0</v>
+      </c>
+      <c r="K34" s="37">
+        <v>0</v>
+      </c>
+      <c r="L34" s="37">
+        <v>0</v>
+      </c>
+      <c r="M34" s="37">
+        <v>0</v>
+      </c>
+      <c r="N34" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12533,22 +15803,22 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="37">
         <v>8</v>
       </c>
-      <c r="J35" s="38">
-        <v>0</v>
-      </c>
-      <c r="K35" s="38">
-        <v>0</v>
-      </c>
-      <c r="L35" s="38">
-        <v>0</v>
-      </c>
-      <c r="M35" s="38">
-        <v>0</v>
-      </c>
-      <c r="N35" s="40">
+      <c r="J35" s="37">
+        <v>0</v>
+      </c>
+      <c r="K35" s="37">
+        <v>0</v>
+      </c>
+      <c r="L35" s="37">
+        <v>0</v>
+      </c>
+      <c r="M35" s="37">
+        <v>0</v>
+      </c>
+      <c r="N35" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12574,22 +15844,22 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="37">
         <v>8</v>
       </c>
-      <c r="J36" s="38">
-        <v>0</v>
-      </c>
-      <c r="K36" s="38">
-        <v>0</v>
-      </c>
-      <c r="L36" s="38">
-        <v>0</v>
-      </c>
-      <c r="M36" s="38">
-        <v>0</v>
-      </c>
-      <c r="N36" s="40">
+      <c r="J36" s="37">
+        <v>0</v>
+      </c>
+      <c r="K36" s="37">
+        <v>0</v>
+      </c>
+      <c r="L36" s="37">
+        <v>0</v>
+      </c>
+      <c r="M36" s="37">
+        <v>0</v>
+      </c>
+      <c r="N36" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12615,32 +15885,54 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="37">
         <v>8</v>
       </c>
-      <c r="J37" s="38">
-        <v>0</v>
-      </c>
-      <c r="K37" s="38">
-        <v>0</v>
-      </c>
-      <c r="L37" s="38">
-        <v>0</v>
-      </c>
-      <c r="M37" s="38">
-        <v>0</v>
-      </c>
-      <c r="N37" s="40">
+      <c r="J37" s="37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="37">
+        <v>0</v>
+      </c>
+      <c r="N37" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="I38" s="39"/>
+      <c r="I38" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:N1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:G37">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:N37 B1:N1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="25"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I3:N37">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -12678,28 +15970,6 @@
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G37">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:N37 B1:N1">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="25"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFC000"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fitabase Data 3.12.16-4.11.16/TotalDailyActivitySummedUp_03_04_2016.xlsx
+++ b/Fitabase Data 3.12.16-4.11.16/TotalDailyActivitySummedUp_03_04_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palla\Desktop\GoogleDataAnalyticsCapstoneProject\BellaBeatsCaseStudy\Wearable-Fitness-Tracker-Feature-Analysis\Fitabase Data 3.12.16-4.11.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43C3B1F-CAD2-49F2-AD6A-73E5D5F47F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA825F-76F1-4978-A89E-66ED7617A201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,20 +18,15 @@
     <sheet name="FeatureByUserPlot" sheetId="3" r:id="rId3"/>
     <sheet name="HeatMapofFeatureUse" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">TotalDailyActivitySummedUp_03_0!$T$2:$W$16</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">TotalDailyActivitySummedUp_03_0!$X$2:$X$16</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">[1]TotalDailyActivitySummedUp_04_0!$T$2:$W$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">[1]TotalDailyActivitySummedUp_04_0!$X$2:$X$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">TotalDailyActivitySummedUp_03_0!$T$2:$W$16</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">TotalDailyActivitySummedUp_03_0!$X$2:$X$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">TotalDailyActivitySummedUp_03_0!$T$2:$W$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">TotalDailyActivitySummedUp_03_0!$X$2:$X$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="65">
   <si>
     <t>overall_Id</t>
   </si>
@@ -148,9 +143,6 @@
   </si>
   <si>
     <t>Number of Participants</t>
-  </si>
-  <si>
-    <t>LoggedDistance/SedentaryActivity</t>
   </si>
   <si>
     <t>Weight and/or Fat</t>
@@ -262,6 +254,12 @@
   </si>
   <si>
     <t>No HR</t>
+  </si>
+  <si>
+    <t>LoggedDistance</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
@@ -964,7 +962,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -980,9 +978,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1012,25 +1007,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1079,6 +1059,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1232,22 +1221,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19.247169358816695</c:v>
+                  <c:v>19.455495914034071</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.032338590610671</c:v>
+                  <c:v>25.13377762960188</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1820236338859456</c:v>
+                  <c:v>1.3438110096689604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2606306024385403</c:v>
+                  <c:v>1.0968855689978463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,7 +1306,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19.49517682590421</c:v>
+                  <c:v>19.467201161501386</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1402,13 +1391,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.48186563777195</c:v>
+                  <c:v>10.438663976002898</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0636208543078318</c:v>
+                  <c:v>2.3562248788808753</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1487,13 +1476,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.155936638908104</c:v>
+                  <c:v>12.190876595177983</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3036829001154406</c:v>
+                  <c:v>2.4329509052278948</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1572,19 +1561,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.472178671904151</c:v>
+                  <c:v>12.433984808916879</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.203596612178831</c:v>
+                  <c:v>29.38798278203253</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2092476918228923</c:v>
+                  <c:v>1.3848710923033867</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1657,16 +1646,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.369144064502589</c:v>
+                  <c:v>12.326433144127844</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2481832940323696</c:v>
+                  <c:v>1.4384969891538735</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.416248203476814</c:v>
+                  <c:v>12.014329208713148</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1746,16 +1735,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.284166656754939</c:v>
+                  <c:v>12.146040185986102</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.294702979104471</c:v>
+                  <c:v>32.203042257742332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3699662049881727</c:v>
+                  <c:v>1.2757783075858209</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1835,7 +1824,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.211310574580123</c:v>
+                  <c:v>12.399504918609043</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1924,22 +1913,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.234696497870107</c:v>
+                  <c:v>15.440403432466049</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.443738492866103</c:v>
+                  <c:v>25.465959874141269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.046706650840143</c:v>
+                  <c:v>14.43090633963976</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.178431050820296</c:v>
+                  <c:v>1.2894050626416573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2259586528067219</c:v>
+                  <c:v>1.0807709988498377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,7 +2002,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.411131895827944</c:v>
+                  <c:v>12.204207842167687</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2025,7 +2014,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2117286961976306</c:v>
+                  <c:v>2.2762921358846304</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2102,10 +2091,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.2729179359644842</c:v>
+                  <c:v>8.134053000614232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3421362326316304</c:v>
+                  <c:v>3.0907289987370099</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -2114,7 +2103,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3173051466506533</c:v>
+                  <c:v>1.0128210344045667</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2191,7 +2180,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.103467175947319</c:v>
+                  <c:v>10.473302975129036</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2282,13 +2271,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.299696175894569</c:v>
+                  <c:v>12.462262352466825</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.016459151208682</c:v>
+                  <c:v>15.370623123654068</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -2373,16 +2362,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.010113540992648</c:v>
+                  <c:v>32.354994539547192</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.405930757879224</c:v>
+                  <c:v>15.189140568865552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.244390856139086</c:v>
+                  <c:v>12.401852674044264</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -2464,10 +2453,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.454617478357321</c:v>
+                  <c:v>32.025540301274177</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3472336888494416</c:v>
+                  <c:v>1.4272716943135224</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -2555,13 +2544,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.341641339459851</c:v>
+                  <c:v>12.148319541334244</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.335358038734995</c:v>
+                  <c:v>23.435128228557318</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -2646,7 +2635,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.0749783920806308</c:v>
+                  <c:v>8.2228646170230526</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2737,19 +2726,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.279215782658799</c:v>
+                  <c:v>15.183428759007127</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.067089235248325</c:v>
+                  <c:v>26.175314996010027</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4434335833779912</c:v>
+                  <c:v>1.3097090654304875</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2826,19 +2815,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.323029350056908</c:v>
+                  <c:v>12.290374017312802</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2938624512646162</c:v>
+                  <c:v>2.2249241440837837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.27011144268371</c:v>
+                  <c:v>12.355665130628971</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0743908740049626</c:v>
+                  <c:v>1.2508138388805052</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2915,19 +2904,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.253934323189103</c:v>
+                  <c:v>15.081270510112406</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.447649633044861</c:v>
+                  <c:v>28.165717402674293</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4090624819302762</c:v>
+                  <c:v>1.0641847109522033</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -3004,16 +2993,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.350778531523307</c:v>
+                  <c:v>12.098146385080369</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.28855158757213</c:v>
+                  <c:v>25.068695453191395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.277016309607074</c:v>
+                  <c:v>12.123798246470876</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3093,16 +3082,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.383008514422963</c:v>
+                  <c:v>11.224412094147475</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.411035613352368</c:v>
+                  <c:v>30.436817108534015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.249224221382645</c:v>
+                  <c:v>11.044520254506647</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3182,16 +3171,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.106004189697748</c:v>
+                  <c:v>10.014794027689847</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.103458693817849</c:v>
+                  <c:v>23.254155731641831</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0387900505655541</c:v>
+                  <c:v>8.317112260688706</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3271,7 +3260,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.485587286722524</c:v>
+                  <c:v>10.411367287216295</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -3362,16 +3351,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.0733109754000623</c:v>
+                  <c:v>9.033426190925578</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2442800867812553</c:v>
+                  <c:v>2.2370470582154507</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4509782680334364</c:v>
+                  <c:v>3.1822217832764506</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3453,16 +3442,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.0510877134709293</c:v>
+                  <c:v>9.0337286579567522</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.226814767184422</c:v>
+                  <c:v>13.451481450608959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2186388690003938</c:v>
+                  <c:v>8.4239589332042062</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3544,19 +3533,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.375167617433233</c:v>
+                  <c:v>14.283464968686408</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4351759656815997</c:v>
+                  <c:v>4.3319521487011503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.129906948483022</c:v>
+                  <c:v>24.085237336535013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.272341203201298</c:v>
+                  <c:v>14.358334738517065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.065511457089153</c:v>
+                  <c:v>14.432009834850293</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -3635,16 +3624,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.458107926972426</c:v>
+                  <c:v>12.184771051203708</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4195171719047401</c:v>
+                  <c:v>7.2635048700354998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2683211648418613</c:v>
+                  <c:v>8.0881793175382413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.288039671101238</c:v>
+                  <c:v>12.139501211567573</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3726,13 +3715,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.483224673499917</c:v>
+                  <c:v>12.143946299483918</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.14654855519559</c:v>
+                  <c:v>21.16209168225895</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -3817,13 +3806,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.227083569746343</c:v>
+                  <c:v>11.486481360808261</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0221915446617902</c:v>
+                  <c:v>1.0095207771262831</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -3906,7 +3895,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.230184409165206</c:v>
+                  <c:v>12.314649643581358</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -3918,7 +3907,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3181002326175439</c:v>
+                  <c:v>1.0026930567073711</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -3995,13 +3984,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.43225809250551</c:v>
+                  <c:v>12.412169086509548</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3958040735916377</c:v>
+                  <c:v>7.3881912061542376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.039010731582806</c:v>
+                  <c:v>30.058740952991894</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -4084,7 +4073,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.1744269731766401</c:v>
+                  <c:v>8.3723052392104602</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -4173,16 +4162,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.390863026708216</c:v>
+                  <c:v>12.265617914772935</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.036149161788895</c:v>
+                  <c:v>12.238012210782347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.34847347327441</c:v>
+                  <c:v>12.160959172672438</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -4262,7 +4251,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.318116425493528</c:v>
+                  <c:v>12.205818354185482</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -4271,10 +4260,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.462879201737108</c:v>
+                  <c:v>12.054581280449868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4415804036696667</c:v>
+                  <c:v>9.0684208017572843</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -4402,7 +4391,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Number of times a metric was logged</a:t>
+                  <a:t>Number of logs</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5660,7 +5649,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Number of times a feature was logged</a:t>
+                  <a:t>Number of log</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5818,10 +5807,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5851,9 +5840,7 @@
         <cx:series layoutId="sunburst" uniqueId="{237F9C80-3E96-4EC6-883A-CAFF85C78DC7}">
           <cx:spPr>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="4472C4"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
           </cx:spPr>
           <cx:dataPt idx="1">
@@ -5886,11 +5873,6 @@
                   <a:lumMod val="50000"/>
                 </a:sysClr>
               </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="4472C4"/>
-                </a:solidFill>
-              </a:ln>
             </cx:spPr>
           </cx:dataPt>
           <cx:dataPt idx="6">
@@ -5917,11 +5899,6 @@
                   <a:lumMod val="50000"/>
                 </a:sysClr>
               </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="4472C4"/>
-                </a:solidFill>
-              </a:ln>
             </cx:spPr>
           </cx:dataPt>
           <cx:dataPt idx="9">
@@ -5956,11 +5933,6 @@
                   <a:lumMod val="50000"/>
                 </a:sysClr>
               </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-              </a:ln>
             </cx:spPr>
           </cx:dataPt>
           <cx:dataPt idx="14">
@@ -6008,11 +5980,6 @@
               <a:solidFill>
                 <a:srgbClr val="E26714"/>
               </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="4472C4"/>
-                </a:solidFill>
-              </a:ln>
             </cx:spPr>
           </cx:dataPt>
           <cx:dataPt idx="21">
@@ -6114,11 +6081,6 @@
                   <a:lumMod val="50000"/>
                 </a:sysClr>
               </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="4472C4"/>
-                </a:solidFill>
-              </a:ln>
             </cx:spPr>
           </cx:dataPt>
           <cx:dataPt idx="42">
@@ -6133,11 +6095,6 @@
               <a:solidFill>
                 <a:srgbClr val="E26714"/>
               </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="4472C4"/>
-                </a:solidFill>
-              </a:ln>
             </cx:spPr>
           </cx:dataPt>
           <cx:dataPt idx="45">
@@ -7962,8 +7919,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14373017" y="4853259"/>
-              <a:ext cx="14030634" cy="12644519"/>
+              <a:off x="14419384" y="4890149"/>
+              <a:ext cx="14034662" cy="12686853"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8075,1433 +8032,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="PivotTable"/>
-      <sheetName val="TotalDailyActivitySummedUp_04_0"/>
-      <sheetName val="FeaturesByUserPlot"/>
-      <sheetName val="HeatMapOfFeatureUse"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="T2" t="str">
-            <v xml:space="preserve">Activity </v>
-          </cell>
-          <cell r="U2" t="str">
-            <v>No SL or HR or Wt</v>
-          </cell>
-          <cell r="V2" t="str">
-            <v>No HR</v>
-          </cell>
-          <cell r="X2">
-            <v>0.18181818181818182</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="W3" t="str">
-            <v>ManualWeight</v>
-          </cell>
-          <cell r="X3">
-            <v>3.0303030303030304E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="V4" t="str">
-            <v>Heart Rate</v>
-          </cell>
-          <cell r="X4">
-            <v>3.0303030303030304E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="W5" t="str">
-            <v>ManualWeight</v>
-          </cell>
-          <cell r="X5">
-            <v>3.0303030303030304E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="U6" t="str">
-            <v>Sleep</v>
-          </cell>
-          <cell r="V6" t="str">
-            <v>No HR</v>
-          </cell>
-          <cell r="X6">
-            <v>0.24242424242424243</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="W7" t="str">
-            <v>ManualWeight</v>
-          </cell>
-          <cell r="X7">
-            <v>3.0303030303030304E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="W8" t="str">
-            <v>ManualWeight+Fat</v>
-          </cell>
-          <cell r="X8">
-            <v>6.0606060606060608E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="V9" t="str">
-            <v>Heart Rate</v>
-          </cell>
-          <cell r="X9">
-            <v>0.21212121212121213</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="W10" t="str">
-            <v>ManualWeight</v>
-          </cell>
-          <cell r="X10">
-            <v>6.0606060606060608E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="T11" t="str">
-            <v>Activity + LoggedActivityDistance</v>
-          </cell>
-          <cell r="U11" t="str">
-            <v>Sleep</v>
-          </cell>
-          <cell r="V11" t="str">
-            <v>No HR</v>
-          </cell>
-          <cell r="X11">
-            <v>3.0303030303030304E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="V12" t="str">
-            <v>Heart Rate</v>
-          </cell>
-          <cell r="X12">
-            <v>6.0606060606060608E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="W13" t="str">
-            <v>ManualWeight</v>
-          </cell>
-          <cell r="X13">
-            <v>3.0303030303030304E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>Activity</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Logged Activities Ditance</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Sleep</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Heart Rate</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>Weight (manual)</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>Fat</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>Activity</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>Logged Activities Ditance</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>Sleep</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>Heart Rate</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>Weight (manual)</v>
-          </cell>
-          <cell r="N2" t="str">
-            <v>Fat</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>31</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>25</v>
-          </cell>
-          <cell r="E3">
-            <v>0</v>
-          </cell>
-          <cell r="F3">
-            <v>2</v>
-          </cell>
-          <cell r="G3">
-            <v>1</v>
-          </cell>
-          <cell r="I3">
-            <v>31.141845370013847</v>
-          </cell>
-          <cell r="J3" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K3">
-            <v>25.226299884877363</v>
-          </cell>
-          <cell r="L3" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M3">
-            <v>2.1995874359887235</v>
-          </cell>
-          <cell r="N3">
-            <v>1.0768773985750464</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>31</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="E4">
-            <v>0</v>
-          </cell>
-          <cell r="F4">
-            <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-          <cell r="I4">
-            <v>31.010916112562779</v>
-          </cell>
-          <cell r="J4" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K4" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L4" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M4" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N4" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>30</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>4</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
-          </cell>
-          <cell r="F5">
-            <v>0</v>
-          </cell>
-          <cell r="G5">
-            <v>0</v>
-          </cell>
-          <cell r="I5">
-            <v>30.219914285719309</v>
-          </cell>
-          <cell r="J5" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K5">
-            <v>4.2770985305835012</v>
-          </cell>
-          <cell r="L5" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M5" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N5" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>31</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>3</v>
-          </cell>
-          <cell r="E6">
-            <v>0</v>
-          </cell>
-          <cell r="F6">
-            <v>0</v>
-          </cell>
-          <cell r="G6">
-            <v>0</v>
-          </cell>
-          <cell r="I6">
-            <v>31.122914399677267</v>
-          </cell>
-          <cell r="J6" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K6">
-            <v>3.1681629327960339</v>
-          </cell>
-          <cell r="L6" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M6" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N6" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>31</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>5</v>
-          </cell>
-          <cell r="E7">
-            <v>0</v>
-          </cell>
-          <cell r="F7">
-            <v>1</v>
-          </cell>
-          <cell r="G7">
-            <v>0</v>
-          </cell>
-          <cell r="I7">
-            <v>31.080381654476998</v>
-          </cell>
-          <cell r="J7" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K7">
-            <v>5.4671592563061537</v>
-          </cell>
-          <cell r="L7" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M7">
-            <v>1.1428261152385615</v>
-          </cell>
-          <cell r="N7" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>31</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>31</v>
-          </cell>
-          <cell r="F8">
-            <v>0</v>
-          </cell>
-          <cell r="G8">
-            <v>0</v>
-          </cell>
-          <cell r="I8">
-            <v>31.227731508659591</v>
-          </cell>
-          <cell r="J8" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K8" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L8">
-            <v>31.171674657147687</v>
-          </cell>
-          <cell r="M8" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N8" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>31</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-          <cell r="D9">
-            <v>28</v>
-          </cell>
-          <cell r="E9">
-            <v>4</v>
-          </cell>
-          <cell r="F9">
-            <v>0</v>
-          </cell>
-          <cell r="G9">
-            <v>0</v>
-          </cell>
-          <cell r="I9">
-            <v>31.217597279626908</v>
-          </cell>
-          <cell r="J9" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K9">
-            <v>28.33898884309302</v>
-          </cell>
-          <cell r="L9">
-            <v>4.1756523344226544</v>
-          </cell>
-          <cell r="M9" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N9" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>31</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>1</v>
-          </cell>
-          <cell r="E10">
-            <v>0</v>
-          </cell>
-          <cell r="F10">
-            <v>0</v>
-          </cell>
-          <cell r="G10">
-            <v>0</v>
-          </cell>
-          <cell r="I10">
-            <v>31.394637805286077</v>
-          </cell>
-          <cell r="J10" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K10">
-            <v>1.0131921668213377</v>
-          </cell>
-          <cell r="L10" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M10" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N10" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>18</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>15</v>
-          </cell>
-          <cell r="E11">
-            <v>18</v>
-          </cell>
-          <cell r="F11">
-            <v>0</v>
-          </cell>
-          <cell r="G11">
-            <v>0</v>
-          </cell>
-          <cell r="I11">
-            <v>18.443353326790611</v>
-          </cell>
-          <cell r="J11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K11">
-            <v>15.374110277601725</v>
-          </cell>
-          <cell r="L11">
-            <v>18.498012760949393</v>
-          </cell>
-          <cell r="M11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N11" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>31</v>
-          </cell>
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-          <cell r="E12">
-            <v>0</v>
-          </cell>
-          <cell r="F12">
-            <v>2</v>
-          </cell>
-          <cell r="G12">
-            <v>0</v>
-          </cell>
-          <cell r="I12">
-            <v>31.096683661286413</v>
-          </cell>
-          <cell r="J12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M12">
-            <v>2.0305752454142802</v>
-          </cell>
-          <cell r="N12" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>20</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-          <cell r="E13">
-            <v>0</v>
-          </cell>
-          <cell r="F13">
-            <v>0</v>
-          </cell>
-          <cell r="G13">
-            <v>0</v>
-          </cell>
-          <cell r="I13">
-            <v>20.375512830735921</v>
-          </cell>
-          <cell r="J13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N13" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>30</v>
-          </cell>
-          <cell r="C14">
-            <v>0</v>
-          </cell>
-          <cell r="D14">
-            <v>28</v>
-          </cell>
-          <cell r="E14">
-            <v>0</v>
-          </cell>
-          <cell r="F14">
-            <v>0</v>
-          </cell>
-          <cell r="G14">
-            <v>0</v>
-          </cell>
-          <cell r="I14">
-            <v>30.195308793482923</v>
-          </cell>
-          <cell r="J14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K14">
-            <v>28.215953582870629</v>
-          </cell>
-          <cell r="L14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N14" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>31</v>
-          </cell>
-          <cell r="C15">
-            <v>0</v>
-          </cell>
-          <cell r="D15">
-            <v>8</v>
-          </cell>
-          <cell r="E15">
-            <v>16</v>
-          </cell>
-          <cell r="F15">
-            <v>0</v>
-          </cell>
-          <cell r="G15">
-            <v>0</v>
-          </cell>
-          <cell r="I15">
-            <v>31.105591703766283</v>
-          </cell>
-          <cell r="J15" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K15">
-            <v>8.122727793194187</v>
-          </cell>
-          <cell r="L15">
-            <v>16.126082488973768</v>
-          </cell>
-          <cell r="M15" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N15" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>4</v>
-          </cell>
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-          <cell r="E16">
-            <v>0</v>
-          </cell>
-          <cell r="F16">
-            <v>0</v>
-          </cell>
-          <cell r="G16">
-            <v>0</v>
-          </cell>
-          <cell r="I16">
-            <v>4.2538989929201385</v>
-          </cell>
-          <cell r="J16" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K16" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L16" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M16" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N16" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>31</v>
-          </cell>
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-          <cell r="D17">
-            <v>26</v>
-          </cell>
-          <cell r="E17">
-            <v>0</v>
-          </cell>
-          <cell r="F17">
-            <v>2</v>
-          </cell>
-          <cell r="G17">
-            <v>1</v>
-          </cell>
-          <cell r="I17">
-            <v>31.282943469125495</v>
-          </cell>
-          <cell r="J17" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K17">
-            <v>26.061183535357593</v>
-          </cell>
-          <cell r="L17" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M17">
-            <v>2.2789289269254565</v>
-          </cell>
-          <cell r="N17">
-            <v>1.423090544176306</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>31</v>
-          </cell>
-          <cell r="C18">
-            <v>0</v>
-          </cell>
-          <cell r="D18">
-            <v>23</v>
-          </cell>
-          <cell r="E18">
-            <v>30</v>
-          </cell>
-          <cell r="F18">
-            <v>0</v>
-          </cell>
-          <cell r="G18">
-            <v>0</v>
-          </cell>
-          <cell r="I18">
-            <v>31.062343633714136</v>
-          </cell>
-          <cell r="J18" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K18">
-            <v>23.073738847020234</v>
-          </cell>
-          <cell r="L18">
-            <v>30.333636877507555</v>
-          </cell>
-          <cell r="M18" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N18" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>31</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-          <cell r="D19">
-            <v>28</v>
-          </cell>
-          <cell r="E19">
-            <v>0</v>
-          </cell>
-          <cell r="F19">
-            <v>0</v>
-          </cell>
-          <cell r="G19">
-            <v>0</v>
-          </cell>
-          <cell r="I19">
-            <v>31.366346520051501</v>
-          </cell>
-          <cell r="J19" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K19">
-            <v>28.230455396273115</v>
-          </cell>
-          <cell r="L19" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M19" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N19" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>31</v>
-          </cell>
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-          <cell r="D20">
-            <v>5</v>
-          </cell>
-          <cell r="E20">
-            <v>31</v>
-          </cell>
-          <cell r="F20">
-            <v>5</v>
-          </cell>
-          <cell r="G20">
-            <v>0</v>
-          </cell>
-          <cell r="I20">
-            <v>31.441894091948051</v>
-          </cell>
-          <cell r="J20" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K20">
-            <v>5.3946239976748815</v>
-          </cell>
-          <cell r="L20">
-            <v>31.176211071473698</v>
-          </cell>
-          <cell r="M20">
-            <v>5.270832484498138</v>
-          </cell>
-          <cell r="N20" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>31</v>
-          </cell>
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-          <cell r="D21">
-            <v>27</v>
-          </cell>
-          <cell r="E21">
-            <v>0</v>
-          </cell>
-          <cell r="F21">
-            <v>0</v>
-          </cell>
-          <cell r="G21">
-            <v>0</v>
-          </cell>
-          <cell r="I21">
-            <v>31.179568639697056</v>
-          </cell>
-          <cell r="J21" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K21">
-            <v>27.208038646814511</v>
-          </cell>
-          <cell r="L21" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M21" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N21" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>31</v>
-          </cell>
-          <cell r="C22">
-            <v>0</v>
-          </cell>
-          <cell r="D22">
-            <v>31</v>
-          </cell>
-          <cell r="E22">
-            <v>31</v>
-          </cell>
-          <cell r="F22">
-            <v>0</v>
-          </cell>
-          <cell r="G22">
-            <v>0</v>
-          </cell>
-          <cell r="I22">
-            <v>31.379538812205553</v>
-          </cell>
-          <cell r="J22" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K22">
-            <v>31.122928502755762</v>
-          </cell>
-          <cell r="L22">
-            <v>31.067224308873893</v>
-          </cell>
-          <cell r="M22" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N22" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>30</v>
-          </cell>
-          <cell r="C23">
-            <v>0</v>
-          </cell>
-          <cell r="D23">
-            <v>26</v>
-          </cell>
-          <cell r="E23">
-            <v>28</v>
-          </cell>
-          <cell r="F23">
-            <v>1</v>
-          </cell>
-          <cell r="G23">
-            <v>0</v>
-          </cell>
-          <cell r="I23">
-            <v>30.276156990293156</v>
-          </cell>
-          <cell r="J23" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K23">
-            <v>26.265007310783048</v>
-          </cell>
-          <cell r="L23">
-            <v>28.321670916707454</v>
-          </cell>
-          <cell r="M23">
-            <v>1.2648112532817637</v>
-          </cell>
-          <cell r="N23" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>28</v>
-          </cell>
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-          <cell r="D24">
-            <v>18</v>
-          </cell>
-          <cell r="E24">
-            <v>23</v>
-          </cell>
-          <cell r="F24">
-            <v>0</v>
-          </cell>
-          <cell r="G24">
-            <v>0</v>
-          </cell>
-          <cell r="I24">
-            <v>28.095248415612449</v>
-          </cell>
-          <cell r="J24" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K24">
-            <v>18.187779746863903</v>
-          </cell>
-          <cell r="L24">
-            <v>23.316098886392474</v>
-          </cell>
-          <cell r="M24" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N24" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>29</v>
-          </cell>
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-          <cell r="D25">
-            <v>0</v>
-          </cell>
-          <cell r="E25">
-            <v>0</v>
-          </cell>
-          <cell r="F25">
-            <v>0</v>
-          </cell>
-          <cell r="G25">
-            <v>0</v>
-          </cell>
-          <cell r="I25">
-            <v>29.252718624114685</v>
-          </cell>
-          <cell r="J25" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K25" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L25" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M25" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N25" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>26</v>
-          </cell>
-          <cell r="C26">
-            <v>1</v>
-          </cell>
-          <cell r="D26">
-            <v>3</v>
-          </cell>
-          <cell r="E26">
-            <v>18</v>
-          </cell>
-          <cell r="F26">
-            <v>0</v>
-          </cell>
-          <cell r="G26">
-            <v>0</v>
-          </cell>
-          <cell r="I26">
-            <v>26.107630447158154</v>
-          </cell>
-          <cell r="J26">
-            <v>1.1277349147307096</v>
-          </cell>
-          <cell r="K26">
-            <v>3.0869978863657908</v>
-          </cell>
-          <cell r="L26">
-            <v>18.202917762528728</v>
-          </cell>
-          <cell r="M26" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N26" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>31</v>
-          </cell>
-          <cell r="C27">
-            <v>3</v>
-          </cell>
-          <cell r="D27">
-            <v>31</v>
-          </cell>
-          <cell r="E27">
-            <v>31</v>
-          </cell>
-          <cell r="F27">
-            <v>30</v>
-          </cell>
-          <cell r="G27">
-            <v>0</v>
-          </cell>
-          <cell r="I27">
-            <v>31.089701100701436</v>
-          </cell>
-          <cell r="J27">
-            <v>3.2752118940928288</v>
-          </cell>
-          <cell r="K27">
-            <v>31.158005188232096</v>
-          </cell>
-          <cell r="L27">
-            <v>31.419384518926964</v>
-          </cell>
-          <cell r="M27">
-            <v>30.05585340245894</v>
-          </cell>
-          <cell r="N27" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>26</v>
-          </cell>
-          <cell r="C28">
-            <v>12</v>
-          </cell>
-          <cell r="D28">
-            <v>2</v>
-          </cell>
-          <cell r="E28">
-            <v>24</v>
-          </cell>
-          <cell r="F28">
-            <v>0</v>
-          </cell>
-          <cell r="G28">
-            <v>0</v>
-          </cell>
-          <cell r="I28">
-            <v>26.05767616574154</v>
-          </cell>
-          <cell r="J28">
-            <v>12.234275968647996</v>
-          </cell>
-          <cell r="K28">
-            <v>2.0813667644069778</v>
-          </cell>
-          <cell r="L28">
-            <v>24.273294712571662</v>
-          </cell>
-          <cell r="M28" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N28" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>31</v>
-          </cell>
-          <cell r="C29">
-            <v>0</v>
-          </cell>
-          <cell r="D29">
-            <v>24</v>
-          </cell>
-          <cell r="E29">
-            <v>0</v>
-          </cell>
-          <cell r="F29">
-            <v>0</v>
-          </cell>
-          <cell r="G29">
-            <v>0</v>
-          </cell>
-          <cell r="I29">
-            <v>31.06609340414084</v>
-          </cell>
-          <cell r="J29" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K29">
-            <v>24.31526854394809</v>
-          </cell>
-          <cell r="L29" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M29" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N29" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>31</v>
-          </cell>
-          <cell r="C30">
-            <v>0</v>
-          </cell>
-          <cell r="D30">
-            <v>3</v>
-          </cell>
-          <cell r="E30">
-            <v>0</v>
-          </cell>
-          <cell r="F30">
-            <v>0</v>
-          </cell>
-          <cell r="G30">
-            <v>0</v>
-          </cell>
-          <cell r="I30">
-            <v>31.134345174930449</v>
-          </cell>
-          <cell r="J30" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K30">
-            <v>3.3278329149042118</v>
-          </cell>
-          <cell r="L30" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M30" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N30" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>19</v>
-          </cell>
-          <cell r="C31">
-            <v>0</v>
-          </cell>
-          <cell r="D31">
-            <v>0</v>
-          </cell>
-          <cell r="E31">
-            <v>0</v>
-          </cell>
-          <cell r="F31">
-            <v>0</v>
-          </cell>
-          <cell r="G31">
-            <v>0</v>
-          </cell>
-          <cell r="I31">
-            <v>19.263000626630298</v>
-          </cell>
-          <cell r="J31" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K31" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L31" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M31" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N31" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>31</v>
-          </cell>
-          <cell r="C32">
-            <v>16</v>
-          </cell>
-          <cell r="D32">
-            <v>31</v>
-          </cell>
-          <cell r="E32">
-            <v>0</v>
-          </cell>
-          <cell r="F32">
-            <v>0</v>
-          </cell>
-          <cell r="G32">
-            <v>0</v>
-          </cell>
-          <cell r="I32">
-            <v>31.320866762739225</v>
-          </cell>
-          <cell r="J32">
-            <v>16.079751140818246</v>
-          </cell>
-          <cell r="K32">
-            <v>31.43979866662389</v>
-          </cell>
-          <cell r="L32" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M32" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N32" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>31</v>
-          </cell>
-          <cell r="C33">
-            <v>0</v>
-          </cell>
-          <cell r="D33">
-            <v>0</v>
-          </cell>
-          <cell r="E33">
-            <v>0</v>
-          </cell>
-          <cell r="F33">
-            <v>0</v>
-          </cell>
-          <cell r="G33">
-            <v>0</v>
-          </cell>
-          <cell r="I33">
-            <v>31.227484754792346</v>
-          </cell>
-          <cell r="J33" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K33" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L33" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M33" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N33" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>29</v>
-          </cell>
-          <cell r="C34">
-            <v>0</v>
-          </cell>
-          <cell r="D34">
-            <v>15</v>
-          </cell>
-          <cell r="E34">
-            <v>18</v>
-          </cell>
-          <cell r="F34">
-            <v>0</v>
-          </cell>
-          <cell r="G34">
-            <v>0</v>
-          </cell>
-          <cell r="I34">
-            <v>29.021498214214546</v>
-          </cell>
-          <cell r="J34" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K34">
-            <v>15.262050671345152</v>
-          </cell>
-          <cell r="L34">
-            <v>18.246016439835689</v>
-          </cell>
-          <cell r="M34" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N34" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>31</v>
-          </cell>
-          <cell r="C35">
-            <v>0</v>
-          </cell>
-          <cell r="D35">
-            <v>0</v>
-          </cell>
-          <cell r="E35">
-            <v>31</v>
-          </cell>
-          <cell r="F35">
-            <v>24</v>
-          </cell>
-          <cell r="G35">
-            <v>0</v>
-          </cell>
-          <cell r="I35">
-            <v>31.27386217006736</v>
-          </cell>
-          <cell r="J35" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K35" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L35">
-            <v>31.318482814357143</v>
-          </cell>
-          <cell r="M35">
-            <v>24.109292959259442</v>
-          </cell>
-          <cell r="N35" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9691,7 +8221,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable28" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable28" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -10147,7 +8677,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -10155,7 +8685,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -10163,7 +8693,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -10171,7 +8701,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -10179,7 +8709,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -10187,7 +8717,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -10195,7 +8725,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -10203,7 +8733,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -10211,7 +8741,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -10219,7 +8749,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -10227,7 +8757,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -10235,7 +8765,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -10243,7 +8773,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -10251,7 +8781,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -10259,7 +8789,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -10282,8 +8812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO36"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="32" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AH67" sqref="AH67"/>
+    <sheetView topLeftCell="J1" zoomScale="26" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10293,12 +8823,14 @@
     <col min="18" max="18" width="54.29296875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.29296875" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5859375" style="3" customWidth="1"/>
-    <col min="25" max="25" width="11.29296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.64453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.9375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.05859375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.76171875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="37.05859375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.05859375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="43.9375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.76171875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.17578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="19.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10354,27 +8886,29 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="25"/>
+      <c r="W1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>64</v>
+      </c>
       <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" t="s">
         <v>36</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>37</v>
       </c>
       <c r="AI1" s="2"/>
       <c r="AN1" s="2"/>
@@ -10433,32 +8967,32 @@
         <f t="array" ref="R2">CONCATENATE(_xlfn.SWITCH(B2,0,"_","A_"),_xlfn.SWITCH(C2,0,"_","Lad_"),_xlfn.SWITCH(E2,0,"_","Sl_"),_xlfn.SWITCH(F2,0,"_","Hr_"),_xlfn.SWITCH(G2,0,"_","Wt_"),_xlfn.SWITCH(H2,0,"_","M_"),_xlfn.SWITCH(I2,0,"_","F"))</f>
         <v>A__Sl__Wt_M_F</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="27" t="s">
-        <v>63</v>
-      </c>
       <c r="W2" s="5"/>
-      <c r="X2" s="17">
-        <f t="shared" ref="X2:X16" si="0">Y2/$Z$17</f>
+      <c r="X2" s="6">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="37">
+        <f>X2/$X$17</f>
         <v>0.17142857142857143</v>
       </c>
-      <c r="Y2" s="6">
-        <v>6</v>
-      </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="20">
+      <c r="AB2" s="16">
         <v>35</v>
       </c>
-      <c r="AC2" s="20"/>
+      <c r="AC2" s="16"/>
       <c r="AE2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF2">
         <v>35</v>
@@ -10520,37 +9054,37 @@
         <f t="array" ref="R3">CONCATENATE(_xlfn.SWITCH(B3,0,"_","A_"),_xlfn.SWITCH(C3,0,"_","Lad_"),_xlfn.SWITCH(E3,0,"_","Sl_"),_xlfn.SWITCH(F3,0,"_","Hr_"),_xlfn.SWITCH(G3,0,"_","Wt_"),_xlfn.SWITCH(H3,0,"_","M_"),_xlfn.SWITCH(I3,0,"_","F"))</f>
         <v>A_______</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" s="18">
-        <f t="shared" si="0"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="37">
+        <f t="shared" ref="Y3:Y16" si="0">X3/$X$17</f>
         <v>5.7142857142857141E-2</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>2</v>
       </c>
       <c r="AA3" t="s">
         <v>22</v>
       </c>
       <c r="AB3">
-        <f>SUM(Y2:Y16)</f>
+        <f>SUM(X2:X16)</f>
         <v>35</v>
       </c>
-      <c r="AC3" s="21">
+      <c r="AC3" s="17">
         <f>AB3/$AB$2</f>
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF3">
         <v>35</v>
       </c>
-      <c r="AG3" s="21">
+      <c r="AG3" s="17">
         <f>AF3/$AF$2</f>
         <v>1</v>
       </c>
@@ -10611,39 +9145,39 @@
         <f t="array" ref="R4">CONCATENATE(_xlfn.SWITCH(B4,0,"_","A_"),_xlfn.SWITCH(C4,0,"_","Lad_"),_xlfn.SWITCH(E4,0,"_","Sl_"),_xlfn.SWITCH(F4,0,"_","Hr_"),_xlfn.SWITCH(G4,0,"_","Wt_"),_xlfn.SWITCH(H4,0,"_","M_"),_xlfn.SWITCH(I4,0,"_","F"))</f>
         <v>A__Sl_____</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="29" t="s">
+      <c r="T4" s="14"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" s="22">
+      <c r="W4" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="37">
         <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y4" s="31">
-        <v>1</v>
-      </c>
       <c r="AA4" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="AB4">
-        <f>SUM(Y9:Y16)</f>
-        <v>8</v>
-      </c>
-      <c r="AC4" s="21">
+        <f>SUM(X11:X16)</f>
+        <v>6</v>
+      </c>
+      <c r="AC4" s="17">
         <f>AB4/$AB$2</f>
-        <v>0.22857142857142856</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="AE4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF4">
         <v>6</v>
       </c>
-      <c r="AG4" s="21">
+      <c r="AG4" s="17">
         <f t="shared" ref="AG4:AG9" si="1">AF4/$AF$2</f>
         <v>0.17142857142857143</v>
       </c>
@@ -10704,39 +9238,39 @@
         <f t="array" ref="R5">CONCATENATE(_xlfn.SWITCH(B5,0,"_","A_"),_xlfn.SWITCH(C5,0,"_","Lad_"),_xlfn.SWITCH(E5,0,"_","Sl_"),_xlfn.SWITCH(F5,0,"_","Hr_"),_xlfn.SWITCH(G5,0,"_","Wt_"),_xlfn.SWITCH(H5,0,"_","M_"),_xlfn.SWITCH(I5,0,"_","F"))</f>
         <v>A__Sl_____</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="11" t="s">
+      <c r="T5" s="14"/>
+      <c r="U5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="27" t="s">
-        <v>63</v>
+      <c r="V5" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="W5" s="5"/>
-      <c r="X5" s="17">
+      <c r="X5" s="6">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="37">
         <f t="shared" si="0"/>
         <v>0.17142857142857143</v>
       </c>
-      <c r="Y5" s="6">
-        <v>6</v>
-      </c>
       <c r="AA5" t="s">
         <v>23</v>
       </c>
       <c r="AB5">
-        <f>SUM(Y5:Y10,Y14:Y16)</f>
+        <f>SUM(X5:X10,X14:X16)</f>
         <v>23</v>
       </c>
-      <c r="AC5" s="21">
+      <c r="AC5" s="17">
         <f>AB5/$AB$2</f>
         <v>0.65714285714285714</v>
       </c>
       <c r="AE5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF5">
         <v>11</v>
       </c>
-      <c r="AG5" s="21">
+      <c r="AG5" s="17">
         <f t="shared" si="1"/>
         <v>0.31428571428571428</v>
       </c>
@@ -10797,37 +9331,37 @@
         <f t="array" ref="R6">CONCATENATE(_xlfn.SWITCH(B6,0,"_","A_"),_xlfn.SWITCH(C6,0,"_","Lad_"),_xlfn.SWITCH(E6,0,"_","Sl_"),_xlfn.SWITCH(F6,0,"_","Hr_"),_xlfn.SWITCH(G6,0,"_","Wt_"),_xlfn.SWITCH(H6,0,"_","M_"),_xlfn.SWITCH(I6,0,"_","F"))</f>
         <v>A__Sl__Wt_M__</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="X6" s="18">
+      <c r="T6" s="14"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="37">
         <f t="shared" si="0"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="Y6" s="8">
-        <v>3</v>
-      </c>
       <c r="AA6" t="s">
         <v>24</v>
       </c>
       <c r="AB6">
-        <f>SUM(Y4,Y8,Y9,Y10,Y13,Y15:Y16)</f>
+        <f>SUM(X4,X8:X10,X13,X15:X16)</f>
         <v>14</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="17">
         <f>AB6/$AB$2</f>
         <v>0.4</v>
       </c>
       <c r="AE6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF6">
         <v>23</v>
       </c>
-      <c r="AG6" s="21">
+      <c r="AG6" s="17">
         <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
@@ -10888,37 +9422,37 @@
         <f t="array" ref="R7">CONCATENATE(_xlfn.SWITCH(B7,0,"_","A_"),_xlfn.SWITCH(C7,0,"_","Lad_"),_xlfn.SWITCH(E7,0,"_","Sl_"),_xlfn.SWITCH(F7,0,"_","Hr_"),_xlfn.SWITCH(G7,0,"_","Wt_"),_xlfn.SWITCH(H7,0,"_","M_"),_xlfn.SWITCH(I7,0,"_","F"))</f>
         <v>A__Sl_Hr____</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7" s="23">
+      <c r="T7" s="14"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="37">
         <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y7" s="34">
-        <v>1</v>
-      </c>
       <c r="AA7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB7">
-        <f>SUM(Y3:Y4,Y6:Y7,Y9:Y10,Y12,Y16)</f>
+        <f>SUM(X3:X4,X6:X7,X9:X10,X12,X16)</f>
         <v>11</v>
       </c>
-      <c r="AC7" s="21">
+      <c r="AC7" s="17">
         <f>AB7/$AB$2</f>
         <v>0.31428571428571428</v>
       </c>
       <c r="AE7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF7">
         <v>14</v>
       </c>
-      <c r="AG7" s="21">
+      <c r="AG7" s="17">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
@@ -10979,26 +9513,26 @@
         <f t="array" ref="R8">CONCATENATE(_xlfn.SWITCH(B8,0,"_","A_"),_xlfn.SWITCH(C8,0,"_","Lad_"),_xlfn.SWITCH(E8,0,"_","Sl_"),_xlfn.SWITCH(F8,0,"_","Hr_"),_xlfn.SWITCH(G8,0,"_","Wt_"),_xlfn.SWITCH(H8,0,"_","M_"),_xlfn.SWITCH(I8,0,"_","F"))</f>
         <v>A__Sl_Hr____</v>
       </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="29" t="s">
+      <c r="T8" s="14"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="30"/>
-      <c r="X8" s="22">
+      <c r="W8" s="24"/>
+      <c r="X8" s="25">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="37">
         <f t="shared" si="0"/>
         <v>0.22857142857142856</v>
       </c>
-      <c r="Y8" s="31">
-        <v>8</v>
-      </c>
       <c r="AE8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF8">
         <v>11</v>
       </c>
-      <c r="AG8" s="21">
+      <c r="AG8" s="17">
         <f t="shared" si="1"/>
         <v>0.31428571428571428</v>
       </c>
@@ -11059,26 +9593,26 @@
         <f t="array" ref="R9">CONCATENATE(_xlfn.SWITCH(B9,0,"_","A_"),_xlfn.SWITCH(C9,0,"_","Lad_"),_xlfn.SWITCH(E9,0,"_","Sl_"),_xlfn.SWITCH(F9,0,"_","Hr_"),_xlfn.SWITCH(G9,0,"_","Wt_"),_xlfn.SWITCH(H9,0,"_","M_"),_xlfn.SWITCH(I9,0,"_","F"))</f>
         <v>A_______</v>
       </c>
-      <c r="T9" s="15"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="X9" s="18">
+      <c r="T9" s="14"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="37">
         <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y9" s="8">
-        <v>1</v>
-      </c>
       <c r="AE9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF9">
         <v>11</v>
       </c>
-      <c r="AG9" s="21">
+      <c r="AG9" s="17">
         <f t="shared" si="1"/>
         <v>0.31428571428571428</v>
       </c>
@@ -11139,18 +9673,18 @@
         <f t="array" ref="R10">CONCATENATE(_xlfn.SWITCH(B10,0,"_","A_"),_xlfn.SWITCH(C10,0,"_","Lad_"),_xlfn.SWITCH(E10,0,"_","Sl_"),_xlfn.SWITCH(F10,0,"_","Hr_"),_xlfn.SWITCH(G10,0,"_","Wt_"),_xlfn.SWITCH(H10,0,"_","M_"),_xlfn.SWITCH(I10,0,"_","F"))</f>
         <v>A__Sl_Hr_Wt_M_F</v>
       </c>
-      <c r="T10" s="15"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="X10" s="19">
+      <c r="T10" s="14"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="X10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="37">
         <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="Y10" s="10">
-        <v>1</v>
       </c>
       <c r="AI10" s="2"/>
       <c r="AN10" s="2"/>
@@ -11209,22 +9743,22 @@
         <f t="array" ref="R11">CONCATENATE(_xlfn.SWITCH(B11,0,"_","A_"),_xlfn.SWITCH(C11,0,"_","Lad_"),_xlfn.SWITCH(E11,0,"_","Sl_"),_xlfn.SWITCH(F11,0,"_","Hr_"),_xlfn.SWITCH(G11,0,"_","Wt_"),_xlfn.SWITCH(H11,0,"_","M_"),_xlfn.SWITCH(I11,0,"_","F"))</f>
         <v>A____Wt_M__</v>
       </c>
-      <c r="T11" s="36" t="s">
+      <c r="T11" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="U11" s="27" t="s">
+      <c r="V11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="V11" s="27" t="s">
-        <v>63</v>
-      </c>
       <c r="W11" s="5"/>
-      <c r="X11" s="17">
+      <c r="X11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="37">
         <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>1</v>
       </c>
       <c r="AI11" s="2"/>
       <c r="AN11" s="2"/>
@@ -11283,18 +9817,18 @@
         <f t="array" ref="R12">CONCATENATE(_xlfn.SWITCH(B12,0,"_","A_"),_xlfn.SWITCH(C12,0,"_","Lad_"),_xlfn.SWITCH(E12,0,"_","Sl_"),_xlfn.SWITCH(F12,0,"_","Hr_"),_xlfn.SWITCH(G12,0,"_","Wt_"),_xlfn.SWITCH(H12,0,"_","M_"),_xlfn.SWITCH(I12,0,"_","F"))</f>
         <v>A_Lad___Wt_M__</v>
       </c>
-      <c r="T12" s="15"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="X12" s="18">
+      <c r="T12" s="14"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="X12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="37">
         <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>1</v>
       </c>
       <c r="AI12" s="2"/>
       <c r="AN12" s="2"/>
@@ -11353,18 +9887,18 @@
         <f t="array" ref="R13">CONCATENATE(_xlfn.SWITCH(B13,0,"_","A_"),_xlfn.SWITCH(C13,0,"_","Lad_"),_xlfn.SWITCH(E13,0,"_","Sl_"),_xlfn.SWITCH(F13,0,"_","Hr_"),_xlfn.SWITCH(G13,0,"_","Wt_"),_xlfn.SWITCH(H13,0,"_","M_"),_xlfn.SWITCH(I13,0,"_","F"))</f>
         <v>A_______</v>
       </c>
-      <c r="T13" s="15"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="29" t="s">
+      <c r="T13" s="14"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="W13" s="30"/>
-      <c r="X13" s="22">
+      <c r="W13" s="24"/>
+      <c r="X13" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="37">
         <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="Y13" s="31">
-        <v>1</v>
       </c>
       <c r="AI13" s="2"/>
       <c r="AN13" s="2"/>
@@ -11423,20 +9957,20 @@
         <f t="array" ref="R14">CONCATENATE(_xlfn.SWITCH(B14,0,"_","A_"),_xlfn.SWITCH(C14,0,"_","Lad_"),_xlfn.SWITCH(E14,0,"_","Sl_"),_xlfn.SWITCH(F14,0,"_","Hr_"),_xlfn.SWITCH(G14,0,"_","Wt_"),_xlfn.SWITCH(H14,0,"_","M_"),_xlfn.SWITCH(I14,0,"_","F"))</f>
         <v>A__Sl_____</v>
       </c>
-      <c r="T14" s="15"/>
-      <c r="U14" s="11" t="s">
+      <c r="T14" s="14"/>
+      <c r="U14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="V14" s="27" t="s">
-        <v>63</v>
+      <c r="V14" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="W14" s="5"/>
-      <c r="X14" s="17">
+      <c r="X14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="37">
         <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>1</v>
       </c>
       <c r="AI14" s="2"/>
       <c r="AN14" s="2"/>
@@ -11495,18 +10029,18 @@
         <f t="array" ref="R15">CONCATENATE(_xlfn.SWITCH(B15,0,"_","A_"),_xlfn.SWITCH(C15,0,"_","Lad_"),_xlfn.SWITCH(E15,0,"_","Sl_"),_xlfn.SWITCH(F15,0,"_","Hr_"),_xlfn.SWITCH(G15,0,"_","Wt_"),_xlfn.SWITCH(H15,0,"_","M_"),_xlfn.SWITCH(I15,0,"_","F"))</f>
         <v>A__Sl_Hr____</v>
       </c>
-      <c r="T15" s="15"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="29" t="s">
+      <c r="T15" s="14"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="30"/>
-      <c r="X15" s="22">
+      <c r="W15" s="24"/>
+      <c r="X15" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="37">
         <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="Y15" s="31">
-        <v>1</v>
       </c>
       <c r="AI15" s="2"/>
       <c r="AN15" s="2"/>
@@ -11565,21 +10099,21 @@
         <f t="array" ref="R16">CONCATENATE(_xlfn.SWITCH(B16,0,"_","A_"),_xlfn.SWITCH(C16,0,"_","Lad_"),_xlfn.SWITCH(E16,0,"_","Sl_"),_xlfn.SWITCH(F16,0,"_","Hr_"),_xlfn.SWITCH(G16,0,"_","Wt_"),_xlfn.SWITCH(H16,0,"_","M_"),_xlfn.SWITCH(I16,0,"_","F"))</f>
         <v>A_Lad______</v>
       </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="X16" s="19">
+      <c r="T16" s="15"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X16" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="37">
         <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y16" s="10">
-        <v>1</v>
-      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>4319703577</v>
       </c>
@@ -11632,12 +10166,12 @@
         <f t="array" ref="R17">CONCATENATE(_xlfn.SWITCH(B17,0,"_","A_"),_xlfn.SWITCH(C17,0,"_","Lad_"),_xlfn.SWITCH(E17,0,"_","Sl_"),_xlfn.SWITCH(F17,0,"_","Hr_"),_xlfn.SWITCH(G17,0,"_","Wt_"),_xlfn.SWITCH(H17,0,"_","M_"),_xlfn.SWITCH(I17,0,"_","F"))</f>
         <v>A__Sl_____</v>
       </c>
-      <c r="Z17">
-        <f>SUM(Y2:Y16)</f>
+      <c r="X17" s="3">
+        <f>SUM(X2:X16)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>4388161847</v>
       </c>
@@ -11691,7 +10225,7 @@
         <v>A_______</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>4445114986</v>
       </c>
@@ -11745,7 +10279,7 @@
         <v>A__Sl__Wt_M__</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>4558609924</v>
       </c>
@@ -11799,7 +10333,7 @@
         <v>A__Sl_Hr_Wt_M__</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>4702921684</v>
       </c>
@@ -11853,7 +10387,7 @@
         <v>A__Sl__Wt_M__</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>5553957443</v>
       </c>
@@ -11907,7 +10441,7 @@
         <v>A__Sl_Hr____</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>5577150313</v>
       </c>
@@ -11961,7 +10495,7 @@
         <v>A__Sl_Hr____</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>6117666160</v>
       </c>
@@ -12015,7 +10549,7 @@
         <v>A__Sl_Hr____</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>6290855005</v>
       </c>
@@ -12069,7 +10603,7 @@
         <v>A_______</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>6391747486</v>
       </c>
@@ -12123,7 +10657,7 @@
         <v>A_Lad__Hr____</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>6775888955</v>
       </c>
@@ -12177,7 +10711,7 @@
         <v>A__Sl_Hr____</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>6962181067</v>
       </c>
@@ -12231,7 +10765,7 @@
         <v>A_Lad_Sl_Hr_Wt_M__</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>7007744171</v>
       </c>
@@ -12285,7 +10819,7 @@
         <v>A_Lad_Sl_Hr____</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>7086361926</v>
       </c>
@@ -12339,7 +10873,7 @@
         <v>A__Sl_____</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>8053475328</v>
       </c>
@@ -12393,7 +10927,7 @@
         <v>A__Sl_____</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>8253242879</v>
       </c>
@@ -12676,8 +11210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -12695,14 +11229,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="I1" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="I1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
@@ -12712,7 +11246,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -12721,7 +11255,7 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -12730,7 +11264,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
@@ -12739,7 +11273,7 @@
         <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
@@ -12769,7 +11303,7 @@
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">_xlfn.SWITCH(B3,0,NA(),B3+(RAND()*0.5))</f>
-        <v>19.247169358816695</v>
+        <v>19.455495914034071</v>
       </c>
       <c r="J3" t="e" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">_xlfn.SWITCH(C3,0,NA(),C3+(RAND()*0.5))</f>
@@ -12777,7 +11311,7 @@
       </c>
       <c r="K3" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">_xlfn.SWITCH(D3,0,NA(),D3+(RAND()*0.5))</f>
-        <v>25.032338590610671</v>
+        <v>25.13377762960188</v>
       </c>
       <c r="L3" t="e" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">_xlfn.SWITCH(E3,0,NA(),E3+(RAND()*0.5))</f>
@@ -12785,11 +11319,11 @@
       </c>
       <c r="M3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.SWITCH(F3,0,NA(),F3+(RAND()*0.5))</f>
-        <v>1.1820236338859456</v>
+        <v>1.3438110096689604</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">_xlfn.SWITCH(G3,0,NA(),G3+(RAND()*0.5))</f>
-        <v>1.2606306024385403</v>
+        <v>1.0968855689978463</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.5">
@@ -12816,7 +11350,7 @@
       </c>
       <c r="I4" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">_xlfn.SWITCH(B4,0,NA(),B4+(RAND()*0.5))</f>
-        <v>19.49517682590421</v>
+        <v>19.467201161501386</v>
       </c>
       <c r="J4" t="e" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">_xlfn.SWITCH(C4,0,NA(),C4+(RAND()*0.5))</f>
@@ -12863,7 +11397,7 @@
       </c>
       <c r="I5" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">_xlfn.SWITCH(B5,0,NA(),B5+(RAND()*0.5))</f>
-        <v>10.48186563777195</v>
+        <v>10.438663976002898</v>
       </c>
       <c r="J5" t="e" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">_xlfn.SWITCH(C5,0,NA(),C5+(RAND()*0.5))</f>
@@ -12871,7 +11405,7 @@
       </c>
       <c r="K5" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">_xlfn.SWITCH(D5,0,NA(),D5+(RAND()*0.5))</f>
-        <v>2.0636208543078318</v>
+        <v>2.3562248788808753</v>
       </c>
       <c r="L5" t="e" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">_xlfn.SWITCH(E5,0,NA(),E5+(RAND()*0.5))</f>
@@ -12910,7 +11444,7 @@
       </c>
       <c r="I6" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">_xlfn.SWITCH(B6,0,NA(),B6+(RAND()*0.5))</f>
-        <v>12.155936638908104</v>
+        <v>12.190876595177983</v>
       </c>
       <c r="J6" t="e" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">_xlfn.SWITCH(C6,0,NA(),C6+(RAND()*0.5))</f>
@@ -12918,7 +11452,7 @@
       </c>
       <c r="K6" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">_xlfn.SWITCH(D6,0,NA(),D6+(RAND()*0.5))</f>
-        <v>2.3036829001154406</v>
+        <v>2.4329509052278948</v>
       </c>
       <c r="L6" t="e" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">_xlfn.SWITCH(E6,0,NA(),E6+(RAND()*0.5))</f>
@@ -12957,7 +11491,7 @@
       </c>
       <c r="I7" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">_xlfn.SWITCH(B7,0,NA(),B7+(RAND()*0.5))</f>
-        <v>12.472178671904151</v>
+        <v>12.433984808916879</v>
       </c>
       <c r="J7" t="e" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">_xlfn.SWITCH(C7,0,NA(),C7+(RAND()*0.5))</f>
@@ -12965,7 +11499,7 @@
       </c>
       <c r="K7" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">_xlfn.SWITCH(D7,0,NA(),D7+(RAND()*0.5))</f>
-        <v>29.203596612178831</v>
+        <v>29.38798278203253</v>
       </c>
       <c r="L7" t="e" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">_xlfn.SWITCH(E7,0,NA(),E7+(RAND()*0.5))</f>
@@ -12973,7 +11507,7 @@
       </c>
       <c r="M7" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.SWITCH(F7,0,NA(),F7+(RAND()*0.5))</f>
-        <v>1.2092476918228923</v>
+        <v>1.3848710923033867</v>
       </c>
       <c r="N7" t="e" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">_xlfn.SWITCH(G7,0,NA(),G7+(RAND()*0.5))</f>
@@ -13004,7 +11538,7 @@
       </c>
       <c r="I8" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">_xlfn.SWITCH(B8,0,NA(),B8+(RAND()*0.5))</f>
-        <v>12.369144064502589</v>
+        <v>12.326433144127844</v>
       </c>
       <c r="J8" t="e" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">_xlfn.SWITCH(C8,0,NA(),C8+(RAND()*0.5))</f>
@@ -13012,11 +11546,11 @@
       </c>
       <c r="K8" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">_xlfn.SWITCH(D8,0,NA(),D8+(RAND()*0.5))</f>
-        <v>1.2481832940323696</v>
+        <v>1.4384969891538735</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">_xlfn.SWITCH(E8,0,NA(),E8+(RAND()*0.5))</f>
-        <v>12.416248203476814</v>
+        <v>12.014329208713148</v>
       </c>
       <c r="M8" t="e" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.SWITCH(F8,0,NA(),F8+(RAND()*0.5))</f>
@@ -13051,7 +11585,7 @@
       </c>
       <c r="I9" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">_xlfn.SWITCH(B9,0,NA(),B9+(RAND()*0.5))</f>
-        <v>12.284166656754939</v>
+        <v>12.146040185986102</v>
       </c>
       <c r="J9" t="e" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">_xlfn.SWITCH(C9,0,NA(),C9+(RAND()*0.5))</f>
@@ -13059,11 +11593,11 @@
       </c>
       <c r="K9" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">_xlfn.SWITCH(D9,0,NA(),D9+(RAND()*0.5))</f>
-        <v>32.294702979104471</v>
+        <v>32.203042257742332</v>
       </c>
       <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">_xlfn.SWITCH(E9,0,NA(),E9+(RAND()*0.5))</f>
-        <v>1.3699662049881727</v>
+        <v>1.2757783075858209</v>
       </c>
       <c r="M9" t="e" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.SWITCH(F9,0,NA(),F9+(RAND()*0.5))</f>
@@ -13098,7 +11632,7 @@
       </c>
       <c r="I10" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">_xlfn.SWITCH(B10,0,NA(),B10+(RAND()*0.5))</f>
-        <v>12.211310574580123</v>
+        <v>12.399504918609043</v>
       </c>
       <c r="J10" t="e" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">_xlfn.SWITCH(C10,0,NA(),C10+(RAND()*0.5))</f>
@@ -13145,7 +11679,7 @@
       </c>
       <c r="I11" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">_xlfn.SWITCH(B11,0,NA(),B11+(RAND()*0.5))</f>
-        <v>15.234696497870107</v>
+        <v>15.440403432466049</v>
       </c>
       <c r="J11" t="e" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">_xlfn.SWITCH(C11,0,NA(),C11+(RAND()*0.5))</f>
@@ -13153,19 +11687,19 @@
       </c>
       <c r="K11" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">_xlfn.SWITCH(D11,0,NA(),D11+(RAND()*0.5))</f>
-        <v>25.443738492866103</v>
+        <v>25.465959874141269</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">_xlfn.SWITCH(E11,0,NA(),E11+(RAND()*0.5))</f>
-        <v>14.046706650840143</v>
+        <v>14.43090633963976</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.SWITCH(F11,0,NA(),F11+(RAND()*0.5))</f>
-        <v>1.178431050820296</v>
+        <v>1.2894050626416573</v>
       </c>
       <c r="N11" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">_xlfn.SWITCH(G11,0,NA(),G11+(RAND()*0.5))</f>
-        <v>1.2259586528067219</v>
+        <v>1.0807709988498377</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.5">
@@ -13192,7 +11726,7 @@
       </c>
       <c r="I12" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">_xlfn.SWITCH(B12,0,NA(),B12+(RAND()*0.5))</f>
-        <v>12.411131895827944</v>
+        <v>12.204207842167687</v>
       </c>
       <c r="J12" t="e" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">_xlfn.SWITCH(C12,0,NA(),C12+(RAND()*0.5))</f>
@@ -13208,7 +11742,7 @@
       </c>
       <c r="M12" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.SWITCH(F12,0,NA(),F12+(RAND()*0.5))</f>
-        <v>2.2117286961976306</v>
+        <v>2.2762921358846304</v>
       </c>
       <c r="N12" t="e" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">_xlfn.SWITCH(G12,0,NA(),G12+(RAND()*0.5))</f>
@@ -13239,11 +11773,11 @@
       </c>
       <c r="I13" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">_xlfn.SWITCH(B13,0,NA(),B13+(RAND()*0.5))</f>
-        <v>8.2729179359644842</v>
+        <v>8.134053000614232</v>
       </c>
       <c r="J13" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">_xlfn.SWITCH(C13,0,NA(),C13+(RAND()*0.5))</f>
-        <v>3.3421362326316304</v>
+        <v>3.0907289987370099</v>
       </c>
       <c r="K13" t="e" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">_xlfn.SWITCH(D13,0,NA(),D13+(RAND()*0.5))</f>
@@ -13255,7 +11789,7 @@
       </c>
       <c r="M13" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.SWITCH(F13,0,NA(),F13+(RAND()*0.5))</f>
-        <v>1.3173051466506533</v>
+        <v>1.0128210344045667</v>
       </c>
       <c r="N13" t="e" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">_xlfn.SWITCH(G13,0,NA(),G13+(RAND()*0.5))</f>
@@ -13286,7 +11820,7 @@
       </c>
       <c r="I14" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">_xlfn.SWITCH(B14,0,NA(),B14+(RAND()*0.5))</f>
-        <v>10.103467175947319</v>
+        <v>10.473302975129036</v>
       </c>
       <c r="J14" t="e" cm="1">
         <f t="array" aca="1" ref="J14" ca="1">_xlfn.SWITCH(C14,0,NA(),C14+(RAND()*0.5))</f>
@@ -13333,7 +11867,7 @@
       </c>
       <c r="I15" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">_xlfn.SWITCH(B15,0,NA(),B15+(RAND()*0.5))</f>
-        <v>12.299696175894569</v>
+        <v>12.462262352466825</v>
       </c>
       <c r="J15" t="e" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">_xlfn.SWITCH(C15,0,NA(),C15+(RAND()*0.5))</f>
@@ -13341,7 +11875,7 @@
       </c>
       <c r="K15" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">_xlfn.SWITCH(D15,0,NA(),D15+(RAND()*0.5))</f>
-        <v>15.016459151208682</v>
+        <v>15.370623123654068</v>
       </c>
       <c r="L15" t="e" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">_xlfn.SWITCH(E15,0,NA(),E15+(RAND()*0.5))</f>
@@ -13380,7 +11914,7 @@
       </c>
       <c r="I16" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">_xlfn.SWITCH(B16,0,NA(),B16+(RAND()*0.5))</f>
-        <v>32.010113540992648</v>
+        <v>32.354994539547192</v>
       </c>
       <c r="J16" t="e" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">_xlfn.SWITCH(C16,0,NA(),C16+(RAND()*0.5))</f>
@@ -13388,11 +11922,11 @@
       </c>
       <c r="K16" cm="1">
         <f t="array" aca="1" ref="K16" ca="1">_xlfn.SWITCH(D16,0,NA(),D16+(RAND()*0.5))</f>
-        <v>15.405930757879224</v>
+        <v>15.189140568865552</v>
       </c>
       <c r="L16" cm="1">
         <f t="array" aca="1" ref="L16" ca="1">_xlfn.SWITCH(E16,0,NA(),E16+(RAND()*0.5))</f>
-        <v>12.244390856139086</v>
+        <v>12.401852674044264</v>
       </c>
       <c r="M16" t="e" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.SWITCH(F16,0,NA(),F16+(RAND()*0.5))</f>
@@ -13427,11 +11961,11 @@
       </c>
       <c r="I17" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">_xlfn.SWITCH(B17,0,NA(),B17+(RAND()*0.5))</f>
-        <v>32.454617478357321</v>
+        <v>32.025540301274177</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">_xlfn.SWITCH(C17,0,NA(),C17+(RAND()*0.5))</f>
-        <v>1.3472336888494416</v>
+        <v>1.4272716943135224</v>
       </c>
       <c r="K17" t="e" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">_xlfn.SWITCH(D17,0,NA(),D17+(RAND()*0.5))</f>
@@ -13474,7 +12008,7 @@
       </c>
       <c r="I18" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">_xlfn.SWITCH(B18,0,NA(),B18+(RAND()*0.5))</f>
-        <v>12.341641339459851</v>
+        <v>12.148319541334244</v>
       </c>
       <c r="J18" t="e" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">_xlfn.SWITCH(C18,0,NA(),C18+(RAND()*0.5))</f>
@@ -13482,7 +12016,7 @@
       </c>
       <c r="K18" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">_xlfn.SWITCH(D18,0,NA(),D18+(RAND()*0.5))</f>
-        <v>23.335358038734995</v>
+        <v>23.435128228557318</v>
       </c>
       <c r="L18" t="e" cm="1">
         <f t="array" aca="1" ref="L18" ca="1">_xlfn.SWITCH(E18,0,NA(),E18+(RAND()*0.5))</f>
@@ -13521,7 +12055,7 @@
       </c>
       <c r="I19" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">_xlfn.SWITCH(B19,0,NA(),B19+(RAND()*0.5))</f>
-        <v>8.0749783920806308</v>
+        <v>8.2228646170230526</v>
       </c>
       <c r="J19" t="e" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">_xlfn.SWITCH(C19,0,NA(),C19+(RAND()*0.5))</f>
@@ -13568,7 +12102,7 @@
       </c>
       <c r="I20" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">_xlfn.SWITCH(B20,0,NA(),B20+(RAND()*0.5))</f>
-        <v>15.279215782658799</v>
+        <v>15.183428759007127</v>
       </c>
       <c r="J20" t="e" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">_xlfn.SWITCH(C20,0,NA(),C20+(RAND()*0.5))</f>
@@ -13576,7 +12110,7 @@
       </c>
       <c r="K20" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">_xlfn.SWITCH(D20,0,NA(),D20+(RAND()*0.5))</f>
-        <v>26.067089235248325</v>
+        <v>26.175314996010027</v>
       </c>
       <c r="L20" t="e" cm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.SWITCH(E20,0,NA(),E20+(RAND()*0.5))</f>
@@ -13584,7 +12118,7 @@
       </c>
       <c r="M20" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.SWITCH(F20,0,NA(),F20+(RAND()*0.5))</f>
-        <v>1.4434335833779912</v>
+        <v>1.3097090654304875</v>
       </c>
       <c r="N20" t="e" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">_xlfn.SWITCH(G20,0,NA(),G20+(RAND()*0.5))</f>
@@ -13615,7 +12149,7 @@
       </c>
       <c r="I21" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">_xlfn.SWITCH(B21,0,NA(),B21+(RAND()*0.5))</f>
-        <v>12.323029350056908</v>
+        <v>12.290374017312802</v>
       </c>
       <c r="J21" t="e" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">_xlfn.SWITCH(C21,0,NA(),C21+(RAND()*0.5))</f>
@@ -13623,15 +12157,15 @@
       </c>
       <c r="K21" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">_xlfn.SWITCH(D21,0,NA(),D21+(RAND()*0.5))</f>
-        <v>2.2938624512646162</v>
+        <v>2.2249241440837837</v>
       </c>
       <c r="L21" cm="1">
         <f t="array" aca="1" ref="L21" ca="1">_xlfn.SWITCH(E21,0,NA(),E21+(RAND()*0.5))</f>
-        <v>12.27011144268371</v>
+        <v>12.355665130628971</v>
       </c>
       <c r="M21" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.SWITCH(F21,0,NA(),F21+(RAND()*0.5))</f>
-        <v>1.0743908740049626</v>
+        <v>1.2508138388805052</v>
       </c>
       <c r="N21" t="e" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">_xlfn.SWITCH(G21,0,NA(),G21+(RAND()*0.5))</f>
@@ -13662,7 +12196,7 @@
       </c>
       <c r="I22" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">_xlfn.SWITCH(B22,0,NA(),B22+(RAND()*0.5))</f>
-        <v>15.253934323189103</v>
+        <v>15.081270510112406</v>
       </c>
       <c r="J22" t="e" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">_xlfn.SWITCH(C22,0,NA(),C22+(RAND()*0.5))</f>
@@ -13670,7 +12204,7 @@
       </c>
       <c r="K22" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">_xlfn.SWITCH(D22,0,NA(),D22+(RAND()*0.5))</f>
-        <v>28.447649633044861</v>
+        <v>28.165717402674293</v>
       </c>
       <c r="L22" t="e" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">_xlfn.SWITCH(E22,0,NA(),E22+(RAND()*0.5))</f>
@@ -13678,7 +12212,7 @@
       </c>
       <c r="M22" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.SWITCH(F22,0,NA(),F22+(RAND()*0.5))</f>
-        <v>1.4090624819302762</v>
+        <v>1.0641847109522033</v>
       </c>
       <c r="N22" t="e" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">_xlfn.SWITCH(G22,0,NA(),G22+(RAND()*0.5))</f>
@@ -13709,7 +12243,7 @@
       </c>
       <c r="I23" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">_xlfn.SWITCH(B23,0,NA(),B23+(RAND()*0.5))</f>
-        <v>12.350778531523307</v>
+        <v>12.098146385080369</v>
       </c>
       <c r="J23" t="e" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">_xlfn.SWITCH(C23,0,NA(),C23+(RAND()*0.5))</f>
@@ -13717,11 +12251,11 @@
       </c>
       <c r="K23" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">_xlfn.SWITCH(D23,0,NA(),D23+(RAND()*0.5))</f>
-        <v>25.28855158757213</v>
+        <v>25.068695453191395</v>
       </c>
       <c r="L23" cm="1">
         <f t="array" aca="1" ref="L23" ca="1">_xlfn.SWITCH(E23,0,NA(),E23+(RAND()*0.5))</f>
-        <v>12.277016309607074</v>
+        <v>12.123798246470876</v>
       </c>
       <c r="M23" t="e" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.SWITCH(F23,0,NA(),F23+(RAND()*0.5))</f>
@@ -13756,7 +12290,7 @@
       </c>
       <c r="I24" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">_xlfn.SWITCH(B24,0,NA(),B24+(RAND()*0.5))</f>
-        <v>11.383008514422963</v>
+        <v>11.224412094147475</v>
       </c>
       <c r="J24" t="e" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">_xlfn.SWITCH(C24,0,NA(),C24+(RAND()*0.5))</f>
@@ -13764,11 +12298,11 @@
       </c>
       <c r="K24" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">_xlfn.SWITCH(D24,0,NA(),D24+(RAND()*0.5))</f>
-        <v>30.411035613352368</v>
+        <v>30.436817108534015</v>
       </c>
       <c r="L24" cm="1">
         <f t="array" aca="1" ref="L24" ca="1">_xlfn.SWITCH(E24,0,NA(),E24+(RAND()*0.5))</f>
-        <v>11.249224221382645</v>
+        <v>11.044520254506647</v>
       </c>
       <c r="M24" t="e" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.SWITCH(F24,0,NA(),F24+(RAND()*0.5))</f>
@@ -13803,7 +12337,7 @@
       </c>
       <c r="I25" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">_xlfn.SWITCH(B25,0,NA(),B25+(RAND()*0.5))</f>
-        <v>10.106004189697748</v>
+        <v>10.014794027689847</v>
       </c>
       <c r="J25" t="e" cm="1">
         <f t="array" aca="1" ref="J25" ca="1">_xlfn.SWITCH(C25,0,NA(),C25+(RAND()*0.5))</f>
@@ -13811,11 +12345,11 @@
       </c>
       <c r="K25" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">_xlfn.SWITCH(D25,0,NA(),D25+(RAND()*0.5))</f>
-        <v>23.103458693817849</v>
+        <v>23.254155731641831</v>
       </c>
       <c r="L25" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">_xlfn.SWITCH(E25,0,NA(),E25+(RAND()*0.5))</f>
-        <v>8.0387900505655541</v>
+        <v>8.317112260688706</v>
       </c>
       <c r="M25" t="e" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.SWITCH(F25,0,NA(),F25+(RAND()*0.5))</f>
@@ -13850,7 +12384,7 @@
       </c>
       <c r="I26" cm="1">
         <f t="array" aca="1" ref="I26" ca="1">_xlfn.SWITCH(B26,0,NA(),B26+(RAND()*0.5))</f>
-        <v>10.485587286722524</v>
+        <v>10.411367287216295</v>
       </c>
       <c r="J26" t="e" cm="1">
         <f t="array" aca="1" ref="J26" ca="1">_xlfn.SWITCH(C26,0,NA(),C26+(RAND()*0.5))</f>
@@ -13897,11 +12431,11 @@
       </c>
       <c r="I27" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">_xlfn.SWITCH(B27,0,NA(),B27+(RAND()*0.5))</f>
-        <v>9.0733109754000623</v>
+        <v>9.033426190925578</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" aca="1" ref="J27" ca="1">_xlfn.SWITCH(C27,0,NA(),C27+(RAND()*0.5))</f>
-        <v>2.2442800867812553</v>
+        <v>2.2370470582154507</v>
       </c>
       <c r="K27" t="e" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">_xlfn.SWITCH(D27,0,NA(),D27+(RAND()*0.5))</f>
@@ -13909,7 +12443,7 @@
       </c>
       <c r="L27" cm="1">
         <f t="array" aca="1" ref="L27" ca="1">_xlfn.SWITCH(E27,0,NA(),E27+(RAND()*0.5))</f>
-        <v>3.4509782680334364</v>
+        <v>3.1822217832764506</v>
       </c>
       <c r="M27" t="e" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.SWITCH(F27,0,NA(),F27+(RAND()*0.5))</f>
@@ -13944,7 +12478,7 @@
       </c>
       <c r="I28" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">_xlfn.SWITCH(B28,0,NA(),B28+(RAND()*0.5))</f>
-        <v>9.0510877134709293</v>
+        <v>9.0337286579567522</v>
       </c>
       <c r="J28" t="e" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">_xlfn.SWITCH(C28,0,NA(),C28+(RAND()*0.5))</f>
@@ -13952,11 +12486,11 @@
       </c>
       <c r="K28" cm="1">
         <f t="array" aca="1" ref="K28" ca="1">_xlfn.SWITCH(D28,0,NA(),D28+(RAND()*0.5))</f>
-        <v>13.226814767184422</v>
+        <v>13.451481450608959</v>
       </c>
       <c r="L28" cm="1">
         <f t="array" aca="1" ref="L28" ca="1">_xlfn.SWITCH(E28,0,NA(),E28+(RAND()*0.5))</f>
-        <v>8.2186388690003938</v>
+        <v>8.4239589332042062</v>
       </c>
       <c r="M28" t="e" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.SWITCH(F28,0,NA(),F28+(RAND()*0.5))</f>
@@ -13991,23 +12525,23 @@
       </c>
       <c r="I29" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">_xlfn.SWITCH(B29,0,NA(),B29+(RAND()*0.5))</f>
-        <v>14.375167617433233</v>
+        <v>14.283464968686408</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">_xlfn.SWITCH(C29,0,NA(),C29+(RAND()*0.5))</f>
-        <v>4.4351759656815997</v>
+        <v>4.3319521487011503</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" aca="1" ref="K29" ca="1">_xlfn.SWITCH(D29,0,NA(),D29+(RAND()*0.5))</f>
-        <v>24.129906948483022</v>
+        <v>24.085237336535013</v>
       </c>
       <c r="L29" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">_xlfn.SWITCH(E29,0,NA(),E29+(RAND()*0.5))</f>
-        <v>14.272341203201298</v>
+        <v>14.358334738517065</v>
       </c>
       <c r="M29" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.SWITCH(F29,0,NA(),F29+(RAND()*0.5))</f>
-        <v>14.065511457089153</v>
+        <v>14.432009834850293</v>
       </c>
       <c r="N29" t="e" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">_xlfn.SWITCH(G29,0,NA(),G29+(RAND()*0.5))</f>
@@ -14038,19 +12572,19 @@
       </c>
       <c r="I30" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">_xlfn.SWITCH(B30,0,NA(),B30+(RAND()*0.5))</f>
-        <v>12.458107926972426</v>
+        <v>12.184771051203708</v>
       </c>
       <c r="J30" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">_xlfn.SWITCH(C30,0,NA(),C30+(RAND()*0.5))</f>
-        <v>7.4195171719047401</v>
+        <v>7.2635048700354998</v>
       </c>
       <c r="K30" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">_xlfn.SWITCH(D30,0,NA(),D30+(RAND()*0.5))</f>
-        <v>8.2683211648418613</v>
+        <v>8.0881793175382413</v>
       </c>
       <c r="L30" cm="1">
         <f t="array" aca="1" ref="L30" ca="1">_xlfn.SWITCH(E30,0,NA(),E30+(RAND()*0.5))</f>
-        <v>12.288039671101238</v>
+        <v>12.139501211567573</v>
       </c>
       <c r="M30" t="e" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.SWITCH(F30,0,NA(),F30+(RAND()*0.5))</f>
@@ -14085,7 +12619,7 @@
       </c>
       <c r="I31" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">_xlfn.SWITCH(B31,0,NA(),B31+(RAND()*0.5))</f>
-        <v>12.483224673499917</v>
+        <v>12.143946299483918</v>
       </c>
       <c r="J31" t="e" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">_xlfn.SWITCH(C31,0,NA(),C31+(RAND()*0.5))</f>
@@ -14093,7 +12627,7 @@
       </c>
       <c r="K31" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">_xlfn.SWITCH(D31,0,NA(),D31+(RAND()*0.5))</f>
-        <v>21.14654855519559</v>
+        <v>21.16209168225895</v>
       </c>
       <c r="L31" t="e" cm="1">
         <f t="array" aca="1" ref="L31" ca="1">_xlfn.SWITCH(E31,0,NA(),E31+(RAND()*0.5))</f>
@@ -14132,7 +12666,7 @@
       </c>
       <c r="I32" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">_xlfn.SWITCH(B32,0,NA(),B32+(RAND()*0.5))</f>
-        <v>11.227083569746343</v>
+        <v>11.486481360808261</v>
       </c>
       <c r="J32" t="e" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">_xlfn.SWITCH(C32,0,NA(),C32+(RAND()*0.5))</f>
@@ -14140,7 +12674,7 @@
       </c>
       <c r="K32" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">_xlfn.SWITCH(D32,0,NA(),D32+(RAND()*0.5))</f>
-        <v>1.0221915446617902</v>
+        <v>1.0095207771262831</v>
       </c>
       <c r="L32" t="e" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">_xlfn.SWITCH(E32,0,NA(),E32+(RAND()*0.5))</f>
@@ -14179,7 +12713,7 @@
       </c>
       <c r="I33" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">_xlfn.SWITCH(B33,0,NA(),B33+(RAND()*0.5))</f>
-        <v>12.230184409165206</v>
+        <v>12.314649643581358</v>
       </c>
       <c r="J33" t="e" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">_xlfn.SWITCH(C33,0,NA(),C33+(RAND()*0.5))</f>
@@ -14195,7 +12729,7 @@
       </c>
       <c r="M33" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">_xlfn.SWITCH(F33,0,NA(),F33+(RAND()*0.5))</f>
-        <v>1.3181002326175439</v>
+        <v>1.0026930567073711</v>
       </c>
       <c r="N33" t="e" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">_xlfn.SWITCH(G33,0,NA(),G33+(RAND()*0.5))</f>
@@ -14226,15 +12760,15 @@
       </c>
       <c r="I34" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">_xlfn.SWITCH(B34,0,NA(),B34+(RAND()*0.5))</f>
-        <v>12.43225809250551</v>
+        <v>12.412169086509548</v>
       </c>
       <c r="J34" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">_xlfn.SWITCH(C34,0,NA(),C34+(RAND()*0.5))</f>
-        <v>7.3958040735916377</v>
+        <v>7.3881912061542376</v>
       </c>
       <c r="K34" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">_xlfn.SWITCH(D34,0,NA(),D34+(RAND()*0.5))</f>
-        <v>30.039010731582806</v>
+        <v>30.058740952991894</v>
       </c>
       <c r="L34" t="e" cm="1">
         <f t="array" aca="1" ref="L34" ca="1">_xlfn.SWITCH(E34,0,NA(),E34+(RAND()*0.5))</f>
@@ -14273,7 +12807,7 @@
       </c>
       <c r="I35" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">_xlfn.SWITCH(B35,0,NA(),B35+(RAND()*0.5))</f>
-        <v>8.1744269731766401</v>
+        <v>8.3723052392104602</v>
       </c>
       <c r="J35" t="e" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">_xlfn.SWITCH(C35,0,NA(),C35+(RAND()*0.5))</f>
@@ -14320,7 +12854,7 @@
       </c>
       <c r="I36" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">_xlfn.SWITCH(B36,0,NA(),B36+(RAND()*0.5))</f>
-        <v>12.390863026708216</v>
+        <v>12.265617914772935</v>
       </c>
       <c r="J36" t="e" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">_xlfn.SWITCH(C36,0,NA(),C36+(RAND()*0.5))</f>
@@ -14328,11 +12862,11 @@
       </c>
       <c r="K36" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">_xlfn.SWITCH(D36,0,NA(),D36+(RAND()*0.5))</f>
-        <v>12.036149161788895</v>
+        <v>12.238012210782347</v>
       </c>
       <c r="L36" cm="1">
         <f t="array" aca="1" ref="L36" ca="1">_xlfn.SWITCH(E36,0,NA(),E36+(RAND()*0.5))</f>
-        <v>12.34847347327441</v>
+        <v>12.160959172672438</v>
       </c>
       <c r="M36" t="e" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">_xlfn.SWITCH(F36,0,NA(),F36+(RAND()*0.5))</f>
@@ -14367,7 +12901,7 @@
       </c>
       <c r="I37" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">_xlfn.SWITCH(B37,0,NA(),B37+(RAND()*0.5))</f>
-        <v>12.318116425493528</v>
+        <v>12.205818354185482</v>
       </c>
       <c r="J37" t="e" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">_xlfn.SWITCH(C37,0,NA(),C37+(RAND()*0.5))</f>
@@ -14379,11 +12913,11 @@
       </c>
       <c r="L37" cm="1">
         <f t="array" aca="1" ref="L37" ca="1">_xlfn.SWITCH(E37,0,NA(),E37+(RAND()*0.5))</f>
-        <v>12.462879201737108</v>
+        <v>12.054581280449868</v>
       </c>
       <c r="M37" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">_xlfn.SWITCH(F37,0,NA(),F37+(RAND()*0.5))</f>
-        <v>9.4415804036696667</v>
+        <v>9.0684208017572843</v>
       </c>
       <c r="N37" t="e" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">_xlfn.SWITCH(G37,0,NA(),G37+(RAND()*0.5))</f>
@@ -14404,86 +12938,90 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.6">
-      <c r="A1" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="40" t="s">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.6">
+      <c r="B1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="J1" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3">
+        <v>1503960366</v>
+      </c>
+      <c r="B3">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>25</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -14491,32 +13029,35 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3" s="37">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="31">
         <v>32</v>
       </c>
-      <c r="J3" s="37">
+      <c r="K3" s="31">
         <v>7</v>
       </c>
-      <c r="K3" s="37">
+      <c r="L3" s="31">
         <v>32</v>
       </c>
-      <c r="L3" s="37">
+      <c r="M3" s="31">
         <v>14</v>
       </c>
-      <c r="M3" s="37">
+      <c r="N3" s="31">
         <v>14</v>
       </c>
-      <c r="N3" s="37">
+      <c r="O3" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A4">
+        <v>1624580081</v>
+      </c>
+      <c r="B4">
         <v>19</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
         <v>0</v>
       </c>
@@ -14532,38 +13073,41 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="I4" s="37">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="31">
         <v>32</v>
       </c>
-      <c r="J4" s="37">
+      <c r="K4" s="31">
         <v>7</v>
       </c>
-      <c r="K4" s="37">
+      <c r="L4" s="31">
         <v>30</v>
       </c>
-      <c r="L4" s="37">
+      <c r="M4" s="31">
         <v>14</v>
       </c>
-      <c r="M4" s="37">
+      <c r="N4" s="31">
         <v>9</v>
       </c>
-      <c r="N4" s="37">
+      <c r="O4" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5">
+        <v>1644430081</v>
+      </c>
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
@@ -14573,38 +13117,41 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="I5" s="37">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="31">
         <v>19</v>
       </c>
-      <c r="J5" s="37">
+      <c r="K5" s="31">
         <v>4</v>
       </c>
-      <c r="K5" s="37">
+      <c r="L5" s="31">
         <v>30</v>
       </c>
-      <c r="L5" s="37">
+      <c r="M5" s="31">
         <v>12</v>
       </c>
-      <c r="M5" s="37">
+      <c r="N5" s="31">
         <v>2</v>
       </c>
-      <c r="N5" s="37">
+      <c r="O5" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6">
+        <v>1844505072</v>
+      </c>
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -14614,155 +13161,167 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="I6" s="37">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="31">
         <v>19</v>
       </c>
-      <c r="J6" s="37">
+      <c r="K6" s="31">
         <v>3</v>
       </c>
-      <c r="K6" s="37">
+      <c r="L6" s="31">
         <v>29</v>
       </c>
-      <c r="L6" s="37">
+      <c r="M6" s="31">
         <v>12</v>
       </c>
-      <c r="M6" s="37">
+      <c r="N6" s="31">
         <v>1</v>
       </c>
-      <c r="N6" s="37">
+      <c r="O6" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7">
+        <v>1927972279</v>
+      </c>
+      <c r="B7">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>29</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="37">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31">
         <v>15</v>
       </c>
-      <c r="J7" s="37">
+      <c r="K7" s="31">
         <v>2</v>
       </c>
-      <c r="K7" s="37">
+      <c r="L7" s="31">
         <v>28</v>
       </c>
-      <c r="L7" s="37">
+      <c r="M7" s="31">
         <v>12</v>
       </c>
-      <c r="M7" s="37">
+      <c r="N7" s="31">
         <v>1</v>
       </c>
-      <c r="N7" s="37">
+      <c r="O7" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8">
+        <v>2022484408</v>
+      </c>
+      <c r="B8">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="I8" s="37">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="31">
         <v>15</v>
       </c>
-      <c r="J8" s="37">
+      <c r="K8" s="31">
         <v>1</v>
       </c>
-      <c r="K8" s="37">
+      <c r="L8" s="31">
         <v>26</v>
       </c>
-      <c r="L8" s="37">
+      <c r="M8" s="31">
         <v>12</v>
       </c>
-      <c r="M8" s="37">
+      <c r="N8" s="31">
         <v>1</v>
       </c>
-      <c r="N8" s="37">
+      <c r="O8" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9">
+        <v>2026352035</v>
+      </c>
+      <c r="B9">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>32</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="I9" s="37">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="31">
         <v>15</v>
       </c>
-      <c r="J9" s="37">
-        <v>0</v>
-      </c>
-      <c r="K9" s="37">
+      <c r="K9" s="31">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31">
         <v>25</v>
       </c>
-      <c r="L9" s="37">
+      <c r="M9" s="31">
         <v>12</v>
       </c>
-      <c r="M9" s="37">
+      <c r="N9" s="31">
         <v>1</v>
       </c>
-      <c r="N9" s="37">
+      <c r="O9" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A10">
+        <v>2320127002</v>
+      </c>
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -14778,40 +13337,43 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="I10" s="37">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="31">
         <v>14</v>
       </c>
-      <c r="J10" s="37">
-        <v>0</v>
-      </c>
-      <c r="K10" s="37">
+      <c r="K10" s="31">
+        <v>0</v>
+      </c>
+      <c r="L10" s="31">
         <v>25</v>
       </c>
-      <c r="L10" s="37">
+      <c r="M10" s="31">
         <v>12</v>
       </c>
-      <c r="M10" s="37">
+      <c r="N10" s="31">
         <v>1</v>
       </c>
-      <c r="N10" s="37">
+      <c r="O10" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11">
+        <v>2347167796</v>
+      </c>
+      <c r="B11">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>25</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>14</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -14819,32 +13381,35 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11" s="37">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="31">
         <v>12</v>
       </c>
-      <c r="J11" s="37">
-        <v>0</v>
-      </c>
-      <c r="K11" s="37">
+      <c r="K11" s="31">
+        <v>0</v>
+      </c>
+      <c r="L11" s="31">
         <v>25</v>
       </c>
-      <c r="L11" s="37">
+      <c r="M11" s="31">
         <v>12</v>
       </c>
-      <c r="M11" s="37">
+      <c r="N11" s="31">
         <v>1</v>
       </c>
-      <c r="N11" s="37">
+      <c r="O11" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A12">
+        <v>2873212765</v>
+      </c>
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
         <v>0</v>
       </c>
@@ -14852,81 +13417,87 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="37">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31">
         <v>12</v>
       </c>
-      <c r="J12" s="37">
-        <v>0</v>
-      </c>
-      <c r="K12" s="37">
+      <c r="K12" s="31">
+        <v>0</v>
+      </c>
+      <c r="L12" s="31">
         <v>24</v>
       </c>
-      <c r="L12" s="37">
+      <c r="M12" s="31">
         <v>11</v>
       </c>
-      <c r="M12" s="37">
+      <c r="N12" s="31">
         <v>1</v>
       </c>
-      <c r="N12" s="37">
+      <c r="O12" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A13">
+        <v>2891001357</v>
+      </c>
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="37">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31">
         <v>12</v>
       </c>
-      <c r="J13" s="37">
-        <v>0</v>
-      </c>
-      <c r="K13" s="37">
+      <c r="K13" s="31">
+        <v>0</v>
+      </c>
+      <c r="L13" s="31">
         <v>23</v>
       </c>
-      <c r="L13" s="37">
+      <c r="M13" s="31">
         <v>8</v>
       </c>
-      <c r="M13" s="37">
+      <c r="N13" s="31">
         <v>1</v>
       </c>
-      <c r="N13" s="37">
+      <c r="O13" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A14">
+        <v>3372868164</v>
+      </c>
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
         <v>0</v>
       </c>
@@ -14942,38 +13513,41 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="I14" s="37">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="31">
         <v>12</v>
       </c>
-      <c r="J14" s="37">
-        <v>0</v>
-      </c>
-      <c r="K14" s="37">
+      <c r="K14" s="31">
+        <v>0</v>
+      </c>
+      <c r="L14" s="31">
         <v>23</v>
       </c>
-      <c r="L14" s="37">
+      <c r="M14" s="31">
         <v>8</v>
       </c>
-      <c r="M14" s="37">
-        <v>0</v>
-      </c>
-      <c r="N14" s="37">
+      <c r="N14" s="31">
+        <v>0</v>
+      </c>
+      <c r="O14" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A15">
+        <v>3977333714</v>
+      </c>
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
         <v>0</v>
       </c>
@@ -14983,76 +13557,82 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="I15" s="37">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="31">
         <v>12</v>
       </c>
-      <c r="J15" s="37">
-        <v>0</v>
-      </c>
-      <c r="K15" s="37">
+      <c r="K15" s="31">
+        <v>0</v>
+      </c>
+      <c r="L15" s="31">
         <v>21</v>
       </c>
-      <c r="L15" s="37">
+      <c r="M15" s="31">
         <v>3</v>
       </c>
-      <c r="M15" s="37">
-        <v>0</v>
-      </c>
-      <c r="N15" s="37">
+      <c r="N15" s="31">
+        <v>0</v>
+      </c>
+      <c r="O15" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16">
+        <v>4020332650</v>
+      </c>
+      <c r="B16">
         <v>32</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>12</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="I16" s="37">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31">
         <v>12</v>
       </c>
-      <c r="J16" s="37">
-        <v>0</v>
-      </c>
-      <c r="K16" s="37">
+      <c r="K16" s="31">
+        <v>0</v>
+      </c>
+      <c r="L16" s="31">
         <v>15</v>
       </c>
-      <c r="L16" s="37">
+      <c r="M16" s="31">
         <v>1</v>
       </c>
-      <c r="M16" s="37">
-        <v>0</v>
-      </c>
-      <c r="N16" s="37">
+      <c r="N16" s="31">
+        <v>0</v>
+      </c>
+      <c r="O16" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A17">
+        <v>4057192912</v>
+      </c>
+      <c r="B17">
         <v>32</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17">
         <v>0</v>
       </c>
@@ -15065,38 +13645,41 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="I17" s="37">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="31">
         <v>12</v>
       </c>
-      <c r="J17" s="37">
-        <v>0</v>
-      </c>
-      <c r="K17" s="37">
+      <c r="K17" s="31">
+        <v>0</v>
+      </c>
+      <c r="L17" s="31">
         <v>15</v>
       </c>
-      <c r="L17" s="37">
-        <v>0</v>
-      </c>
-      <c r="M17" s="37">
-        <v>0</v>
-      </c>
-      <c r="N17" s="37">
+      <c r="M17" s="31">
+        <v>0</v>
+      </c>
+      <c r="N17" s="31">
+        <v>0</v>
+      </c>
+      <c r="O17" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A18">
+        <v>4319703577</v>
+      </c>
+      <c r="B18">
         <v>12</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>23</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
       <c r="E18">
         <v>0</v>
       </c>
@@ -15106,32 +13689,35 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="I18" s="37">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="31">
         <v>12</v>
       </c>
-      <c r="J18" s="37">
-        <v>0</v>
-      </c>
-      <c r="K18" s="37">
+      <c r="K18" s="31">
+        <v>0</v>
+      </c>
+      <c r="L18" s="31">
         <v>13</v>
       </c>
-      <c r="L18" s="37">
-        <v>0</v>
-      </c>
-      <c r="M18" s="37">
-        <v>0</v>
-      </c>
-      <c r="N18" s="37">
+      <c r="M18" s="31">
+        <v>0</v>
+      </c>
+      <c r="N18" s="31">
+        <v>0</v>
+      </c>
+      <c r="O18" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A19">
+        <v>4388161847</v>
+      </c>
+      <c r="B19">
         <v>8</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
         <v>0</v>
       </c>
@@ -15147,278 +13733,299 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="I19" s="37">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="31">
         <v>12</v>
       </c>
-      <c r="J19" s="37">
-        <v>0</v>
-      </c>
-      <c r="K19" s="37">
+      <c r="K19" s="31">
+        <v>0</v>
+      </c>
+      <c r="L19" s="31">
         <v>12</v>
       </c>
-      <c r="L19" s="37">
-        <v>0</v>
-      </c>
-      <c r="M19" s="37">
-        <v>0</v>
-      </c>
-      <c r="N19" s="37">
+      <c r="M19" s="31">
+        <v>0</v>
+      </c>
+      <c r="N19" s="31">
+        <v>0</v>
+      </c>
+      <c r="O19" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A20">
+        <v>4445114986</v>
+      </c>
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>26</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="37">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="31">
         <v>12</v>
       </c>
-      <c r="J20" s="37">
-        <v>0</v>
-      </c>
-      <c r="K20" s="37">
+      <c r="K20" s="31">
+        <v>0</v>
+      </c>
+      <c r="L20" s="31">
         <v>8</v>
       </c>
-      <c r="L20" s="37">
-        <v>0</v>
-      </c>
-      <c r="M20" s="37">
-        <v>0</v>
-      </c>
-      <c r="N20" s="37">
+      <c r="M20" s="31">
+        <v>0</v>
+      </c>
+      <c r="N20" s="31">
+        <v>0</v>
+      </c>
+      <c r="O20" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A21">
+        <v>4558609924</v>
+      </c>
+      <c r="B21">
         <v>12</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>12</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="37">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="31">
         <v>12</v>
       </c>
-      <c r="J21" s="37">
-        <v>0</v>
-      </c>
-      <c r="K21" s="37">
+      <c r="K21" s="31">
+        <v>0</v>
+      </c>
+      <c r="L21" s="31">
         <v>2</v>
       </c>
-      <c r="L21" s="37">
-        <v>0</v>
-      </c>
-      <c r="M21" s="37">
-        <v>0</v>
-      </c>
-      <c r="N21" s="37">
+      <c r="M21" s="31">
+        <v>0</v>
+      </c>
+      <c r="N21" s="31">
+        <v>0</v>
+      </c>
+      <c r="O21" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A22">
+        <v>4702921684</v>
+      </c>
+      <c r="B22">
         <v>15</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>28</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="37">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="31">
         <v>12</v>
       </c>
-      <c r="J22" s="37">
-        <v>0</v>
-      </c>
-      <c r="K22" s="37">
+      <c r="K22" s="31">
+        <v>0</v>
+      </c>
+      <c r="L22" s="31">
         <v>2</v>
       </c>
-      <c r="L22" s="37">
-        <v>0</v>
-      </c>
-      <c r="M22" s="37">
-        <v>0</v>
-      </c>
-      <c r="N22" s="37">
+      <c r="M22" s="31">
+        <v>0</v>
+      </c>
+      <c r="N22" s="31">
+        <v>0</v>
+      </c>
+      <c r="O22" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A23">
+        <v>5553957443</v>
+      </c>
+      <c r="B23">
         <v>12</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>25</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>12</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="I23" s="37">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="31">
         <v>12</v>
       </c>
-      <c r="J23" s="37">
-        <v>0</v>
-      </c>
-      <c r="K23" s="37">
+      <c r="K23" s="31">
+        <v>0</v>
+      </c>
+      <c r="L23" s="31">
         <v>2</v>
       </c>
-      <c r="L23" s="37">
-        <v>0</v>
-      </c>
-      <c r="M23" s="37">
-        <v>0</v>
-      </c>
-      <c r="N23" s="37">
+      <c r="M23" s="31">
+        <v>0</v>
+      </c>
+      <c r="N23" s="31">
+        <v>0</v>
+      </c>
+      <c r="O23" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A24">
+        <v>5577150313</v>
+      </c>
+      <c r="B24">
         <v>11</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>30</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>11</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="I24" s="37">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="31">
         <v>12</v>
       </c>
-      <c r="J24" s="37">
-        <v>0</v>
-      </c>
-      <c r="K24" s="37">
+      <c r="K24" s="31">
+        <v>0</v>
+      </c>
+      <c r="L24" s="31">
         <v>1</v>
       </c>
-      <c r="L24" s="37">
-        <v>0</v>
-      </c>
-      <c r="M24" s="37">
-        <v>0</v>
-      </c>
-      <c r="N24" s="37">
+      <c r="M24" s="31">
+        <v>0</v>
+      </c>
+      <c r="N24" s="31">
+        <v>0</v>
+      </c>
+      <c r="O24" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A25">
+        <v>6117666160</v>
+      </c>
+      <c r="B25">
         <v>10</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>23</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>8</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="I25" s="37">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="31">
         <v>12</v>
       </c>
-      <c r="J25" s="37">
-        <v>0</v>
-      </c>
-      <c r="K25" s="37">
+      <c r="K25" s="31">
+        <v>0</v>
+      </c>
+      <c r="L25" s="31">
         <v>1</v>
       </c>
-      <c r="L25" s="37">
-        <v>0</v>
-      </c>
-      <c r="M25" s="37">
-        <v>0</v>
-      </c>
-      <c r="N25" s="37">
+      <c r="M25" s="31">
+        <v>0</v>
+      </c>
+      <c r="N25" s="31">
+        <v>0</v>
+      </c>
+      <c r="O25" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A26">
+        <v>6290855005</v>
+      </c>
+      <c r="B26">
         <v>10</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
       <c r="C26">
         <v>0</v>
       </c>
@@ -15434,119 +14041,128 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="I26" s="37">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="31">
         <v>12</v>
       </c>
-      <c r="J26" s="37">
-        <v>0</v>
-      </c>
-      <c r="K26" s="37">
-        <v>0</v>
-      </c>
-      <c r="L26" s="37">
-        <v>0</v>
-      </c>
-      <c r="M26" s="37">
-        <v>0</v>
-      </c>
-      <c r="N26" s="37">
+      <c r="K26" s="31">
+        <v>0</v>
+      </c>
+      <c r="L26" s="31">
+        <v>0</v>
+      </c>
+      <c r="M26" s="31">
+        <v>0</v>
+      </c>
+      <c r="N26" s="31">
+        <v>0</v>
+      </c>
+      <c r="O26" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A27">
+        <v>6391747486</v>
+      </c>
+      <c r="B27">
         <v>9</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>3</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="I27" s="37">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="31">
         <v>11</v>
       </c>
-      <c r="J27" s="37">
-        <v>0</v>
-      </c>
-      <c r="K27" s="37">
-        <v>0</v>
-      </c>
-      <c r="L27" s="37">
-        <v>0</v>
-      </c>
-      <c r="M27" s="37">
-        <v>0</v>
-      </c>
-      <c r="N27" s="37">
+      <c r="K27" s="31">
+        <v>0</v>
+      </c>
+      <c r="L27" s="31">
+        <v>0</v>
+      </c>
+      <c r="M27" s="31">
+        <v>0</v>
+      </c>
+      <c r="N27" s="31">
+        <v>0</v>
+      </c>
+      <c r="O27" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A28">
+        <v>6775888955</v>
+      </c>
+      <c r="B28">
         <v>9</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
       <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>13</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>8</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="I28" s="37">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="31">
         <v>11</v>
       </c>
-      <c r="J28" s="37">
-        <v>0</v>
-      </c>
-      <c r="K28" s="37">
-        <v>0</v>
-      </c>
-      <c r="L28" s="37">
-        <v>0</v>
-      </c>
-      <c r="M28" s="37">
-        <v>0</v>
-      </c>
-      <c r="N28" s="37">
+      <c r="K28" s="31">
+        <v>0</v>
+      </c>
+      <c r="L28" s="31">
+        <v>0</v>
+      </c>
+      <c r="M28" s="31">
+        <v>0</v>
+      </c>
+      <c r="N28" s="31">
+        <v>0</v>
+      </c>
+      <c r="O28" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A29">
+        <v>6962181067</v>
+      </c>
+      <c r="B29">
         <v>14</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>24</v>
-      </c>
-      <c r="D29">
-        <v>14</v>
       </c>
       <c r="E29">
         <v>14</v>
@@ -15555,81 +14171,87 @@
         <v>14</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="I29" s="37">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="31">
         <v>10</v>
       </c>
-      <c r="J29" s="37">
-        <v>0</v>
-      </c>
-      <c r="K29" s="37">
-        <v>0</v>
-      </c>
-      <c r="L29" s="37">
-        <v>0</v>
-      </c>
-      <c r="M29" s="37">
-        <v>0</v>
-      </c>
-      <c r="N29" s="37">
+      <c r="K29" s="31">
+        <v>0</v>
+      </c>
+      <c r="L29" s="31">
+        <v>0</v>
+      </c>
+      <c r="M29" s="31">
+        <v>0</v>
+      </c>
+      <c r="N29" s="31">
+        <v>0</v>
+      </c>
+      <c r="O29" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A30">
+        <v>7007744171</v>
+      </c>
+      <c r="B30">
         <v>12</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>7</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>8</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>12</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="I30" s="37">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="31">
         <v>10</v>
       </c>
-      <c r="J30" s="37">
-        <v>0</v>
-      </c>
-      <c r="K30" s="37">
-        <v>0</v>
-      </c>
-      <c r="L30" s="37">
-        <v>0</v>
-      </c>
-      <c r="M30" s="37">
-        <v>0</v>
-      </c>
-      <c r="N30" s="37">
+      <c r="K30" s="31">
+        <v>0</v>
+      </c>
+      <c r="L30" s="31">
+        <v>0</v>
+      </c>
+      <c r="M30" s="31">
+        <v>0</v>
+      </c>
+      <c r="N30" s="31">
+        <v>0</v>
+      </c>
+      <c r="O30" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A31">
+        <v>7086361926</v>
+      </c>
+      <c r="B31">
         <v>12</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
       <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>21</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
       <c r="E31">
         <v>0</v>
       </c>
@@ -15639,38 +14261,41 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="I31" s="37">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="31">
         <v>10</v>
       </c>
-      <c r="J31" s="37">
-        <v>0</v>
-      </c>
-      <c r="K31" s="37">
-        <v>0</v>
-      </c>
-      <c r="L31" s="37">
-        <v>0</v>
-      </c>
-      <c r="M31" s="37">
-        <v>0</v>
-      </c>
-      <c r="N31" s="37">
+      <c r="K31" s="31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A32">
+        <v>8053475328</v>
+      </c>
+      <c r="B32">
         <v>11</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
       <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
         <v>0</v>
       </c>
@@ -15680,32 +14305,35 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="I32" s="37">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="31">
         <v>10</v>
       </c>
-      <c r="J32" s="37">
-        <v>0</v>
-      </c>
-      <c r="K32" s="37">
-        <v>0</v>
-      </c>
-      <c r="L32" s="37">
-        <v>0</v>
-      </c>
-      <c r="M32" s="37">
-        <v>0</v>
-      </c>
-      <c r="N32" s="37">
+      <c r="K32" s="31">
+        <v>0</v>
+      </c>
+      <c r="L32" s="31">
+        <v>0</v>
+      </c>
+      <c r="M32" s="31">
+        <v>0</v>
+      </c>
+      <c r="N32" s="31">
+        <v>0</v>
+      </c>
+      <c r="O32" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A33">
+        <v>8253242879</v>
+      </c>
+      <c r="B33">
         <v>12</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
       <c r="C33">
         <v>0</v>
       </c>
@@ -15713,46 +14341,49 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="I33" s="37">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="31">
         <v>9</v>
       </c>
-      <c r="J33" s="37">
-        <v>0</v>
-      </c>
-      <c r="K33" s="37">
-        <v>0</v>
-      </c>
-      <c r="L33" s="37">
-        <v>0</v>
-      </c>
-      <c r="M33" s="37">
-        <v>0</v>
-      </c>
-      <c r="N33" s="37">
+      <c r="K33" s="31">
+        <v>0</v>
+      </c>
+      <c r="L33" s="31">
+        <v>0</v>
+      </c>
+      <c r="M33" s="31">
+        <v>0</v>
+      </c>
+      <c r="N33" s="31">
+        <v>0</v>
+      </c>
+      <c r="O33" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A34">
+        <v>8378563200</v>
+      </c>
+      <c r="B34">
         <v>12</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>7</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>30</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
       <c r="E34">
         <v>0</v>
       </c>
@@ -15762,32 +14393,35 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="I34" s="37">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="31">
         <v>9</v>
       </c>
-      <c r="J34" s="37">
-        <v>0</v>
-      </c>
-      <c r="K34" s="37">
-        <v>0</v>
-      </c>
-      <c r="L34" s="37">
-        <v>0</v>
-      </c>
-      <c r="M34" s="37">
-        <v>0</v>
-      </c>
-      <c r="N34" s="37">
+      <c r="K34" s="31">
+        <v>0</v>
+      </c>
+      <c r="L34" s="31">
+        <v>0</v>
+      </c>
+      <c r="M34" s="31">
+        <v>0</v>
+      </c>
+      <c r="N34" s="31">
+        <v>0</v>
+      </c>
+      <c r="O34" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A35">
+        <v>8583815059</v>
+      </c>
+      <c r="B35">
         <v>8</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
       <c r="C35">
         <v>0</v>
       </c>
@@ -15803,40 +14437,43 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="I35" s="37">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="31">
         <v>8</v>
       </c>
-      <c r="J35" s="37">
-        <v>0</v>
-      </c>
-      <c r="K35" s="37">
-        <v>0</v>
-      </c>
-      <c r="L35" s="37">
-        <v>0</v>
-      </c>
-      <c r="M35" s="37">
-        <v>0</v>
-      </c>
-      <c r="N35" s="37">
+      <c r="K35" s="31">
+        <v>0</v>
+      </c>
+      <c r="L35" s="31">
+        <v>0</v>
+      </c>
+      <c r="M35" s="31">
+        <v>0</v>
+      </c>
+      <c r="N35" s="31">
+        <v>0</v>
+      </c>
+      <c r="O35" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A36">
+        <v>8792009665</v>
+      </c>
+      <c r="B36">
         <v>12</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
       <c r="C36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -15844,74 +14481,106 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="I36" s="37">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="31">
         <v>8</v>
       </c>
-      <c r="J36" s="37">
-        <v>0</v>
-      </c>
-      <c r="K36" s="37">
-        <v>0</v>
-      </c>
-      <c r="L36" s="37">
-        <v>0</v>
-      </c>
-      <c r="M36" s="37">
-        <v>0</v>
-      </c>
-      <c r="N36" s="37">
+      <c r="K36" s="31">
+        <v>0</v>
+      </c>
+      <c r="L36" s="31">
+        <v>0</v>
+      </c>
+      <c r="M36" s="31">
+        <v>0</v>
+      </c>
+      <c r="N36" s="31">
+        <v>0</v>
+      </c>
+      <c r="O36" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A37">
+        <v>8877689391</v>
+      </c>
+      <c r="B37">
         <v>12</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>12</v>
-      </c>
-      <c r="E37">
-        <v>9</v>
       </c>
       <c r="F37">
         <v>9</v>
       </c>
       <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="37">
+        <v>9</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="J37" s="31">
         <v>8</v>
       </c>
-      <c r="J37" s="37">
-        <v>0</v>
-      </c>
-      <c r="K37" s="37">
-        <v>0</v>
-      </c>
-      <c r="L37" s="37">
-        <v>0</v>
-      </c>
-      <c r="M37" s="37">
-        <v>0</v>
-      </c>
-      <c r="N37" s="37">
+      <c r="K37" s="31">
+        <v>0</v>
+      </c>
+      <c r="L37" s="31">
+        <v>0</v>
+      </c>
+      <c r="M37" s="31">
+        <v>0</v>
+      </c>
+      <c r="N37" s="31">
+        <v>0</v>
+      </c>
+      <c r="O37" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="I38" s="38"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="J39">
+        <f>SUM(J3:J37)</f>
+        <v>457</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:O39" si="0">SUM(K3:K37)</f>
+        <v>24</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>412</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="J1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:G37">
+  <conditionalFormatting sqref="B3:H37">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -15921,7 +14590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:N37 B1:N1">
+  <conditionalFormatting sqref="B2:O37 C1:O1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15933,7 +14602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:N37">
+  <conditionalFormatting sqref="J3:O37">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
